--- a/DDAf_2025_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\2025 Outputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF4B44E-5239-45F7-B9F5-CEB7B014E475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2CD2A15-D832-473B-B150-5A485A267189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{A24426CC-09F4-4BCF-8566-555E874AB2F8}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{D2C61B6E-DEC8-461B-BD52-8B1D36F0E865}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
@@ -636,7 +636,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "PaÃ­ses Africanos de LÃ­ngua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado ComÃºn del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Figures up to 2024 are estimates. For 2025 onwards, they are projections.</t>
@@ -1552,7 +1552,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D79E4ABC-1D6C-41C8-893C-806A5098C652}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57360A70-7231-418E-923A-C4A34429B7B8}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1560,35 +1560,35 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" style="81" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.85546875" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" style="81" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="43" width="5.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.140625" style="81" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="5.453125" style="81" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1796875" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1635,7 +1635,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" ht="32" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>45</v>
       </c>
@@ -1876,34 +1876,34 @@
         <v>4.22</v>
       </c>
       <c r="AJ3" s="12">
-        <v>1.0012890000000001</v>
+        <v>1.2633270000000001</v>
       </c>
       <c r="AK3" s="12">
-        <v>4.5033830000000004</v>
+        <v>4.4239579999999998</v>
       </c>
       <c r="AL3" s="12">
-        <v>2.373523</v>
+        <v>2.0901049999999999</v>
       </c>
       <c r="AM3" s="12">
-        <v>2.07558</v>
+        <v>2.0784750000000001</v>
       </c>
       <c r="AN3" s="12">
-        <v>2.5214669999999999</v>
+        <v>2.5058470000000002</v>
       </c>
       <c r="AO3" s="12">
-        <v>2.8792689999999999</v>
+        <v>2.8604790000000002</v>
       </c>
       <c r="AP3" s="12">
-        <v>2.9818709999999999</v>
+        <v>2.970755</v>
       </c>
       <c r="AQ3" s="12">
-        <v>3.0869249999999999</v>
+        <v>3.0837050000000001</v>
       </c>
       <c r="AR3" s="13">
-        <v>2.7083560000000002</v>
+        <v>2.699198</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
         <v>47</v>
       </c>
@@ -2016,28 +2016,28 @@
         <v>-2.9898690000000001</v>
       </c>
       <c r="AL4" s="16">
-        <v>-0.36415599999999998</v>
+        <v>-0.87662399999999996</v>
       </c>
       <c r="AM4" s="16">
-        <v>2.2765049999999998</v>
+        <v>2.2882739999999999</v>
       </c>
       <c r="AN4" s="16">
-        <v>3.1129150000000001</v>
+        <v>4.5934749999999998</v>
       </c>
       <c r="AO4" s="16">
-        <v>5.0210949999999999</v>
+        <v>4.9987729999999999</v>
       </c>
       <c r="AP4" s="16">
-        <v>4.9426550000000002</v>
+        <v>4.8940679999999999</v>
       </c>
       <c r="AQ4" s="16">
-        <v>4.5299389999999997</v>
+        <v>4.9451559999999999</v>
       </c>
       <c r="AR4" s="17">
-        <v>3.9708619999999999</v>
+        <v>4.338743</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -2117,61 +2117,61 @@
         <v>3.8612139999999999</v>
       </c>
       <c r="AA5" s="19">
-        <v>0.92323</v>
+        <v>1.4368570000000001</v>
       </c>
       <c r="AB5" s="19">
-        <v>2.227481</v>
+        <v>2.047021</v>
       </c>
       <c r="AC5" s="19">
-        <v>1.0626100000000001</v>
+        <v>4.6754920000000002</v>
       </c>
       <c r="AD5" s="19">
-        <v>2.0265780000000002</v>
+        <v>1.4570799999999999</v>
       </c>
       <c r="AE5" s="19">
-        <v>2.380099</v>
+        <v>0.25662699999999999</v>
       </c>
       <c r="AF5" s="19">
-        <v>2.6921650000000001</v>
+        <v>6.0828639999999998</v>
       </c>
       <c r="AG5" s="19">
-        <v>-1.5596429999999999</v>
+        <v>-2.8625379999999998</v>
       </c>
       <c r="AH5" s="19">
-        <v>10.683337</v>
+        <v>3.4344429999999999</v>
       </c>
       <c r="AI5" s="19">
-        <v>0.47644500000000001</v>
+        <v>1.1202270000000001</v>
       </c>
       <c r="AJ5" s="19">
-        <v>5.0339809999999998</v>
+        <v>3.44441</v>
       </c>
       <c r="AK5" s="19">
-        <v>3.6531449999999999</v>
+        <v>2.7931400000000002</v>
       </c>
       <c r="AL5" s="19">
-        <v>5.1242660000000004</v>
+        <v>4.3399580000000002</v>
       </c>
       <c r="AM5" s="19">
-        <v>4.9313269999999996</v>
+        <v>4.6017580000000002</v>
       </c>
       <c r="AN5" s="19">
-        <v>3.945249</v>
+        <v>3.5851069999999998</v>
       </c>
       <c r="AO5" s="19">
-        <v>3.3600409999999998</v>
+        <v>3.1175320000000002</v>
       </c>
       <c r="AP5" s="19">
-        <v>3.0531869999999999</v>
+        <v>2.853351</v>
       </c>
       <c r="AQ5" s="19">
-        <v>2.4785629999999998</v>
+        <v>2.7852610000000002</v>
       </c>
       <c r="AR5" s="20">
-        <v>3.550306</v>
+        <v>3.3864489999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>51</v>
       </c>
@@ -2278,34 +2278,34 @@
         <v>1.977956</v>
       </c>
       <c r="AJ6" s="19">
-        <v>1.9797709999999999</v>
+        <v>2.0849920000000002</v>
       </c>
       <c r="AK6" s="19">
-        <v>2.6195490000000001</v>
+        <v>2.1869420000000002</v>
       </c>
       <c r="AL6" s="19">
-        <v>1.5166360000000001</v>
+        <v>1.4297949999999999</v>
       </c>
       <c r="AM6" s="19">
-        <v>1.444153</v>
+        <v>1.1316660000000001</v>
       </c>
       <c r="AN6" s="19">
-        <v>1.0106539999999999</v>
+        <v>0.83377400000000002</v>
       </c>
       <c r="AO6" s="19">
-        <v>1.405322</v>
+        <v>1.4282410000000001</v>
       </c>
       <c r="AP6" s="19">
-        <v>1.481554</v>
+        <v>1.5318350000000001</v>
       </c>
       <c r="AQ6" s="19">
-        <v>1.6685179999999999</v>
+        <v>1.539075</v>
       </c>
       <c r="AR6" s="20">
-        <v>1.4018109999999999</v>
+        <v>1.2925500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -2418,28 +2418,28 @@
         <v>1.8</v>
       </c>
       <c r="AL7" s="19">
-        <v>3.5</v>
+        <v>2.3969719999999999</v>
       </c>
       <c r="AM7" s="19">
-        <v>4.3</v>
+        <v>2.7366709999999999</v>
       </c>
       <c r="AN7" s="19">
-        <v>4.5</v>
+        <v>3.1162000000000001</v>
       </c>
       <c r="AO7" s="19">
-        <v>4.5999999999999996</v>
+        <v>3.277695</v>
       </c>
       <c r="AP7" s="19">
-        <v>4.5999999999999996</v>
+        <v>3.387464</v>
       </c>
       <c r="AQ7" s="19">
-        <v>4.5999999999999996</v>
+        <v>3.387464</v>
       </c>
       <c r="AR7" s="20">
-        <v>4.5199350000000003</v>
+        <v>3.1808109999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>55</v>
       </c>
@@ -2546,34 +2546,34 @@
         <v>4.3644290000000003</v>
       </c>
       <c r="AJ8" s="19">
-        <v>5.436896</v>
+        <v>5.4815209999999999</v>
       </c>
       <c r="AK8" s="19">
-        <v>1.8516049999999999</v>
+        <v>2.148555</v>
       </c>
       <c r="AL8" s="19">
-        <v>2.5238700000000001</v>
+        <v>2.479603</v>
       </c>
       <c r="AM8" s="19">
-        <v>3.5241159999999998</v>
+        <v>3.4913699999999999</v>
       </c>
       <c r="AN8" s="19">
-        <v>4.2761509999999996</v>
+        <v>4.2767499999999998</v>
       </c>
       <c r="AO8" s="19">
-        <v>3.9725950000000001</v>
+        <v>3.978183</v>
       </c>
       <c r="AP8" s="19">
-        <v>9.2584099999999996</v>
+        <v>9.1987089999999991</v>
       </c>
       <c r="AQ8" s="19">
-        <v>11.414419000000001</v>
+        <v>11.332506</v>
       </c>
       <c r="AR8" s="20">
-        <v>6.4408510000000003</v>
+        <v>6.4080950000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>57</v>
       </c>
@@ -2686,28 +2686,28 @@
         <v>3.7115499999999999</v>
       </c>
       <c r="AL9" s="19">
-        <v>3.7834729999999999</v>
+        <v>3.5958320000000001</v>
       </c>
       <c r="AM9" s="19">
-        <v>3.7055310000000001</v>
+        <v>3.8432949999999999</v>
       </c>
       <c r="AN9" s="19">
-        <v>2.88157</v>
+        <v>2.9187560000000001</v>
       </c>
       <c r="AO9" s="19">
-        <v>2.9789099999999999</v>
+        <v>3.036225</v>
       </c>
       <c r="AP9" s="19">
-        <v>3.0451480000000002</v>
+        <v>3.0422920000000002</v>
       </c>
       <c r="AQ9" s="19">
-        <v>2.975441</v>
+        <v>3.0178039999999999</v>
       </c>
       <c r="AR9" s="20">
-        <v>3.1168879999999999</v>
+        <v>3.1711200000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2808,40 +2808,40 @@
         <v>-6.1689249999999998</v>
       </c>
       <c r="AH10" s="19">
-        <v>4.9550510000000001</v>
+        <v>4.8586530000000003</v>
       </c>
       <c r="AI10" s="19">
-        <v>1.9114690000000001</v>
+        <v>2.0581520000000002</v>
       </c>
       <c r="AJ10" s="19">
-        <v>0.69849799999999995</v>
+        <v>0.80609399999999998</v>
       </c>
       <c r="AK10" s="19">
-        <v>0.57984599999999997</v>
+        <v>0.53485199999999999</v>
       </c>
       <c r="AL10" s="19">
-        <v>0.97883500000000001</v>
+        <v>1.149006</v>
       </c>
       <c r="AM10" s="19">
-        <v>1.28929</v>
+        <v>1.1510009999999999</v>
       </c>
       <c r="AN10" s="19">
-        <v>1.6404069999999999</v>
+        <v>1.5123180000000001</v>
       </c>
       <c r="AO10" s="19">
-        <v>1.7110730000000001</v>
+        <v>1.7023410000000001</v>
       </c>
       <c r="AP10" s="19">
-        <v>1.79704</v>
+        <v>1.835394</v>
       </c>
       <c r="AQ10" s="19">
-        <v>1.8121860000000001</v>
+        <v>1.8345320000000001</v>
       </c>
       <c r="AR10" s="20">
-        <v>1.6498200000000001</v>
+        <v>1.606792</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>62</v>
       </c>
@@ -2954,28 +2954,28 @@
         <v>4.0431480000000004</v>
       </c>
       <c r="AL11" s="16">
-        <v>6.2</v>
+        <v>5.8456159999999997</v>
       </c>
       <c r="AM11" s="16">
-        <v>6.8169719999999998</v>
+        <v>6.3720080000000001</v>
       </c>
       <c r="AN11" s="16">
-        <v>6.4016359999999999</v>
+        <v>6.5415559999999999</v>
       </c>
       <c r="AO11" s="16">
-        <v>5.1518379999999997</v>
+        <v>5.1403670000000004</v>
       </c>
       <c r="AP11" s="16">
-        <v>4.8360050000000001</v>
+        <v>4.838114</v>
       </c>
       <c r="AQ11" s="16">
-        <v>4.76</v>
+        <v>4.7653879999999997</v>
       </c>
       <c r="AR11" s="17">
-        <v>5.5898760000000003</v>
+        <v>5.5286980000000003</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>64</v>
       </c>
@@ -3043,28 +3043,28 @@
         <v>7.3960520000000001</v>
       </c>
       <c r="W12" s="24">
-        <v>19.957182</v>
+        <v>19.957167999999999</v>
       </c>
       <c r="X12" s="24">
-        <v>14.195841</v>
+        <v>14.195817</v>
       </c>
       <c r="Y12" s="24">
-        <v>16.650698999999999</v>
+        <v>16.650523</v>
       </c>
       <c r="Z12" s="24">
-        <v>2.0682779999999998</v>
+        <v>2.0682689999999999</v>
       </c>
       <c r="AA12" s="24">
-        <v>2.4013969999999998</v>
+        <v>2.4013789999999999</v>
       </c>
       <c r="AB12" s="24">
-        <v>1.8452230000000001</v>
+        <v>1.8452139999999999</v>
       </c>
       <c r="AC12" s="24">
-        <v>0.75403299999999995</v>
+        <v>0.754027</v>
       </c>
       <c r="AD12" s="24">
-        <v>5.2027130000000001</v>
+        <v>5.20289</v>
       </c>
       <c r="AE12" s="24">
         <v>5.0098669999999998</v>
@@ -3079,169 +3079,169 @@
         <v>8.4680169999999997</v>
       </c>
       <c r="AI12" s="24">
-        <v>6.1392559999999996</v>
+        <v>6.1392629999999997</v>
       </c>
       <c r="AJ12" s="24">
-        <v>5.3367319999999996</v>
+        <v>5.3367300000000002</v>
       </c>
       <c r="AK12" s="24">
-        <v>2.027304</v>
+        <v>1.742381</v>
       </c>
       <c r="AL12" s="24">
-        <v>6.0215889999999996</v>
+        <v>6.0409750000000004</v>
       </c>
       <c r="AM12" s="24">
-        <v>4.6396449999999998</v>
+        <v>4.5580410000000002</v>
       </c>
       <c r="AN12" s="24">
-        <v>3.6301329999999998</v>
+        <v>3.647659</v>
       </c>
       <c r="AO12" s="24">
-        <v>3.4584869999999999</v>
+        <v>3.4948670000000002</v>
       </c>
       <c r="AP12" s="24">
-        <v>3.5316930000000002</v>
+        <v>3.4599839999999999</v>
       </c>
       <c r="AQ12" s="24">
-        <v>3.5318830000000001</v>
+        <v>3.5284939999999998</v>
       </c>
       <c r="AR12" s="25">
-        <v>3.757422</v>
+        <v>3.7369819999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26"/>
       <c r="B13" s="27" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="28">
-        <v>-8.1175999999999998E-2</v>
+        <v>-8.2791000000000003E-2</v>
       </c>
       <c r="D13" s="29">
-        <v>0.72309599999999996</v>
+        <v>0.72292800000000002</v>
       </c>
       <c r="E13" s="29">
-        <v>-0.50312599999999996</v>
+        <v>-0.50375199999999998</v>
       </c>
       <c r="F13" s="29">
-        <v>2.482701</v>
+        <v>2.482596</v>
       </c>
       <c r="G13" s="29">
-        <v>3.18838</v>
+        <v>3.1885119999999998</v>
       </c>
       <c r="H13" s="29">
-        <v>4.2820289999999996</v>
+        <v>4.2819370000000001</v>
       </c>
       <c r="I13" s="29">
-        <v>5.2980840000000002</v>
+        <v>5.2983269999999996</v>
       </c>
       <c r="J13" s="29">
-        <v>3.5900159999999999</v>
+        <v>3.5900970000000001</v>
       </c>
       <c r="K13" s="29">
-        <v>1.1911780000000001</v>
+        <v>1.1909400000000001</v>
       </c>
       <c r="L13" s="29">
-        <v>2.540969</v>
+        <v>2.442955</v>
       </c>
       <c r="M13" s="29">
-        <v>3.3850009999999999</v>
+        <v>3.1955550000000001</v>
       </c>
       <c r="N13" s="29">
-        <v>2.806238</v>
+        <v>2.727786</v>
       </c>
       <c r="O13" s="29">
-        <v>4.6547770000000002</v>
+        <v>4.3904170000000002</v>
       </c>
       <c r="P13" s="29">
-        <v>2.521156</v>
+        <v>2.191325</v>
       </c>
       <c r="Q13" s="29">
-        <v>5.1880829999999998</v>
+        <v>5.0082409999999999</v>
       </c>
       <c r="R13" s="29">
-        <v>6.2139480000000002</v>
+        <v>6.0266390000000003</v>
       </c>
       <c r="S13" s="29">
-        <v>6.4358430000000002</v>
+        <v>6.311185</v>
       </c>
       <c r="T13" s="29">
-        <v>6.5835100000000004</v>
+        <v>6.4706299999999999</v>
       </c>
       <c r="U13" s="29">
-        <v>4.3954950000000004</v>
+        <v>4.2069470000000004</v>
       </c>
       <c r="V13" s="29">
-        <v>-0.16347</v>
+        <v>-8.9465000000000003E-2</v>
       </c>
       <c r="W13" s="29">
-        <v>4.6136080000000002</v>
+        <v>4.7864490000000002</v>
       </c>
       <c r="X13" s="29">
-        <v>3.9337580000000001</v>
+        <v>4.0608279999999999</v>
       </c>
       <c r="Y13" s="29">
-        <v>4.4193020000000001</v>
+        <v>4.5879659999999998</v>
       </c>
       <c r="Z13" s="29">
-        <v>3.4873460000000001</v>
+        <v>3.4679660000000001</v>
       </c>
       <c r="AA13" s="29">
-        <v>2.678709</v>
+        <v>2.6788910000000001</v>
       </c>
       <c r="AB13" s="29">
-        <v>1.410299</v>
+        <v>1.4148050000000001</v>
       </c>
       <c r="AC13" s="29">
-        <v>0.67056099999999996</v>
+        <v>0.69949600000000001</v>
       </c>
       <c r="AD13" s="29">
-        <v>1.289685</v>
+        <v>1.3408850000000001</v>
       </c>
       <c r="AE13" s="29">
-        <v>1.5327679999999999</v>
+        <v>1.568559</v>
       </c>
       <c r="AF13" s="29">
-        <v>0.20532400000000001</v>
+        <v>0.10707</v>
       </c>
       <c r="AG13" s="29">
-        <v>-5.3886339999999997</v>
+        <v>-5.4472430000000003</v>
       </c>
       <c r="AH13" s="29">
-        <v>4.6989380000000001</v>
+        <v>4.6615330000000004</v>
       </c>
       <c r="AI13" s="29">
-        <v>2.9832879999999999</v>
+        <v>3.1378509999999999</v>
       </c>
       <c r="AJ13" s="29">
-        <v>1.602816</v>
+        <v>1.7864819999999999</v>
       </c>
       <c r="AK13" s="29">
-        <v>1.746164</v>
+        <v>1.6923429999999999</v>
       </c>
       <c r="AL13" s="29">
-        <v>1.988451</v>
+        <v>2.0406650000000002</v>
       </c>
       <c r="AM13" s="29">
-        <v>2.2049560000000001</v>
+        <v>2.1151879999999998</v>
       </c>
       <c r="AN13" s="29">
-        <v>2.4624670000000002</v>
+        <v>2.4317419999999998</v>
       </c>
       <c r="AO13" s="29">
-        <v>2.5551629999999999</v>
+        <v>2.5356399999999999</v>
       </c>
       <c r="AP13" s="29">
-        <v>2.8168129999999998</v>
+        <v>2.8108300000000002</v>
       </c>
       <c r="AQ13" s="29">
-        <v>2.9420009999999999</v>
+        <v>2.9493070000000001</v>
       </c>
       <c r="AR13" s="30">
-        <v>2.5959479999999999</v>
+        <v>2.5681229999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>67</v>
       </c>
@@ -3351,31 +3351,31 @@
         <v>2.6592169999999999</v>
       </c>
       <c r="AK14" s="19">
-        <v>3.5311599999999999</v>
+        <v>3.5485169999999999</v>
       </c>
       <c r="AL14" s="19">
-        <v>1.8660890000000001</v>
+        <v>4.3982140000000003</v>
       </c>
       <c r="AM14" s="19">
-        <v>2.5887980000000002</v>
+        <v>4.050465</v>
       </c>
       <c r="AN14" s="19">
-        <v>2.78654</v>
+        <v>4.1777730000000002</v>
       </c>
       <c r="AO14" s="19">
-        <v>3.1139969999999999</v>
+        <v>4.2362890000000002</v>
       </c>
       <c r="AP14" s="19">
-        <v>3.2838530000000001</v>
+        <v>4.4355180000000001</v>
       </c>
       <c r="AQ14" s="19">
-        <v>3.4932699999999999</v>
+        <v>4.5118169999999997</v>
       </c>
       <c r="AR14" s="20">
-        <v>3.0527700000000002</v>
+        <v>4.282235</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>69</v>
       </c>
@@ -3482,34 +3482,34 @@
         <v>3.7369089999999998</v>
       </c>
       <c r="AJ15" s="19">
-        <v>3.2169759999999998</v>
+        <v>3.2480850000000001</v>
       </c>
       <c r="AK15" s="19">
-        <v>3.5624910000000001</v>
+        <v>3.4588399999999999</v>
       </c>
       <c r="AL15" s="19">
-        <v>3.61076</v>
+        <v>3.7956650000000001</v>
       </c>
       <c r="AM15" s="19">
-        <v>4.0184850000000001</v>
+        <v>4.0750970000000004</v>
       </c>
       <c r="AN15" s="19">
-        <v>4.3921539999999997</v>
+        <v>4.3298560000000004</v>
       </c>
       <c r="AO15" s="19">
-        <v>4.6313589999999998</v>
+        <v>4.5196620000000003</v>
       </c>
       <c r="AP15" s="19">
-        <v>4.6051770000000003</v>
+        <v>4.5457470000000004</v>
       </c>
       <c r="AQ15" s="19">
-        <v>4.5922080000000003</v>
+        <v>4.6166960000000001</v>
       </c>
       <c r="AR15" s="20">
-        <v>4.4476209999999998</v>
+        <v>4.4172279999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>71</v>
       </c>
@@ -3601,49 +3601,49 @@
         <v>4.5275780000000001</v>
       </c>
       <c r="AE16" s="19">
-        <v>3.8197890000000001</v>
+        <v>3.1999970000000002</v>
       </c>
       <c r="AF16" s="19">
-        <v>2.9702829999999998</v>
+        <v>4.1004659999999999</v>
       </c>
       <c r="AG16" s="19">
-        <v>0.95937399999999995</v>
+        <v>1.0306280000000001</v>
       </c>
       <c r="AH16" s="19">
-        <v>0.98292299999999999</v>
+        <v>-0.28435100000000002</v>
       </c>
       <c r="AI16" s="19">
-        <v>0.47222599999999998</v>
+        <v>0.81429799999999997</v>
       </c>
       <c r="AJ16" s="19">
-        <v>0.72661299999999995</v>
+        <v>-9.0765999999999999E-2</v>
       </c>
       <c r="AK16" s="19">
-        <v>1.832891</v>
+        <v>1.9209309999999999</v>
       </c>
       <c r="AL16" s="19">
-        <v>2.937846</v>
+        <v>2.997633</v>
       </c>
       <c r="AM16" s="19">
-        <v>3.1459570000000001</v>
+        <v>3.2717839999999998</v>
       </c>
       <c r="AN16" s="19">
-        <v>3.5368840000000001</v>
+        <v>3.6209440000000002</v>
       </c>
       <c r="AO16" s="19">
-        <v>3.7905350000000002</v>
+        <v>3.8094380000000001</v>
       </c>
       <c r="AP16" s="19">
-        <v>3.7240199999999999</v>
+        <v>3.7398400000000001</v>
       </c>
       <c r="AQ16" s="19">
-        <v>3.580152</v>
+        <v>3.9287770000000002</v>
       </c>
       <c r="AR16" s="20">
-        <v>3.555266</v>
+        <v>3.6739130000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
         <v>73</v>
       </c>
@@ -3696,7 +3696,7 @@
         <v>33.629365</v>
       </c>
       <c r="R17" s="33">
-        <v>8.3067899999999995</v>
+        <v>7.4983890000000004</v>
       </c>
       <c r="S17" s="33">
         <v>-0.51754100000000003</v>
@@ -3717,67 +3717,67 @@
         <v>4.5535899999999998</v>
       </c>
       <c r="Y17" s="33">
-        <v>9.0526800000000005</v>
+        <v>8.9050370000000001</v>
       </c>
       <c r="Z17" s="33">
-        <v>2.8073519999999998</v>
+        <v>2.924553</v>
       </c>
       <c r="AA17" s="33">
-        <v>2.0629810000000002</v>
+        <v>2.3148469999999999</v>
       </c>
       <c r="AB17" s="33">
-        <v>3.310886</v>
+        <v>3.1502180000000002</v>
       </c>
       <c r="AC17" s="33">
-        <v>-4.1299279999999996</v>
+        <v>-3.6506669999999999</v>
       </c>
       <c r="AD17" s="33">
-        <v>-1.6279939999999999</v>
+        <v>-2.0886610000000001</v>
       </c>
       <c r="AE17" s="33">
-        <v>5.7411159999999999</v>
+        <v>5.2386710000000001</v>
       </c>
       <c r="AF17" s="33">
-        <v>5.3886560000000001</v>
+        <v>5.8743699999999999</v>
       </c>
       <c r="AG17" s="33">
-        <v>-0.40889399999999998</v>
+        <v>3.2550000000000003E-2</v>
       </c>
       <c r="AH17" s="33">
-        <v>0.29397899999999999</v>
+        <v>1.9736549999999999</v>
       </c>
       <c r="AI17" s="33">
-        <v>4.1101619999999999</v>
+        <v>4.6684299999999999</v>
       </c>
       <c r="AJ17" s="33">
-        <v>4.0277390000000004</v>
+        <v>4.9779549999999997</v>
       </c>
       <c r="AK17" s="33">
-        <v>1.514618</v>
+        <v>3.5013100000000001</v>
       </c>
       <c r="AL17" s="33">
-        <v>1.720351</v>
+        <v>3.3414269999999999</v>
       </c>
       <c r="AM17" s="33">
-        <v>3.172669</v>
+        <v>3.5663619999999998</v>
       </c>
       <c r="AN17" s="33">
-        <v>2.5894699999999999</v>
+        <v>3.3499819999999998</v>
       </c>
       <c r="AO17" s="33">
-        <v>3.2017890000000002</v>
+        <v>3.7488169999999998</v>
       </c>
       <c r="AP17" s="33">
-        <v>2.8294160000000002</v>
+        <v>3.9886569999999999</v>
       </c>
       <c r="AQ17" s="33">
-        <v>2.811299</v>
+        <v>4.0604560000000003</v>
       </c>
       <c r="AR17" s="34">
-        <v>2.9206639999999999</v>
+        <v>3.7425199999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
         <v>75</v>
       </c>
@@ -3887,31 +3887,31 @@
         <v>1.976953</v>
       </c>
       <c r="AK18" s="33">
-        <v>2.5957029999999999</v>
+        <v>2.1121259999999999</v>
       </c>
       <c r="AL18" s="33">
-        <v>3.3108650000000002</v>
+        <v>2.6538810000000002</v>
       </c>
       <c r="AM18" s="33">
-        <v>3.1658270000000002</v>
+        <v>2.8343400000000001</v>
       </c>
       <c r="AN18" s="33">
-        <v>3.520931</v>
+        <v>3.2301669999999998</v>
       </c>
       <c r="AO18" s="33">
-        <v>3.8527840000000002</v>
+        <v>3.718102</v>
       </c>
       <c r="AP18" s="33">
-        <v>3.8461120000000002</v>
+        <v>3.6681499999999998</v>
       </c>
       <c r="AQ18" s="33">
-        <v>3.8526609999999999</v>
+        <v>3.5644499999999999</v>
       </c>
       <c r="AR18" s="34">
-        <v>3.6473040000000001</v>
+        <v>3.4025099999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>77</v>
       </c>
@@ -4018,34 +4018,34 @@
         <v>9.2195889999999991</v>
       </c>
       <c r="AJ19" s="16">
-        <v>8.4982030000000002</v>
+        <v>8.48306</v>
       </c>
       <c r="AK19" s="16">
-        <v>6.4827320000000004</v>
+        <v>6.4618200000000003</v>
       </c>
       <c r="AL19" s="16">
-        <v>4.6919389999999996</v>
+        <v>5.2803740000000001</v>
       </c>
       <c r="AM19" s="16">
-        <v>5.1706390000000004</v>
+        <v>5.2836319999999999</v>
       </c>
       <c r="AN19" s="16">
-        <v>5.3668110000000002</v>
+        <v>5.3961119999999996</v>
       </c>
       <c r="AO19" s="16">
-        <v>5.6557009999999996</v>
+        <v>5.4394119999999999</v>
       </c>
       <c r="AP19" s="16">
-        <v>5.4976979999999998</v>
+        <v>5.4325700000000001</v>
       </c>
       <c r="AQ19" s="16">
-        <v>5.1411350000000002</v>
+        <v>5.4374539999999998</v>
       </c>
       <c r="AR19" s="17">
-        <v>5.3662169999999998</v>
+        <v>5.3978190000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
         <v>79</v>
       </c>
@@ -4155,31 +4155,31 @@
         <v>-5.0893090000000001</v>
       </c>
       <c r="AK20" s="33">
-        <v>1.8609500000000001</v>
+        <v>0.88185899999999995</v>
       </c>
       <c r="AL20" s="33">
-        <v>-4.2044629999999996</v>
+        <v>-1.625219</v>
       </c>
       <c r="AM20" s="33">
-        <v>2.22E-4</v>
+        <v>0.46077299999999999</v>
       </c>
       <c r="AN20" s="33">
-        <v>0.45083899999999999</v>
+        <v>1.09718</v>
       </c>
       <c r="AO20" s="33">
-        <v>0.69531799999999999</v>
+        <v>1.374665</v>
       </c>
       <c r="AP20" s="33">
-        <v>1.3880330000000001</v>
+        <v>2.0344530000000001</v>
       </c>
       <c r="AQ20" s="33">
-        <v>2.6166070000000001</v>
+        <v>2.1198380000000001</v>
       </c>
       <c r="AR20" s="34">
-        <v>1.0261100000000001</v>
+        <v>1.415513</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
         <v>81</v>
       </c>
@@ -4286,34 +4286,34 @@
         <v>3.0376470000000002</v>
       </c>
       <c r="AJ21" s="33">
-        <v>2.445894</v>
+        <v>2.4458929999999999</v>
       </c>
       <c r="AK21" s="33">
-        <v>3.0736829999999999</v>
+        <v>3.3539210000000002</v>
       </c>
       <c r="AL21" s="33">
-        <v>2.7743920000000002</v>
+        <v>1.8735999999999999</v>
       </c>
       <c r="AM21" s="33">
-        <v>2.602509</v>
+        <v>2.5743469999999999</v>
       </c>
       <c r="AN21" s="33">
-        <v>2.8576030000000001</v>
+        <v>2.7883339999999999</v>
       </c>
       <c r="AO21" s="33">
-        <v>2.8216800000000002</v>
+        <v>2.8324449999999999</v>
       </c>
       <c r="AP21" s="33">
-        <v>2.7390349999999999</v>
+        <v>2.8461979999999998</v>
       </c>
       <c r="AQ21" s="33">
-        <v>2.8681809999999999</v>
+        <v>2.8433619999999999</v>
       </c>
       <c r="AR21" s="34">
-        <v>2.7777539999999998</v>
+        <v>2.776885</v>
       </c>
     </row>
-    <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
         <v>83</v>
       </c>
@@ -4408,31 +4408,31 @@
         <v>4.3781290000000004</v>
       </c>
       <c r="AF22" s="37">
-        <v>2</v>
+        <v>2.0143200000000001</v>
       </c>
       <c r="AG22" s="37">
-        <v>2.6</v>
+        <v>2.6248670000000001</v>
       </c>
       <c r="AH22" s="37">
-        <v>1.9</v>
+        <v>1.8992960000000001</v>
       </c>
       <c r="AI22" s="37">
-        <v>0.2</v>
+        <v>0.16869100000000001</v>
       </c>
       <c r="AJ22" s="37">
-        <v>0.4</v>
+        <v>0.372249</v>
       </c>
       <c r="AK22" s="37">
-        <v>0.9</v>
+        <v>1.1097539999999999</v>
       </c>
       <c r="AL22" s="37">
-        <v>3.125013</v>
+        <v>2.9</v>
       </c>
       <c r="AM22" s="37">
-        <v>4.8298079999999999</v>
+        <v>4.7</v>
       </c>
       <c r="AN22" s="37">
-        <v>4.058554</v>
+        <v>3.9</v>
       </c>
       <c r="AO22" s="37">
         <v>3.5</v>
@@ -4444,142 +4444,142 @@
         <v>3.5</v>
       </c>
       <c r="AR22" s="38">
-        <v>3.8763610000000002</v>
+        <v>3.818956</v>
       </c>
     </row>
-    <row r="23" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26"/>
       <c r="B23" s="27" t="s">
         <v>85</v>
       </c>
       <c r="C23" s="28">
-        <v>-3.3902450000000002</v>
+        <v>-3.383105</v>
       </c>
       <c r="D23" s="29">
-        <v>-2.4375550000000001</v>
+        <v>-2.4350429999999998</v>
       </c>
       <c r="E23" s="29">
-        <v>-4.5881350000000003</v>
+        <v>-4.5886480000000001</v>
       </c>
       <c r="F23" s="29">
-        <v>-5.2723870000000002</v>
+        <v>-5.2658430000000003</v>
       </c>
       <c r="G23" s="29">
-        <v>-1.598214</v>
+        <v>-1.572128</v>
       </c>
       <c r="H23" s="29">
-        <v>2.804338</v>
+        <v>2.8050079999999999</v>
       </c>
       <c r="I23" s="29">
-        <v>1.7219439999999999</v>
+        <v>1.708469</v>
       </c>
       <c r="J23" s="29">
-        <v>3.1424219999999998</v>
+        <v>3.1441129999999999</v>
       </c>
       <c r="K23" s="29">
-        <v>3.2237170000000002</v>
+        <v>3.223922</v>
       </c>
       <c r="L23" s="29">
-        <v>-0.68070799999999998</v>
+        <v>-0.67416500000000001</v>
       </c>
       <c r="M23" s="29">
-        <v>6.0346019999999996</v>
+        <v>6.0180290000000003</v>
       </c>
       <c r="N23" s="29">
-        <v>6.4414170000000004</v>
+        <v>6.4349369999999997</v>
       </c>
       <c r="O23" s="29">
-        <v>4.9298130000000002</v>
+        <v>4.9251329999999998</v>
       </c>
       <c r="P23" s="29">
-        <v>6.2005309999999998</v>
+        <v>6.1876800000000003</v>
       </c>
       <c r="Q23" s="29">
-        <v>11.260317000000001</v>
+        <v>11.244648</v>
       </c>
       <c r="R23" s="29">
-        <v>5.971203</v>
+        <v>5.8718219999999999</v>
       </c>
       <c r="S23" s="29">
-        <v>3.5583100000000001</v>
+        <v>3.5633370000000002</v>
       </c>
       <c r="T23" s="29">
-        <v>6.0778470000000002</v>
+        <v>6.0765269999999996</v>
       </c>
       <c r="U23" s="29">
-        <v>6.036505</v>
+        <v>6.0344129999999998</v>
       </c>
       <c r="V23" s="29">
-        <v>2.0121720000000001</v>
+        <v>2.015822</v>
       </c>
       <c r="W23" s="29">
-        <v>4.9443140000000003</v>
+        <v>4.9364179999999998</v>
       </c>
       <c r="X23" s="29">
-        <v>5.2964500000000001</v>
+        <v>5.2956459999999996</v>
       </c>
       <c r="Y23" s="29">
-        <v>7.1708619999999996</v>
+        <v>7.1494980000000004</v>
       </c>
       <c r="Z23" s="29">
-        <v>3.818743</v>
+        <v>3.8013889999999999</v>
       </c>
       <c r="AA23" s="29">
-        <v>4.9610050000000001</v>
+        <v>4.9868430000000004</v>
       </c>
       <c r="AB23" s="29">
-        <v>2.7234880000000001</v>
+        <v>2.7064119999999998</v>
       </c>
       <c r="AC23" s="29">
-        <v>-6.7283999999999997E-2</v>
+        <v>-1.1214E-2</v>
       </c>
       <c r="AD23" s="29">
-        <v>1.10639</v>
+        <v>1.063124</v>
       </c>
       <c r="AE23" s="29">
-        <v>2.5822500000000002</v>
+        <v>2.5184820000000001</v>
       </c>
       <c r="AF23" s="29">
-        <v>3.0628199999999999</v>
+        <v>3.1297069999999998</v>
       </c>
       <c r="AG23" s="29">
-        <v>-0.282225</v>
+        <v>-0.208425</v>
       </c>
       <c r="AH23" s="29">
-        <v>1.8638269999999999</v>
+        <v>2.0119280000000002</v>
       </c>
       <c r="AI23" s="29">
-        <v>5.1578980000000003</v>
+        <v>5.2696690000000004</v>
       </c>
       <c r="AJ23" s="29">
-        <v>4.3038970000000001</v>
+        <v>4.449541</v>
       </c>
       <c r="AK23" s="29">
-        <v>4.0958579999999998</v>
+        <v>4.2194130000000003</v>
       </c>
       <c r="AL23" s="29">
-        <v>3.2033939999999999</v>
+        <v>3.7067079999999999</v>
       </c>
       <c r="AM23" s="29">
-        <v>3.8778950000000001</v>
+        <v>4.0222189999999998</v>
       </c>
       <c r="AN23" s="29">
-        <v>4.0992920000000002</v>
+        <v>4.2147100000000002</v>
       </c>
       <c r="AO23" s="29">
-        <v>4.3885050000000003</v>
+        <v>4.39079</v>
       </c>
       <c r="AP23" s="29">
-        <v>4.3333519999999996</v>
+        <v>4.4638200000000001</v>
       </c>
       <c r="AQ23" s="29">
-        <v>4.2835660000000004</v>
+        <v>4.5032319999999997</v>
       </c>
       <c r="AR23" s="30">
-        <v>4.1963549999999996</v>
+        <v>4.3188019999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
         <v>86</v>
       </c>
@@ -4686,34 +4686,34 @@
         <v>2.6029909999999998</v>
       </c>
       <c r="AJ24" s="41">
-        <v>2.9951660000000002</v>
+        <v>2.9953500000000002</v>
       </c>
       <c r="AK24" s="41">
-        <v>3.3381099999999999</v>
+        <v>3.3388080000000002</v>
       </c>
       <c r="AL24" s="41">
-        <v>3.7761490000000002</v>
+        <v>3.7765330000000001</v>
       </c>
       <c r="AM24" s="41">
-        <v>4.3237300000000003</v>
+        <v>4.0217510000000001</v>
       </c>
       <c r="AN24" s="41">
-        <v>4.4787730000000003</v>
+        <v>4.2623930000000003</v>
       </c>
       <c r="AO24" s="41">
-        <v>4.3073030000000001</v>
+        <v>4.3041299999999998</v>
       </c>
       <c r="AP24" s="41">
-        <v>3.8102999999999998</v>
+        <v>3.8090619999999999</v>
       </c>
       <c r="AQ24" s="41">
-        <v>3.81257</v>
+        <v>3.8113290000000002</v>
       </c>
       <c r="AR24" s="42">
-        <v>4.1461579999999998</v>
+        <v>4.0415159999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>88</v>
       </c>
@@ -4829,10 +4829,10 @@
         <v>6.0078560000000003</v>
       </c>
       <c r="AM25" s="19">
-        <v>5.510148</v>
+        <v>6</v>
       </c>
       <c r="AN25" s="19">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO25" s="19">
         <v>5.5</v>
@@ -4844,10 +4844,10 @@
         <v>5.5</v>
       </c>
       <c r="AR25" s="20">
-        <v>5.5020290000000003</v>
+        <v>5.6997159999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>90</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>92</v>
       </c>
@@ -5094,28 +5094,28 @@
         <v>8.0513600000000007</v>
       </c>
       <c r="AL27" s="19">
-        <v>6.611694</v>
+        <v>7.2239440000000004</v>
       </c>
       <c r="AM27" s="19">
-        <v>7.107386</v>
+        <v>7.112946</v>
       </c>
       <c r="AN27" s="19">
-        <v>7.7248289999999997</v>
+        <v>7.7292560000000003</v>
       </c>
       <c r="AO27" s="19">
-        <v>8.0075520000000004</v>
+        <v>8.0113109999999992</v>
       </c>
       <c r="AP27" s="19">
-        <v>7.7582490000000002</v>
+        <v>7.7599030000000004</v>
       </c>
       <c r="AQ27" s="19">
-        <v>7.4958200000000001</v>
+        <v>7.4958010000000002</v>
       </c>
       <c r="AR27" s="20">
-        <v>7.618341</v>
+        <v>7.6214180000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>94</v>
       </c>
@@ -5222,34 +5222,34 @@
         <v>4.8599810000000003</v>
       </c>
       <c r="AJ28" s="19">
-        <v>5.5558829999999997</v>
+        <v>5.7199920000000004</v>
       </c>
       <c r="AK28" s="19">
-        <v>4.5093480000000001</v>
+        <v>4.7247399999999997</v>
       </c>
       <c r="AL28" s="19">
-        <v>4.810111</v>
+        <v>4.8154409999999999</v>
       </c>
       <c r="AM28" s="19">
-        <v>4.8890029999999998</v>
+        <v>4.8556400000000002</v>
       </c>
       <c r="AN28" s="19">
-        <v>5.0198830000000001</v>
+        <v>5.0210319999999999</v>
       </c>
       <c r="AO28" s="19">
-        <v>5.0312219999999996</v>
+        <v>5.0293299999999999</v>
       </c>
       <c r="AP28" s="19">
-        <v>5.0062110000000004</v>
+        <v>5.0011270000000003</v>
       </c>
       <c r="AQ28" s="19">
-        <v>5.0335029999999996</v>
+        <v>4.9704649999999999</v>
       </c>
       <c r="AR28" s="20">
-        <v>4.9959499999999997</v>
+        <v>4.9755000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>96</v>
       </c>
@@ -5362,28 +5362,28 @@
         <v>4.2</v>
       </c>
       <c r="AL29" s="19">
-        <v>3.94</v>
+        <v>3.8488579999999999</v>
       </c>
       <c r="AM29" s="19">
-        <v>4.2059280000000001</v>
+        <v>4.3231400000000004</v>
       </c>
       <c r="AN29" s="19">
-        <v>4.506424</v>
+        <v>4.9141120000000003</v>
       </c>
       <c r="AO29" s="19">
-        <v>4.8209210000000002</v>
+        <v>4.9116960000000001</v>
       </c>
       <c r="AP29" s="19">
-        <v>4.9333260000000001</v>
+        <v>5</v>
       </c>
       <c r="AQ29" s="19">
-        <v>5.0170209999999997</v>
+        <v>5.0131240000000004</v>
       </c>
       <c r="AR29" s="20">
-        <v>4.6962929999999998</v>
+        <v>4.8320959999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
         <v>98</v>
       </c>
@@ -5487,37 +5487,37 @@
         <v>3.4037989999999998</v>
       </c>
       <c r="AI30" s="19">
-        <v>8.6999999999999993</v>
+        <v>8.6930669999999992</v>
       </c>
       <c r="AJ30" s="19">
-        <v>4.993303</v>
+        <v>5.0079190000000002</v>
       </c>
       <c r="AK30" s="19">
-        <v>4.7</v>
+        <v>4.9251230000000001</v>
       </c>
       <c r="AL30" s="19">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AM30" s="19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AN30" s="19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AO30" s="19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AP30" s="19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AQ30" s="19">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="AR30" s="20">
-        <v>3</v>
+        <v>3.4</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>100</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>7.1658840000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>102</v>
       </c>
@@ -5761,31 +5761,31 @@
         <v>2.2592530000000002</v>
       </c>
       <c r="AK32" s="19">
-        <v>2.9998870000000002</v>
+        <v>2.9478870000000001</v>
       </c>
       <c r="AL32" s="19">
-        <v>3.525687</v>
+        <v>3.9034849999999999</v>
       </c>
       <c r="AM32" s="19">
-        <v>3.4958990000000001</v>
+        <v>3.2</v>
       </c>
       <c r="AN32" s="19">
-        <v>3.478872</v>
+        <v>3.37</v>
       </c>
       <c r="AO32" s="19">
-        <v>3.5125549999999999</v>
+        <v>3.43</v>
       </c>
       <c r="AP32" s="19">
-        <v>3.5022479999999998</v>
+        <v>3.46</v>
       </c>
       <c r="AQ32" s="19">
         <v>3.48</v>
       </c>
       <c r="AR32" s="20">
-        <v>3.4939140000000002</v>
+        <v>3.3879510000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>104</v>
       </c>
@@ -5895,31 +5895,31 @@
         <v>4.2163839999999997</v>
       </c>
       <c r="AK33" s="19">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AL33" s="19">
+        <v>3</v>
+      </c>
+      <c r="AM33" s="19">
+        <v>3.3</v>
+      </c>
+      <c r="AN33" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="AO33" s="19">
+        <v>3.8</v>
+      </c>
+      <c r="AP33" s="19">
         <v>4</v>
       </c>
-      <c r="AL33" s="19">
-        <v>4</v>
-      </c>
-      <c r="AM33" s="19">
+      <c r="AQ33" s="19">
         <v>4.0999999999999996</v>
       </c>
-      <c r="AN33" s="19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="AO33" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="AP33" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="AQ33" s="19">
-        <v>4.5</v>
-      </c>
       <c r="AR33" s="20">
-        <v>4.2998469999999998</v>
+        <v>3.7596029999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
         <v>106</v>
       </c>
@@ -6026,34 +6026,34 @@
         <v>-5.1855219999999997</v>
       </c>
       <c r="AJ34" s="33">
-        <v>2.4579939999999998</v>
+        <v>2.9799509999999998</v>
       </c>
       <c r="AK34" s="33">
-        <v>-27.606536999999999</v>
+        <v>-26.141120999999998</v>
       </c>
       <c r="AL34" s="33">
-        <v>-4.3139649999999996</v>
+        <v>24.336138999999999</v>
       </c>
       <c r="AM34" s="33">
-        <v>64.467431000000005</v>
+        <v>22.351845999999998</v>
       </c>
       <c r="AN34" s="33">
-        <v>5.736002</v>
+        <v>3.3303199999999999</v>
       </c>
       <c r="AO34" s="33">
-        <v>5.0860529999999997</v>
+        <v>3.6371030000000002</v>
       </c>
       <c r="AP34" s="33">
-        <v>4.7886449999999998</v>
+        <v>3.479873</v>
       </c>
       <c r="AQ34" s="33">
-        <v>4.8831490000000004</v>
+        <v>3.788008</v>
       </c>
       <c r="AR34" s="34">
-        <v>14.967096</v>
+        <v>7.0708679999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>108</v>
       </c>
@@ -6166,28 +6166,28 @@
         <v>-23.362849000000001</v>
       </c>
       <c r="AL35" s="19">
-        <v>-0.37926700000000002</v>
+        <v>3.2247910000000002</v>
       </c>
       <c r="AM35" s="19">
-        <v>8.8184699999999996</v>
+        <v>9.4845769999999998</v>
       </c>
       <c r="AN35" s="19">
-        <v>15.509600000000001</v>
+        <v>14.875265000000001</v>
       </c>
       <c r="AO35" s="19">
-        <v>7.938904</v>
+        <v>9.3262149999999995</v>
       </c>
       <c r="AP35" s="19">
-        <v>5.7410050000000004</v>
+        <v>6.5234459999999999</v>
       </c>
       <c r="AQ35" s="19">
-        <v>4.5</v>
+        <v>5.4795730000000002</v>
       </c>
       <c r="AR35" s="20">
-        <v>8.435549</v>
+        <v>9.0896310000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>110</v>
       </c>
@@ -6294,34 +6294,34 @@
         <v>4.6651410000000002</v>
       </c>
       <c r="AJ36" s="19">
-        <v>5.0638649999999998</v>
+        <v>5.1497130000000002</v>
       </c>
       <c r="AK36" s="19">
-        <v>5.4360819999999999</v>
+        <v>5.4634029999999996</v>
       </c>
       <c r="AL36" s="19">
-        <v>6.019641</v>
+        <v>5.9975610000000001</v>
       </c>
       <c r="AM36" s="19">
-        <v>6.2942260000000001</v>
+        <v>6.3381299999999996</v>
       </c>
       <c r="AN36" s="19">
-        <v>6.4827000000000004</v>
+        <v>6.539282</v>
       </c>
       <c r="AO36" s="19">
-        <v>6.450723</v>
+        <v>6.5074439999999996</v>
       </c>
       <c r="AP36" s="19">
-        <v>6.4567800000000002</v>
+        <v>6.4451179999999999</v>
       </c>
       <c r="AQ36" s="19">
-        <v>6.1962970000000004</v>
+        <v>6.2471949999999996</v>
       </c>
       <c r="AR36" s="20">
-        <v>6.3760859999999999</v>
+        <v>6.4153779999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
         <v>112</v>
       </c>
@@ -6422,40 +6422,40 @@
         <v>-1.149902</v>
       </c>
       <c r="AH37" s="24">
-        <v>5.5146860000000002</v>
+        <v>5.5138939999999996</v>
       </c>
       <c r="AI37" s="24">
-        <v>6.1855979999999997</v>
+        <v>6.1856439999999999</v>
       </c>
       <c r="AJ37" s="24">
-        <v>4.9050440000000002</v>
+        <v>4.905786</v>
       </c>
       <c r="AK37" s="24">
-        <v>6.292656</v>
+        <v>6.2913079999999999</v>
       </c>
       <c r="AL37" s="24">
-        <v>6.1187199999999997</v>
+        <v>6.4063330000000001</v>
       </c>
       <c r="AM37" s="24">
-        <v>7.6317560000000002</v>
+        <v>7.5888470000000003</v>
       </c>
       <c r="AN37" s="24">
-        <v>8.2423979999999997</v>
+        <v>8.3889060000000004</v>
       </c>
       <c r="AO37" s="24">
-        <v>6.7639889999999996</v>
+        <v>6.8955609999999998</v>
       </c>
       <c r="AP37" s="24">
-        <v>6.4103519999999996</v>
+        <v>6.3544159999999996</v>
       </c>
       <c r="AQ37" s="24">
-        <v>5.9976000000000003</v>
+        <v>6.1008630000000004</v>
       </c>
       <c r="AR37" s="25">
-        <v>7.0060929999999999</v>
+        <v>7.0624650000000004</v>
       </c>
     </row>
-    <row r="38" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="26"/>
       <c r="B38" s="27" t="s">
         <v>114</v>
@@ -6527,67 +6527,67 @@
         <v>4.6876670000000003</v>
       </c>
       <c r="Y38" s="29">
-        <v>0.24154100000000001</v>
+        <v>0.26351799999999997</v>
       </c>
       <c r="Z38" s="29">
-        <v>5.0692729999999999</v>
+        <v>5.057569</v>
       </c>
       <c r="AA38" s="29">
-        <v>6.3577750000000002</v>
+        <v>6.3601939999999999</v>
       </c>
       <c r="AB38" s="29">
-        <v>6.3348009999999997</v>
+        <v>6.3379070000000004</v>
       </c>
       <c r="AC38" s="29">
-        <v>4.9754779999999998</v>
+        <v>4.9826230000000002</v>
       </c>
       <c r="AD38" s="29">
-        <v>5.4210380000000002</v>
+        <v>5.4249609999999997</v>
       </c>
       <c r="AE38" s="29">
-        <v>4.653295</v>
+        <v>4.6518569999999997</v>
       </c>
       <c r="AF38" s="29">
         <v>5.2247539999999999</v>
       </c>
       <c r="AG38" s="29">
-        <v>0.60275900000000004</v>
+        <v>0.60275199999999995</v>
       </c>
       <c r="AH38" s="29">
-        <v>5.388579</v>
+        <v>5.3885100000000001</v>
       </c>
       <c r="AI38" s="29">
-        <v>4.4530700000000003</v>
+        <v>4.4529290000000001</v>
       </c>
       <c r="AJ38" s="29">
-        <v>3.22681</v>
+        <v>3.2862079999999998</v>
       </c>
       <c r="AK38" s="29">
-        <v>3.7232440000000002</v>
+        <v>3.792284</v>
       </c>
       <c r="AL38" s="29">
-        <v>5.2409039999999996</v>
+        <v>5.9012779999999996</v>
       </c>
       <c r="AM38" s="29">
-        <v>6.9533060000000004</v>
+        <v>6.5723599999999998</v>
       </c>
       <c r="AN38" s="29">
-        <v>7.2015320000000003</v>
+        <v>7.1954260000000003</v>
       </c>
       <c r="AO38" s="29">
-        <v>6.5535119999999996</v>
+        <v>6.685702</v>
       </c>
       <c r="AP38" s="29">
-        <v>6.2839450000000001</v>
+        <v>6.3276130000000004</v>
       </c>
       <c r="AQ38" s="29">
-        <v>6.0448849999999998</v>
+        <v>6.1152329999999999</v>
       </c>
       <c r="AR38" s="30">
-        <v>6.6065950000000004</v>
+        <v>6.5786389999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>115</v>
       </c>
@@ -6631,97 +6631,97 @@
         <v>3</v>
       </c>
       <c r="O39" s="45">
-        <v>5.393967</v>
+        <v>5.4</v>
       </c>
       <c r="P39" s="45">
-        <v>6.5034929999999997</v>
+        <v>6.5</v>
       </c>
       <c r="Q39" s="45">
-        <v>4.5305400000000002</v>
+        <v>4.5</v>
       </c>
       <c r="R39" s="45">
-        <v>5.3608479999999998</v>
+        <v>5.4</v>
       </c>
       <c r="S39" s="45">
-        <v>2.8693590000000002</v>
+        <v>2.9</v>
       </c>
       <c r="T39" s="45">
-        <v>3.1354489999999999</v>
+        <v>3.1</v>
       </c>
       <c r="U39" s="45">
-        <v>2.4523320000000002</v>
+        <v>2.5</v>
       </c>
       <c r="V39" s="45">
-        <v>1.155953</v>
+        <v>1.2</v>
       </c>
       <c r="W39" s="45">
-        <v>4.815239</v>
+        <v>4.8</v>
       </c>
       <c r="X39" s="45">
-        <v>2.9926689999999998</v>
+        <v>3</v>
       </c>
       <c r="Y39" s="45">
-        <v>2.4325589999999999</v>
+        <v>2.4</v>
       </c>
       <c r="Z39" s="45">
-        <v>2.5968879999999999</v>
+        <v>2.6</v>
       </c>
       <c r="AA39" s="45">
-        <v>4.0862629999999998</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="AB39" s="45">
-        <v>3.1617660000000001</v>
+        <v>3.2</v>
       </c>
       <c r="AC39" s="45">
-        <v>3.883527</v>
+        <v>3.9</v>
       </c>
       <c r="AD39" s="45">
-        <v>1.523736</v>
+        <v>1.5</v>
       </c>
       <c r="AE39" s="45">
-        <v>1.439816</v>
+        <v>1.4</v>
       </c>
       <c r="AF39" s="45">
-        <v>0.93264599999999998</v>
+        <v>0.9</v>
       </c>
       <c r="AG39" s="45">
-        <v>-5.0174580000000004</v>
+        <v>-5</v>
       </c>
       <c r="AH39" s="45">
-        <v>3.8050440000000001</v>
+        <v>3.8</v>
       </c>
       <c r="AI39" s="45">
-        <v>3.63551</v>
+        <v>3.6</v>
       </c>
       <c r="AJ39" s="45">
         <v>4.0999999999999996</v>
       </c>
       <c r="AK39" s="45">
-        <v>3.5356290000000001</v>
+        <v>3.7</v>
       </c>
       <c r="AL39" s="45">
-        <v>3.4963470000000001</v>
+        <v>3.357043</v>
       </c>
       <c r="AM39" s="45">
-        <v>3.0040200000000001</v>
+        <v>2.8606449999999999</v>
       </c>
       <c r="AN39" s="45">
-        <v>2.8028119999999999</v>
+        <v>2.7494179999999999</v>
       </c>
       <c r="AO39" s="45">
-        <v>2.7942629999999999</v>
+        <v>2.7384590000000002</v>
       </c>
       <c r="AP39" s="45">
-        <v>2.404353</v>
+        <v>2.4945149999999998</v>
       </c>
       <c r="AQ39" s="45">
-        <v>2.4011969999999998</v>
+        <v>2.4837790000000002</v>
       </c>
       <c r="AR39" s="46">
-        <v>2.6810489999999998</v>
+        <v>2.6652529999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
         <v>117</v>
       </c>
@@ -6834,28 +6834,28 @@
         <v>2.3988010000000002</v>
       </c>
       <c r="AL40" s="19">
-        <v>3.7567900000000001</v>
+        <v>4.2701650000000004</v>
       </c>
       <c r="AM40" s="19">
-        <v>4.2882680000000004</v>
+        <v>4.4896430000000001</v>
       </c>
       <c r="AN40" s="19">
-        <v>4.791995</v>
+        <v>4.6684279999999996</v>
       </c>
       <c r="AO40" s="19">
-        <v>5.0786309999999997</v>
+        <v>4.9280419999999996</v>
       </c>
       <c r="AP40" s="19">
-        <v>5.2666969999999997</v>
+        <v>5.1060610000000004</v>
       </c>
       <c r="AQ40" s="19">
-        <v>5.481725</v>
+        <v>5.2953039999999998</v>
       </c>
       <c r="AR40" s="20">
-        <v>4.980645</v>
+        <v>4.8970940000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
         <v>119</v>
       </c>
@@ -6965,31 +6965,31 @@
         <v>10.155887999999999</v>
       </c>
       <c r="AK41" s="33">
-        <v>-0.63563800000000004</v>
+        <v>1.9204680000000001</v>
       </c>
       <c r="AL41" s="33">
-        <v>17.30369</v>
+        <v>15.561540000000001</v>
       </c>
       <c r="AM41" s="33">
-        <v>4.2845469999999999</v>
+        <v>4.2302670000000004</v>
       </c>
       <c r="AN41" s="33">
-        <v>1.7930140000000001</v>
+        <v>2.2861750000000001</v>
       </c>
       <c r="AO41" s="33">
-        <v>1.858719</v>
+        <v>1.7496689999999999</v>
       </c>
       <c r="AP41" s="33">
-        <v>2.0131600000000001</v>
+        <v>1.931738</v>
       </c>
       <c r="AQ41" s="33">
-        <v>2.2303809999999999</v>
+        <v>2.2081780000000002</v>
       </c>
       <c r="AR41" s="34">
-        <v>2.4317199999999999</v>
+        <v>2.4773239999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>121</v>
       </c>
@@ -7096,34 +7096,34 @@
         <v>6.7959500000000004</v>
       </c>
       <c r="AJ42" s="33">
-        <v>6.5074249999999996</v>
+        <v>6.8094900000000003</v>
       </c>
       <c r="AK42" s="33">
-        <v>4.5662229999999999</v>
+        <v>6.3076020000000002</v>
       </c>
       <c r="AL42" s="33">
-        <v>4.4453649999999998</v>
+        <v>3.9525869999999999</v>
       </c>
       <c r="AM42" s="33">
-        <v>3.7143290000000002</v>
+        <v>4.2708950000000003</v>
       </c>
       <c r="AN42" s="33">
-        <v>5.1265359999999998</v>
+        <v>4.3897870000000001</v>
       </c>
       <c r="AO42" s="33">
-        <v>6.4616410000000002</v>
+        <v>5.6452429999999998</v>
       </c>
       <c r="AP42" s="33">
-        <v>4.6217569999999997</v>
+        <v>4.645035</v>
       </c>
       <c r="AQ42" s="33">
-        <v>0.95187200000000005</v>
+        <v>2.987193</v>
       </c>
       <c r="AR42" s="34">
-        <v>4.1588390000000004</v>
+        <v>4.3841549999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>123</v>
       </c>
@@ -7227,37 +7227,37 @@
         <v>8.1547830000000001</v>
       </c>
       <c r="AI43" s="19">
-        <v>1.527204</v>
+        <v>1.812692</v>
       </c>
       <c r="AJ43" s="19">
-        <v>3.4033410000000002</v>
+        <v>3.6556440000000001</v>
       </c>
       <c r="AK43" s="19">
-        <v>3.1863999999999999</v>
+        <v>3.7933650000000001</v>
       </c>
       <c r="AL43" s="19">
-        <v>3.9054350000000002</v>
+        <v>4.3936159999999997</v>
       </c>
       <c r="AM43" s="19">
-        <v>3.7462430000000002</v>
+        <v>4.2018009999999997</v>
       </c>
       <c r="AN43" s="19">
-        <v>3.5969690000000001</v>
+        <v>4.0041950000000002</v>
       </c>
       <c r="AO43" s="19">
-        <v>3.5966830000000001</v>
+        <v>4.00021</v>
       </c>
       <c r="AP43" s="19">
-        <v>3.5703589999999998</v>
+        <v>3.9020030000000001</v>
       </c>
       <c r="AQ43" s="19">
-        <v>3.5648420000000001</v>
+        <v>3.797917</v>
       </c>
       <c r="AR43" s="20">
-        <v>3.6149979999999999</v>
+        <v>3.9811390000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
         <v>125</v>
       </c>
@@ -7364,166 +7364,166 @@
         <v>2.6739510000000002</v>
       </c>
       <c r="AJ44" s="37">
-        <v>3.9156999999999997E-2</v>
+        <v>0.19170000000000001</v>
       </c>
       <c r="AK44" s="37">
-        <v>1.3566480000000001</v>
+        <v>1.637624</v>
       </c>
       <c r="AL44" s="37">
-        <v>1.4295070000000001</v>
+        <v>2.4640629999999999</v>
       </c>
       <c r="AM44" s="37">
-        <v>1.4171240000000001</v>
+        <v>2.0817990000000002</v>
       </c>
       <c r="AN44" s="37">
-        <v>1.430555</v>
+        <v>1.6037539999999999</v>
       </c>
       <c r="AO44" s="37">
-        <v>1.2652460000000001</v>
+        <v>1.368463</v>
       </c>
       <c r="AP44" s="37">
-        <v>1.2513069999999999</v>
+        <v>1.377631</v>
       </c>
       <c r="AQ44" s="37">
-        <v>1.2386269999999999</v>
+        <v>1.3626720000000001</v>
       </c>
       <c r="AR44" s="38">
-        <v>1.3205359999999999</v>
+        <v>1.558487</v>
       </c>
     </row>
-    <row r="45" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="26"/>
       <c r="B45" s="27" t="s">
         <v>127</v>
       </c>
       <c r="C45" s="28">
-        <v>2.528254</v>
+        <v>2.5287660000000001</v>
       </c>
       <c r="D45" s="29">
-        <v>4.3128339999999996</v>
+        <v>4.3143700000000003</v>
       </c>
       <c r="E45" s="29">
-        <v>6.3113000000000002E-2</v>
+        <v>6.2677999999999998E-2</v>
       </c>
       <c r="F45" s="29">
-        <v>-4.1390000000000003E-3</v>
+        <v>-3.5569999999999998E-3</v>
       </c>
       <c r="G45" s="29">
-        <v>3.5430980000000001</v>
+        <v>3.5442800000000001</v>
       </c>
       <c r="H45" s="29">
-        <v>0.79184200000000005</v>
+        <v>0.79100099999999995</v>
       </c>
       <c r="I45" s="29">
-        <v>5.4662990000000002</v>
+        <v>5.4667510000000004</v>
       </c>
       <c r="J45" s="29">
-        <v>2.721584</v>
+        <v>2.7220179999999998</v>
       </c>
       <c r="K45" s="29">
-        <v>5.969506</v>
+        <v>5.9697370000000003</v>
       </c>
       <c r="L45" s="29">
-        <v>4.0953369999999998</v>
+        <v>4.0955729999999999</v>
       </c>
       <c r="M45" s="29">
-        <v>4.2626229999999996</v>
+        <v>4.2627449999999998</v>
       </c>
       <c r="N45" s="29">
-        <v>3.7684890000000002</v>
+        <v>3.7686890000000002</v>
       </c>
       <c r="O45" s="29">
-        <v>3.0588820000000001</v>
+        <v>3.0598619999999999</v>
       </c>
       <c r="P45" s="29">
-        <v>5.7669940000000004</v>
+        <v>5.7658870000000002</v>
       </c>
       <c r="Q45" s="29">
-        <v>4.5974599999999999</v>
+        <v>4.589493</v>
       </c>
       <c r="R45" s="29">
-        <v>5.1144550000000004</v>
+        <v>5.1246679999999998</v>
       </c>
       <c r="S45" s="29">
-        <v>5.3378800000000002</v>
+        <v>5.3461319999999999</v>
       </c>
       <c r="T45" s="29">
-        <v>5.3840849999999998</v>
+        <v>5.3757320000000002</v>
       </c>
       <c r="U45" s="29">
-        <v>4.9418220000000002</v>
+        <v>4.9538209999999996</v>
       </c>
       <c r="V45" s="29">
-        <v>2.8655539999999999</v>
+        <v>2.876217</v>
       </c>
       <c r="W45" s="29">
-        <v>4.7743719999999996</v>
+        <v>4.770689</v>
       </c>
       <c r="X45" s="29">
-        <v>8.2321000000000005E-2</v>
+        <v>8.4081000000000003E-2</v>
       </c>
       <c r="Y45" s="29">
-        <v>8.8918660000000003</v>
+        <v>8.8846059999999998</v>
       </c>
       <c r="Z45" s="29">
-        <v>1.945702</v>
+        <v>1.9464030000000001</v>
       </c>
       <c r="AA45" s="29">
-        <v>2.0166270000000002</v>
+        <v>2.0199560000000001</v>
       </c>
       <c r="AB45" s="29">
-        <v>3.6319919999999999</v>
+        <v>3.6416390000000001</v>
       </c>
       <c r="AC45" s="29">
-        <v>3.2722229999999999</v>
+        <v>3.276446</v>
       </c>
       <c r="AD45" s="29">
-        <v>5.0583499999999999</v>
+        <v>5.0525029999999997</v>
       </c>
       <c r="AE45" s="29">
-        <v>4.123704</v>
+        <v>4.1142690000000002</v>
       </c>
       <c r="AF45" s="29">
-        <v>3.220936</v>
+        <v>3.2134429999999998</v>
       </c>
       <c r="AG45" s="29">
-        <v>-0.89482099999999998</v>
+        <v>-0.89128399999999997</v>
       </c>
       <c r="AH45" s="29">
-        <v>4.7207020000000002</v>
+        <v>4.7195989999999997</v>
       </c>
       <c r="AI45" s="29">
-        <v>4.867019</v>
+        <v>4.8886719999999997</v>
       </c>
       <c r="AJ45" s="29">
-        <v>3.827216</v>
+        <v>3.8636180000000002</v>
       </c>
       <c r="AK45" s="29">
-        <v>2.6205479999999999</v>
+        <v>2.8222450000000001</v>
       </c>
       <c r="AL45" s="29">
-        <v>4.0341430000000003</v>
+        <v>4.3491239999999998</v>
       </c>
       <c r="AM45" s="29">
-        <v>3.8194870000000001</v>
+        <v>3.9907050000000002</v>
       </c>
       <c r="AN45" s="29">
-        <v>4.0073860000000003</v>
+        <v>3.9799709999999999</v>
       </c>
       <c r="AO45" s="29">
-        <v>4.1994819999999997</v>
+        <v>4.1306890000000003</v>
       </c>
       <c r="AP45" s="29">
-        <v>4.2313099999999997</v>
+        <v>4.1872340000000001</v>
       </c>
       <c r="AQ45" s="29">
-        <v>4.3506349999999996</v>
+        <v>4.2964140000000004</v>
       </c>
       <c r="AR45" s="30">
-        <v>4.1214919999999999</v>
+        <v>4.1169330000000004</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>128</v>
       </c>
@@ -7612,16 +7612,16 @@
         <v>3.3396729999999999</v>
       </c>
       <c r="AD46" s="41">
-        <v>5.6715619999999998</v>
+        <v>5.6255069999999998</v>
       </c>
       <c r="AE46" s="41">
-        <v>6.697254</v>
+        <v>6.5790240000000004</v>
       </c>
       <c r="AF46" s="41">
-        <v>6.8656870000000003</v>
+        <v>7.0903020000000003</v>
       </c>
       <c r="AG46" s="41">
-        <v>3.848792</v>
+        <v>3.7911700000000002</v>
       </c>
       <c r="AH46" s="41">
         <v>7.1554520000000004</v>
@@ -7633,31 +7633,31 @@
         <v>6.3528219999999997</v>
       </c>
       <c r="AK46" s="41">
-        <v>6.5064299999999999</v>
+        <v>7.4526240000000001</v>
       </c>
       <c r="AL46" s="41">
-        <v>6.5107900000000001</v>
+        <v>7.0405980000000001</v>
       </c>
       <c r="AM46" s="41">
-        <v>6.1861470000000001</v>
+        <v>6.7222270000000002</v>
       </c>
       <c r="AN46" s="41">
-        <v>6.1801240000000002</v>
+        <v>6.5934220000000003</v>
       </c>
       <c r="AO46" s="41">
-        <v>6.0026029999999997</v>
+        <v>6.488105</v>
       </c>
       <c r="AP46" s="41">
-        <v>5.9924299999999997</v>
+        <v>6.0006589999999997</v>
       </c>
       <c r="AQ46" s="41">
-        <v>5.9644279999999998</v>
+        <v>5.9722609999999996</v>
       </c>
       <c r="AR46" s="42">
-        <v>6.0651020000000004</v>
+        <v>6.3548819999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
         <v>130</v>
       </c>
@@ -7761,37 +7761,37 @@
         <v>6.9425249999999998</v>
       </c>
       <c r="AI47" s="19">
-        <v>1.4972399999999999</v>
+        <v>1.626733</v>
       </c>
       <c r="AJ47" s="19">
-        <v>2.960181</v>
+        <v>3.0002740000000001</v>
       </c>
       <c r="AK47" s="19">
-        <v>4.4498249999999997</v>
+        <v>4.797828</v>
       </c>
       <c r="AL47" s="19">
-        <v>4.3347129999999998</v>
+        <v>3.9882870000000001</v>
       </c>
       <c r="AM47" s="19">
-        <v>4.5284469999999999</v>
+        <v>4.7613060000000003</v>
       </c>
       <c r="AN47" s="19">
-        <v>4.7484760000000001</v>
+        <v>4.7008989999999997</v>
       </c>
       <c r="AO47" s="19">
-        <v>4.9012609999999999</v>
+        <v>4.691929</v>
       </c>
       <c r="AP47" s="19">
-        <v>4.8979499999999998</v>
+        <v>4.71739</v>
       </c>
       <c r="AQ47" s="19">
-        <v>5.0300260000000003</v>
+        <v>4.7428150000000002</v>
       </c>
       <c r="AR47" s="20">
-        <v>4.8210920000000002</v>
+        <v>4.7228649999999996</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
         <v>132</v>
       </c>
@@ -7883,10 +7883,10 @@
         <v>4.5513149999999998</v>
       </c>
       <c r="AE48" s="33">
-        <v>3.704907</v>
+        <v>3.7069649999999998</v>
       </c>
       <c r="AF48" s="33">
-        <v>6.949948</v>
+        <v>6.9478260000000001</v>
       </c>
       <c r="AG48" s="33">
         <v>-20.805275999999999</v>
@@ -7895,37 +7895,37 @@
         <v>7.0335299999999998</v>
       </c>
       <c r="AI48" s="33">
-        <v>17.438790999999998</v>
+        <v>15.843676</v>
       </c>
       <c r="AJ48" s="33">
-        <v>4.0428139999999999</v>
+        <v>4.7947610000000003</v>
       </c>
       <c r="AK48" s="33">
-        <v>5.9923859999999998</v>
+        <v>7.2438849999999997</v>
       </c>
       <c r="AL48" s="33">
-        <v>4.9725409999999997</v>
+        <v>5.1857680000000004</v>
       </c>
       <c r="AM48" s="33">
-        <v>4.9144300000000003</v>
+        <v>4.836157</v>
       </c>
       <c r="AN48" s="33">
-        <v>4.879448</v>
+        <v>4.8495679999999997</v>
       </c>
       <c r="AO48" s="33">
-        <v>4.7608819999999996</v>
+        <v>4.7104189999999999</v>
       </c>
       <c r="AP48" s="33">
-        <v>4.7904109999999998</v>
+        <v>4.7054919999999996</v>
       </c>
       <c r="AQ48" s="33">
-        <v>4.5121789999999997</v>
+        <v>4.4608869999999996</v>
       </c>
       <c r="AR48" s="34">
-        <v>4.7713749999999999</v>
+        <v>4.7124110000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>134</v>
       </c>
@@ -8038,7 +8038,7 @@
         <v>6</v>
       </c>
       <c r="AL49" s="19">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AM49" s="19">
         <v>6.4</v>
@@ -8059,7 +8059,7 @@
         <v>6.659783</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>136</v>
       </c>
@@ -8166,34 +8166,34 @@
         <v>5.492998</v>
       </c>
       <c r="AJ50" s="19">
-        <v>4.7975089999999998</v>
+        <v>5.0382400000000001</v>
       </c>
       <c r="AK50" s="19">
-        <v>5.8160920000000003</v>
+        <v>5.3336100000000002</v>
       </c>
       <c r="AL50" s="19">
-        <v>5.9128980000000002</v>
+        <v>6.0123220000000002</v>
       </c>
       <c r="AM50" s="19">
-        <v>5.0282369999999998</v>
+        <v>5.0956489999999999</v>
       </c>
       <c r="AN50" s="19">
-        <v>4.9969510000000001</v>
+        <v>5.015746</v>
       </c>
       <c r="AO50" s="19">
-        <v>5.0015099999999997</v>
+        <v>5.0356709999999998</v>
       </c>
       <c r="AP50" s="19">
-        <v>5.0015099999999997</v>
+        <v>5.0356709999999998</v>
       </c>
       <c r="AQ50" s="19">
-        <v>5.0015099999999997</v>
+        <v>5.0356709999999998</v>
       </c>
       <c r="AR50" s="20">
-        <v>5.0059430000000003</v>
+        <v>5.0436779999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>138</v>
       </c>
@@ -8327,7 +8327,7 @@
         <v>4.9468740000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>140</v>
       </c>
@@ -8440,28 +8440,28 @@
         <v>6.0732100000000004</v>
       </c>
       <c r="AL52" s="19">
-        <v>7.0860380000000003</v>
+        <v>7.2066600000000003</v>
       </c>
       <c r="AM52" s="19">
-        <v>10.608541000000001</v>
+        <v>10.479463000000001</v>
       </c>
       <c r="AN52" s="19">
-        <v>10.703429</v>
+        <v>10.715745</v>
       </c>
       <c r="AO52" s="19">
-        <v>9.4808669999999999</v>
+        <v>10.812149</v>
       </c>
       <c r="AP52" s="19">
-        <v>11.105748</v>
+        <v>11.280583</v>
       </c>
       <c r="AQ52" s="19">
-        <v>7.710801</v>
+        <v>7.7670389999999996</v>
       </c>
       <c r="AR52" s="20">
-        <v>9.9149460000000005</v>
+        <v>10.203841000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
         <v>142</v>
       </c>
@@ -8571,7 +8571,7 @@
         <v>5.2</v>
       </c>
       <c r="AK53" s="19">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="AL53" s="19">
         <v>5.0999999999999996</v>
@@ -8589,13 +8589,13 @@
         <v>4.5</v>
       </c>
       <c r="AQ53" s="19">
-        <v>4.5</v>
+        <v>4.2039289999999996</v>
       </c>
       <c r="AR53" s="20">
-        <v>4.6997140000000002</v>
+        <v>4.6403189999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>144</v>
       </c>
@@ -8705,31 +8705,31 @@
         <v>4.5868700000000002</v>
       </c>
       <c r="AK54" s="19">
-        <v>4.8186939999999998</v>
+        <v>4.0139490000000002</v>
       </c>
       <c r="AL54" s="19">
-        <v>5.3344880000000003</v>
+        <v>4.5689190000000002</v>
       </c>
       <c r="AM54" s="19">
-        <v>5.5285130000000002</v>
+        <v>5.4409419999999997</v>
       </c>
       <c r="AN54" s="19">
-        <v>5.789485</v>
+        <v>5.6183050000000003</v>
       </c>
       <c r="AO54" s="19">
-        <v>5.8075729999999997</v>
+        <v>5.8651020000000003</v>
       </c>
       <c r="AP54" s="19">
-        <v>5.756176</v>
+        <v>5.4955959999999999</v>
       </c>
       <c r="AQ54" s="19">
-        <v>5.5508870000000003</v>
+        <v>5.5430789999999996</v>
       </c>
       <c r="AR54" s="20">
-        <v>5.6864569999999999</v>
+        <v>5.5925010000000004</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>146</v>
       </c>
@@ -8839,16 +8839,16 @@
         <v>4.6567759999999998</v>
       </c>
       <c r="AK55" s="19">
-        <v>4.4000000000000004</v>
+        <v>4.7</v>
       </c>
       <c r="AL55" s="19">
-        <v>4.9000000000000004</v>
+        <v>5</v>
       </c>
       <c r="AM55" s="19">
-        <v>5.0999999999999996</v>
+        <v>5.4</v>
       </c>
       <c r="AN55" s="19">
-        <v>5.0999999999999996</v>
+        <v>5.2</v>
       </c>
       <c r="AO55" s="19">
         <v>5.0999999999999996</v>
@@ -8860,10 +8860,10 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="AR55" s="20">
-        <v>5.0999999999999996</v>
+        <v>5.1799350000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>148</v>
       </c>
@@ -8970,34 +8970,34 @@
         <v>11.861750000000001</v>
       </c>
       <c r="AJ56" s="19">
-        <v>2.3746130000000001</v>
+        <v>2.3748840000000002</v>
       </c>
       <c r="AK56" s="19">
-        <v>10.300481</v>
+        <v>10.3</v>
       </c>
       <c r="AL56" s="19">
-        <v>6.5873010000000001</v>
+        <v>6.6492399999999998</v>
       </c>
       <c r="AM56" s="19">
-        <v>6.7000109999999999</v>
+        <v>6.7279419999999996</v>
       </c>
       <c r="AN56" s="19">
-        <v>6.4253809999999998</v>
+        <v>6.5485850000000001</v>
       </c>
       <c r="AO56" s="19">
-        <v>6.0074589999999999</v>
+        <v>6.0007279999999996</v>
       </c>
       <c r="AP56" s="19">
-        <v>6.0059740000000001</v>
+        <v>6.000629</v>
       </c>
       <c r="AQ56" s="19">
-        <v>6.0187590000000002</v>
+        <v>6.0226449999999998</v>
       </c>
       <c r="AR56" s="20">
-        <v>6.2311379999999996</v>
+        <v>6.2596420000000004</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>150</v>
       </c>
@@ -9095,43 +9095,43 @@
         <v>2.2084299999999999</v>
       </c>
       <c r="AG57" s="19">
-        <v>-1.794254</v>
+        <v>-6.3688979999999997</v>
       </c>
       <c r="AH57" s="19">
-        <v>3.6471870000000002</v>
+        <v>1.109253</v>
       </c>
       <c r="AI57" s="19">
-        <v>3.251681</v>
+        <v>4.318829</v>
       </c>
       <c r="AJ57" s="19">
-        <v>2.860214</v>
+        <v>3.3268460000000002</v>
       </c>
       <c r="AK57" s="19">
-        <v>3.4264399999999999</v>
+        <v>4.0627079999999998</v>
       </c>
       <c r="AL57" s="19">
-        <v>3.0386320000000002</v>
+        <v>3.9312510000000001</v>
       </c>
       <c r="AM57" s="19">
-        <v>2.7247020000000002</v>
+        <v>4.239922</v>
       </c>
       <c r="AN57" s="19">
-        <v>2.9673349999999998</v>
+        <v>3.9883760000000001</v>
       </c>
       <c r="AO57" s="19">
-        <v>3.2565439999999999</v>
+        <v>3.9527869999999998</v>
       </c>
       <c r="AP57" s="19">
-        <v>3.4601099999999998</v>
+        <v>3.9746239999999999</v>
       </c>
       <c r="AQ57" s="19">
-        <v>3.4673449999999999</v>
+        <v>3.9887049999999999</v>
       </c>
       <c r="AR57" s="20">
-        <v>3.1747999999999998</v>
+        <v>4.028829</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>152</v>
       </c>
@@ -9241,31 +9241,31 @@
         <v>4.300001</v>
       </c>
       <c r="AK58" s="19">
-        <v>6.6787260000000002</v>
+        <v>6.4029220000000002</v>
       </c>
       <c r="AL58" s="19">
-        <v>8.4446030000000007</v>
+        <v>5.9549609999999999</v>
       </c>
       <c r="AM58" s="19">
-        <v>4.0889709999999999</v>
+        <v>2.9900959999999999</v>
       </c>
       <c r="AN58" s="19">
-        <v>4.8273640000000002</v>
+        <v>3.2716880000000002</v>
       </c>
       <c r="AO58" s="19">
-        <v>5.12113</v>
+        <v>3.7789769999999998</v>
       </c>
       <c r="AP58" s="19">
-        <v>4.5964790000000004</v>
+        <v>4.0657680000000003</v>
       </c>
       <c r="AQ58" s="19">
-        <v>5.4920730000000004</v>
+        <v>4.6125569999999998</v>
       </c>
       <c r="AR58" s="20">
-        <v>4.824128</v>
+        <v>3.7422270000000002</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>154</v>
       </c>
@@ -9375,31 +9375,31 @@
         <v>5.7100220000000004</v>
       </c>
       <c r="AK59" s="19">
-        <v>3.6810930000000002</v>
+        <v>4.4252719999999997</v>
       </c>
       <c r="AL59" s="19">
-        <v>4.6589369999999999</v>
+        <v>4.3883270000000003</v>
       </c>
       <c r="AM59" s="19">
-        <v>4.8512510000000004</v>
+        <v>4.872744</v>
       </c>
       <c r="AN59" s="19">
-        <v>4.7385450000000002</v>
+        <v>4.726172</v>
       </c>
       <c r="AO59" s="19">
-        <v>4.5541929999999997</v>
+        <v>4.5479520000000004</v>
       </c>
       <c r="AP59" s="19">
-        <v>4.5985909999999999</v>
+        <v>4.5718579999999998</v>
       </c>
       <c r="AQ59" s="19">
-        <v>4.6116159999999997</v>
+        <v>4.5850160000000004</v>
       </c>
       <c r="AR59" s="20">
-        <v>4.670782</v>
+        <v>4.6606759999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
         <v>156</v>
       </c>
@@ -9497,10 +9497,10 @@
         <v>4.9228329999999998</v>
       </c>
       <c r="AG60" s="24">
-        <v>1.9758720000000001</v>
+        <v>1.98834</v>
       </c>
       <c r="AH60" s="24">
-        <v>5.991371</v>
+        <v>5.9784139999999999</v>
       </c>
       <c r="AI60" s="24">
         <v>5.8106400000000002</v>
@@ -9512,7 +9512,7 @@
         <v>5.3</v>
       </c>
       <c r="AL60" s="24">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AM60" s="24">
         <v>5.5</v>
@@ -9533,1063 +9533,1063 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="61" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
         <v>158</v>
       </c>
       <c r="C61" s="28">
-        <v>2.0623629999999999</v>
+        <v>2.0647229999999999</v>
       </c>
       <c r="D61" s="29">
-        <v>0.57434200000000002</v>
+        <v>0.35733300000000001</v>
       </c>
       <c r="E61" s="29">
-        <v>1.597413</v>
+        <v>1.7132320000000001</v>
       </c>
       <c r="F61" s="29">
-        <v>1.662209</v>
+        <v>1.6446019999999999</v>
       </c>
       <c r="G61" s="29">
-        <v>1.1002240000000001</v>
+        <v>0.93772100000000003</v>
       </c>
       <c r="H61" s="29">
-        <v>3.1050800000000001</v>
+        <v>2.8699530000000002</v>
       </c>
       <c r="I61" s="29">
-        <v>4.191192</v>
+        <v>4.1646099999999997</v>
       </c>
       <c r="J61" s="29">
-        <v>3.5555020000000002</v>
+        <v>3.4283899999999998</v>
       </c>
       <c r="K61" s="29">
-        <v>3.3825069999999999</v>
+        <v>3.2149329999999998</v>
       </c>
       <c r="L61" s="29">
-        <v>1.8992260000000001</v>
+        <v>1.6419299999999999</v>
       </c>
       <c r="M61" s="29">
-        <v>3.7725930000000001</v>
+        <v>4.104088</v>
       </c>
       <c r="N61" s="29">
-        <v>5.7554600000000002</v>
+        <v>5.9284460000000001</v>
       </c>
       <c r="O61" s="29">
-        <v>10.000064</v>
+        <v>10.905627000000001</v>
       </c>
       <c r="P61" s="29">
-        <v>7.1519209999999998</v>
+        <v>7.623024</v>
       </c>
       <c r="Q61" s="29">
-        <v>7.8170729999999997</v>
+        <v>8.3539580000000004</v>
       </c>
       <c r="R61" s="29">
-        <v>6.0339239999999998</v>
+        <v>6.2344270000000002</v>
       </c>
       <c r="S61" s="29">
-        <v>5.7336010000000002</v>
+        <v>5.9396500000000003</v>
       </c>
       <c r="T61" s="29">
-        <v>6.0770590000000002</v>
+        <v>6.3374470000000001</v>
       </c>
       <c r="U61" s="29">
-        <v>6.5858860000000004</v>
+        <v>6.7150150000000002</v>
       </c>
       <c r="V61" s="29">
-        <v>6.7397749999999998</v>
+        <v>7.0836819999999996</v>
       </c>
       <c r="W61" s="29">
-        <v>9.3614359999999994</v>
+        <v>9.7714739999999995</v>
       </c>
       <c r="X61" s="29">
-        <v>4.9646049999999997</v>
+        <v>4.9476870000000002</v>
       </c>
       <c r="Y61" s="29">
-        <v>5.1971600000000002</v>
+        <v>4.9996169999999998</v>
       </c>
       <c r="Z61" s="29">
-        <v>5.7388719999999998</v>
+        <v>5.6650749999999999</v>
       </c>
       <c r="AA61" s="29">
-        <v>5.9181710000000001</v>
+        <v>6.0025219999999999</v>
       </c>
       <c r="AB61" s="29">
-        <v>3.265164</v>
+        <v>3.1337199999999998</v>
       </c>
       <c r="AC61" s="29">
-        <v>0.83172000000000001</v>
+        <v>0.31662099999999999</v>
       </c>
       <c r="AD61" s="29">
-        <v>3.0276619999999999</v>
+        <v>2.5671569999999999</v>
       </c>
       <c r="AE61" s="29">
-        <v>3.3029519999999999</v>
+        <v>3.0183620000000002</v>
       </c>
       <c r="AF61" s="29">
-        <v>3.6187209999999999</v>
+        <v>3.3377140000000001</v>
       </c>
       <c r="AG61" s="29">
-        <v>-0.69940100000000005</v>
+        <v>-4.0798810000000003</v>
       </c>
       <c r="AH61" s="29">
-        <v>4.4570480000000003</v>
+        <v>2.5783230000000001</v>
       </c>
       <c r="AI61" s="29">
-        <v>3.9672149999999999</v>
+        <v>4.5534179999999997</v>
       </c>
       <c r="AJ61" s="29">
-        <v>3.5899380000000001</v>
+        <v>3.766794</v>
       </c>
       <c r="AK61" s="29">
-        <v>4.4469539999999999</v>
+        <v>4.7054520000000002</v>
       </c>
       <c r="AL61" s="29">
-        <v>4.1231790000000004</v>
+        <v>4.4381269999999997</v>
       </c>
       <c r="AM61" s="29">
-        <v>3.997881</v>
+        <v>4.7343989999999998</v>
       </c>
       <c r="AN61" s="29">
-        <v>4.2250880000000004</v>
+        <v>4.6055200000000003</v>
       </c>
       <c r="AO61" s="29">
-        <v>4.3872770000000001</v>
+        <v>4.6113059999999999</v>
       </c>
       <c r="AP61" s="29">
-        <v>4.6055590000000004</v>
+        <v>4.6884059999999996</v>
       </c>
       <c r="AQ61" s="29">
-        <v>4.5232210000000004</v>
+        <v>4.6076930000000003</v>
       </c>
       <c r="AR61" s="30">
-        <v>4.3475789999999996</v>
+        <v>4.649451</v>
       </c>
     </row>
-    <row r="62" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
         <v>159</v>
       </c>
       <c r="C62" s="50">
-        <v>1.524783</v>
+        <v>1.524762</v>
       </c>
       <c r="D62" s="51">
-        <v>1.980116</v>
+        <v>1.8652089999999999</v>
       </c>
       <c r="E62" s="51">
-        <v>9.8380999999999996E-2</v>
+        <v>0.19497400000000001</v>
       </c>
       <c r="F62" s="51">
-        <v>0.96333100000000005</v>
+        <v>0.99180400000000002</v>
       </c>
       <c r="G62" s="51">
-        <v>2.5815440000000001</v>
+        <v>2.4764430000000002</v>
       </c>
       <c r="H62" s="51">
-        <v>2.8247659999999999</v>
+        <v>2.7814000000000001</v>
       </c>
       <c r="I62" s="51">
-        <v>5.0512040000000002</v>
+        <v>5.0052940000000001</v>
       </c>
       <c r="J62" s="51">
-        <v>3.2373949999999998</v>
+        <v>3.2219319999999998</v>
       </c>
       <c r="K62" s="51">
-        <v>4.0241340000000001</v>
+        <v>3.956051</v>
       </c>
       <c r="L62" s="51">
-        <v>3.0867629999999999</v>
+        <v>2.9522080000000002</v>
       </c>
       <c r="M62" s="51">
-        <v>4.1834629999999997</v>
+        <v>4.1933759999999998</v>
       </c>
       <c r="N62" s="51">
-        <v>4.545941</v>
+        <v>4.6126339999999999</v>
       </c>
       <c r="O62" s="51">
-        <v>4.9733580000000002</v>
+        <v>5.3760120000000002</v>
       </c>
       <c r="P62" s="51">
-        <v>5.2054429999999998</v>
+        <v>5.3389639999999998</v>
       </c>
       <c r="Q62" s="51">
-        <v>5.9569359999999998</v>
+        <v>6.1467989999999997</v>
       </c>
       <c r="R62" s="51">
-        <v>5.8432279999999999</v>
+        <v>5.8650890000000002</v>
       </c>
       <c r="S62" s="51">
-        <v>5.7604920000000002</v>
+        <v>5.7903229999999999</v>
       </c>
       <c r="T62" s="51">
-        <v>6.1009739999999999</v>
+        <v>6.1406429999999999</v>
       </c>
       <c r="U62" s="51">
-        <v>5.264405</v>
+        <v>5.3334619999999999</v>
       </c>
       <c r="V62" s="51">
-        <v>3.0743130000000001</v>
+        <v>3.390368</v>
       </c>
       <c r="W62" s="51">
-        <v>6.0521839999999996</v>
+        <v>6.3950870000000002</v>
       </c>
       <c r="X62" s="51">
-        <v>2.9768059999999998</v>
+        <v>3.1236090000000001</v>
       </c>
       <c r="Y62" s="51">
-        <v>5.7896979999999996</v>
+        <v>5.7268590000000001</v>
       </c>
       <c r="Z62" s="51">
-        <v>3.7261069999999998</v>
+        <v>3.823518</v>
       </c>
       <c r="AA62" s="51">
-        <v>3.8953180000000001</v>
+        <v>4.048762</v>
       </c>
       <c r="AB62" s="51">
-        <v>3.430196</v>
+        <v>3.3789560000000001</v>
       </c>
       <c r="AC62" s="51">
-        <v>2.233263</v>
+        <v>2.0038710000000002</v>
       </c>
       <c r="AD62" s="51">
-        <v>3.6761659999999998</v>
+        <v>3.5043280000000001</v>
       </c>
       <c r="AE62" s="51">
-        <v>3.4363000000000001</v>
+        <v>3.341717</v>
       </c>
       <c r="AF62" s="51">
-        <v>3.065121</v>
+        <v>2.9893480000000001</v>
       </c>
       <c r="AG62" s="51">
-        <v>-1.3609340000000001</v>
+        <v>-2.3203499999999999</v>
       </c>
       <c r="AH62" s="51">
-        <v>4.6059020000000004</v>
+        <v>4.0636089999999996</v>
       </c>
       <c r="AI62" s="51">
-        <v>4.2640250000000002</v>
+        <v>4.4501840000000001</v>
       </c>
       <c r="AJ62" s="51">
-        <v>3.3128479999999998</v>
+        <v>3.4329209999999999</v>
       </c>
       <c r="AK62" s="51">
-        <v>3.1748219999999998</v>
+        <v>3.3948209999999999</v>
       </c>
       <c r="AL62" s="51">
-        <v>3.8550779999999998</v>
+        <v>4.1982939999999997</v>
       </c>
       <c r="AM62" s="51">
-        <v>4.1048179999999999</v>
+        <v>4.303051</v>
       </c>
       <c r="AN62" s="51">
-        <v>4.3441559999999999</v>
+        <v>4.4339849999999998</v>
       </c>
       <c r="AO62" s="51">
-        <v>4.3911980000000002</v>
+        <v>4.4469750000000001</v>
       </c>
       <c r="AP62" s="51">
-        <v>4.4603400000000004</v>
+        <v>4.4875939999999996</v>
       </c>
       <c r="AQ62" s="51">
-        <v>4.4672700000000001</v>
+        <v>4.4976560000000001</v>
       </c>
       <c r="AR62" s="52">
-        <v>4.353472</v>
+        <v>4.4338290000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
         <v>160</v>
       </c>
       <c r="C63" s="50">
-        <v>3.2861289999999999</v>
+        <v>3.2881960000000001</v>
       </c>
       <c r="D63" s="51">
-        <v>2.4435009999999999</v>
+        <v>2.4493330000000002</v>
       </c>
       <c r="E63" s="51">
-        <v>3.1978430000000002</v>
+        <v>3.1971569999999998</v>
       </c>
       <c r="F63" s="51">
-        <v>1.9585109999999999</v>
+        <v>1.9557070000000001</v>
       </c>
       <c r="G63" s="51">
-        <v>3.147891</v>
+        <v>3.1488740000000002</v>
       </c>
       <c r="H63" s="51">
-        <v>3.2997269999999999</v>
+        <v>3.2998409999999998</v>
       </c>
       <c r="I63" s="51">
-        <v>3.7980450000000001</v>
+        <v>3.8000889999999998</v>
       </c>
       <c r="J63" s="51">
-        <v>4.0350299999999999</v>
+        <v>4.03423</v>
       </c>
       <c r="K63" s="51">
-        <v>2.5994989999999998</v>
+        <v>2.5990470000000001</v>
       </c>
       <c r="L63" s="51">
-        <v>3.583205</v>
+        <v>3.5827580000000001</v>
       </c>
       <c r="M63" s="51">
-        <v>4.7897569999999998</v>
+        <v>4.7911919999999997</v>
       </c>
       <c r="N63" s="51">
-        <v>2.4194059999999999</v>
+        <v>2.4189289999999999</v>
       </c>
       <c r="O63" s="51">
-        <v>2.6797979999999999</v>
+        <v>2.6781419999999998</v>
       </c>
       <c r="P63" s="51">
-        <v>3.7280690000000001</v>
+        <v>3.7285919999999999</v>
       </c>
       <c r="Q63" s="51">
-        <v>5.1918300000000004</v>
+        <v>5.1914819999999997</v>
       </c>
       <c r="R63" s="51">
-        <v>4.6390570000000002</v>
+        <v>4.6393579999999996</v>
       </c>
       <c r="S63" s="51">
-        <v>5.2500770000000001</v>
+        <v>5.249428</v>
       </c>
       <c r="T63" s="51">
-        <v>5.2808770000000003</v>
+        <v>5.2808659999999996</v>
       </c>
       <c r="U63" s="51">
-        <v>2.8216130000000001</v>
+        <v>2.8171900000000001</v>
       </c>
       <c r="V63" s="51">
-        <v>-0.52654900000000004</v>
+        <v>-0.53045200000000003</v>
       </c>
       <c r="W63" s="51">
-        <v>5.1101140000000003</v>
+        <v>5.1229480000000001</v>
       </c>
       <c r="X63" s="51">
-        <v>4.1013580000000003</v>
+        <v>4.1545170000000002</v>
       </c>
       <c r="Y63" s="51">
-        <v>3.2319490000000002</v>
+        <v>3.2515909999999999</v>
       </c>
       <c r="Z63" s="51">
-        <v>3.3520449999999999</v>
+        <v>3.367766</v>
       </c>
       <c r="AA63" s="51">
-        <v>3.5210919999999999</v>
+        <v>3.5227940000000002</v>
       </c>
       <c r="AB63" s="51">
-        <v>3.484092</v>
+        <v>3.4805540000000001</v>
       </c>
       <c r="AC63" s="51">
-        <v>3.3385859999999998</v>
+        <v>3.3132730000000001</v>
       </c>
       <c r="AD63" s="51">
-        <v>3.8536069999999998</v>
+        <v>3.860201</v>
       </c>
       <c r="AE63" s="51">
-        <v>3.6805699999999999</v>
+        <v>3.6711939999999998</v>
       </c>
       <c r="AF63" s="51">
-        <v>2.9600040000000001</v>
+        <v>2.9866480000000002</v>
       </c>
       <c r="AG63" s="51">
-        <v>-2.7752059999999998</v>
+        <v>-2.7664279999999999</v>
       </c>
       <c r="AH63" s="51">
-        <v>6.7133320000000003</v>
+        <v>6.7655620000000001</v>
       </c>
       <c r="AI63" s="51">
-        <v>3.6506150000000002</v>
+        <v>3.7508439999999998</v>
       </c>
       <c r="AJ63" s="51">
-        <v>3.4994740000000002</v>
+        <v>3.5150329999999999</v>
       </c>
       <c r="AK63" s="51">
-        <v>3.293933</v>
+        <v>3.3205610000000001</v>
       </c>
       <c r="AL63" s="51">
-        <v>2.7293660000000002</v>
+        <v>3.0997309999999998</v>
       </c>
       <c r="AM63" s="51">
-        <v>2.90889</v>
+        <v>3.0311880000000002</v>
       </c>
       <c r="AN63" s="51">
-        <v>3.1669230000000002</v>
+        <v>3.1729430000000001</v>
       </c>
       <c r="AO63" s="51">
-        <v>3.166299</v>
+        <v>3.1509520000000002</v>
       </c>
       <c r="AP63" s="51">
-        <v>3.1221909999999999</v>
+        <v>3.0832069999999998</v>
       </c>
       <c r="AQ63" s="51">
-        <v>3.0596359999999998</v>
+        <v>2.9934829999999999</v>
       </c>
       <c r="AR63" s="52">
-        <v>3.084743</v>
+        <v>3.0863320000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
         <v>161</v>
       </c>
       <c r="C64" s="55">
-        <v>0.897096</v>
+        <v>0.895563</v>
       </c>
       <c r="D64" s="56">
-        <v>3.959606</v>
+        <v>3.958555</v>
       </c>
       <c r="E64" s="56">
-        <v>3.5860799999999999</v>
+        <v>3.584597</v>
       </c>
       <c r="F64" s="56">
-        <v>4.051844</v>
+        <v>4.0519860000000003</v>
       </c>
       <c r="G64" s="56">
-        <v>4.5698420000000004</v>
+        <v>4.5722480000000001</v>
       </c>
       <c r="H64" s="56">
-        <v>1.1236950000000001</v>
+        <v>1.1262589999999999</v>
       </c>
       <c r="I64" s="56">
-        <v>3.7505860000000002</v>
+        <v>3.7497319999999998</v>
       </c>
       <c r="J64" s="56">
-        <v>5.5629379999999999</v>
+        <v>5.5621580000000002</v>
       </c>
       <c r="K64" s="56">
-        <v>2.952839</v>
+        <v>2.9513389999999999</v>
       </c>
       <c r="L64" s="56">
-        <v>0.19192400000000001</v>
+        <v>0.192694</v>
       </c>
       <c r="M64" s="56">
-        <v>3.645559</v>
+        <v>3.6446369999999999</v>
       </c>
       <c r="N64" s="56">
-        <v>0.50636899999999996</v>
+        <v>0.50653700000000002</v>
       </c>
       <c r="O64" s="56">
-        <v>0.14729500000000001</v>
+        <v>0.14932999999999999</v>
       </c>
       <c r="P64" s="56">
-        <v>2.051186</v>
+        <v>2.0524640000000001</v>
       </c>
       <c r="Q64" s="56">
-        <v>5.9927999999999999</v>
+        <v>5.9916410000000004</v>
       </c>
       <c r="R64" s="56">
-        <v>4.394514</v>
+        <v>4.3949119999999997</v>
       </c>
       <c r="S64" s="56">
-        <v>5.5880400000000003</v>
+        <v>5.5883700000000003</v>
       </c>
       <c r="T64" s="56">
-        <v>5.5302530000000001</v>
+        <v>5.5315779999999997</v>
       </c>
       <c r="U64" s="56">
-        <v>3.852519</v>
+        <v>3.8546610000000001</v>
       </c>
       <c r="V64" s="56">
-        <v>-2.330241</v>
+        <v>-2.3282620000000001</v>
       </c>
       <c r="W64" s="56">
-        <v>6.0832030000000001</v>
+        <v>6.0835080000000001</v>
       </c>
       <c r="X64" s="56">
-        <v>4.5942759999999998</v>
+        <v>4.5946629999999997</v>
       </c>
       <c r="Y64" s="56">
-        <v>2.961357</v>
+        <v>2.9400729999999999</v>
       </c>
       <c r="Z64" s="56">
-        <v>2.8099919999999998</v>
+        <v>2.836001</v>
       </c>
       <c r="AA64" s="56">
-        <v>1.2952539999999999</v>
+        <v>1.2955380000000001</v>
       </c>
       <c r="AB64" s="56">
-        <v>0.36258000000000001</v>
+        <v>0.36650500000000003</v>
       </c>
       <c r="AC64" s="56">
-        <v>-0.76290800000000003</v>
+        <v>-0.75712699999999999</v>
       </c>
       <c r="AD64" s="56">
-        <v>1.370331</v>
+        <v>1.3765829999999999</v>
       </c>
       <c r="AE64" s="56">
-        <v>1.133596</v>
+        <v>1.1367670000000001</v>
       </c>
       <c r="AF64" s="56">
-        <v>0.16048999999999999</v>
+        <v>0.162523</v>
       </c>
       <c r="AG64" s="56">
-        <v>-6.8711609999999999</v>
+        <v>-6.8734890000000002</v>
       </c>
       <c r="AH64" s="56">
-        <v>7.4237320000000002</v>
+        <v>7.441681</v>
       </c>
       <c r="AI64" s="56">
-        <v>4.2063509999999997</v>
+        <v>4.2923109999999998</v>
       </c>
       <c r="AJ64" s="56">
-        <v>2.3985129999999999</v>
+        <v>2.379292</v>
       </c>
       <c r="AK64" s="56">
-        <v>2.3697309999999998</v>
+        <v>2.381081</v>
       </c>
       <c r="AL64" s="56">
-        <v>2.0135900000000002</v>
+        <v>2.4155139999999999</v>
       </c>
       <c r="AM64" s="56">
-        <v>2.3865349999999999</v>
+        <v>2.3440210000000001</v>
       </c>
       <c r="AN64" s="56">
-        <v>2.747779</v>
+        <v>2.7095359999999999</v>
       </c>
       <c r="AO64" s="56">
-        <v>2.7579989999999999</v>
+        <v>2.763747</v>
       </c>
       <c r="AP64" s="56">
-        <v>2.752275</v>
+        <v>2.826276</v>
       </c>
       <c r="AQ64" s="56">
-        <v>2.5930719999999998</v>
+        <v>2.6228590000000001</v>
       </c>
       <c r="AR64" s="57">
-        <v>2.6474299999999999</v>
+        <v>2.653149</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
         <v>162</v>
       </c>
       <c r="C65" s="59">
-        <v>6.4400399999999998</v>
+        <v>6.4591529999999997</v>
       </c>
       <c r="D65" s="60">
-        <v>7.0471919999999999</v>
+        <v>7.0630660000000001</v>
       </c>
       <c r="E65" s="60">
-        <v>8.131316</v>
+        <v>8.1185150000000004</v>
       </c>
       <c r="F65" s="60">
-        <v>7.5671109999999997</v>
+        <v>7.5668329999999999</v>
       </c>
       <c r="G65" s="60">
-        <v>7.9787059999999999</v>
+        <v>7.9811880000000004</v>
       </c>
       <c r="H65" s="60">
-        <v>8.1022759999999998</v>
+        <v>8.1027470000000008</v>
       </c>
       <c r="I65" s="60">
-        <v>7.9863249999999999</v>
+        <v>7.9932309999999998</v>
       </c>
       <c r="J65" s="60">
-        <v>5.5542740000000004</v>
+        <v>5.5558719999999999</v>
       </c>
       <c r="K65" s="60">
-        <v>2.9729649999999999</v>
+        <v>2.9689199999999998</v>
       </c>
       <c r="L65" s="60">
-        <v>6.1132270000000002</v>
+        <v>6.0984970000000001</v>
       </c>
       <c r="M65" s="60">
-        <v>6.2433069999999997</v>
+        <v>6.2333129999999999</v>
       </c>
       <c r="N65" s="60">
-        <v>5.6012240000000002</v>
+        <v>5.5830479999999998</v>
       </c>
       <c r="O65" s="60">
-        <v>6.2769579999999996</v>
+        <v>6.2715630000000004</v>
       </c>
       <c r="P65" s="60">
-        <v>7.6652680000000002</v>
+        <v>7.6576700000000004</v>
       </c>
       <c r="Q65" s="60">
-        <v>8.6761850000000003</v>
+        <v>8.6621430000000004</v>
       </c>
       <c r="R65" s="60">
-        <v>8.4723869999999994</v>
+        <v>8.4584379999999992</v>
       </c>
       <c r="S65" s="60">
-        <v>9.1655280000000001</v>
+        <v>9.1567369999999997</v>
       </c>
       <c r="T65" s="60">
-        <v>10.137523</v>
+        <v>10.133314</v>
       </c>
       <c r="U65" s="60">
-        <v>6.694782</v>
+        <v>6.6752979999999997</v>
       </c>
       <c r="V65" s="60">
-        <v>6.9105629999999998</v>
+        <v>6.9030990000000001</v>
       </c>
       <c r="W65" s="60">
-        <v>8.7236349999999998</v>
+        <v>8.7123220000000003</v>
       </c>
       <c r="X65" s="60">
-        <v>7.0698109999999996</v>
+        <v>7.2020670000000004</v>
       </c>
       <c r="Y65" s="60">
-        <v>6.513973</v>
+        <v>6.5112040000000002</v>
       </c>
       <c r="Z65" s="60">
-        <v>6.4509129999999999</v>
+        <v>6.4672619999999998</v>
       </c>
       <c r="AA65" s="60">
-        <v>6.6246679999999998</v>
+        <v>6.6268399999999996</v>
       </c>
       <c r="AB65" s="60">
-        <v>6.3011679999999997</v>
+        <v>6.2856050000000003</v>
       </c>
       <c r="AC65" s="60">
-        <v>6.7860810000000003</v>
+        <v>6.7248559999999999</v>
       </c>
       <c r="AD65" s="60">
-        <v>6.278511</v>
+        <v>6.2889799999999996</v>
       </c>
       <c r="AE65" s="60">
-        <v>6.0775360000000003</v>
+        <v>6.0224399999999996</v>
       </c>
       <c r="AF65" s="60">
-        <v>5.0543120000000004</v>
+        <v>5.0861049999999999</v>
       </c>
       <c r="AG65" s="60">
-        <v>-0.57397600000000004</v>
+        <v>-0.53144499999999995</v>
       </c>
       <c r="AH65" s="60">
-        <v>7.5079479999999998</v>
+        <v>7.5254079999999997</v>
       </c>
       <c r="AI65" s="60">
-        <v>4.7140810000000002</v>
+        <v>4.7269819999999996</v>
       </c>
       <c r="AJ65" s="60">
-        <v>5.8161569999999996</v>
+        <v>5.8307200000000003</v>
       </c>
       <c r="AK65" s="60">
-        <v>5.136037</v>
+        <v>5.1443770000000004</v>
       </c>
       <c r="AL65" s="60">
-        <v>4.3516199999999996</v>
+        <v>4.9655670000000001</v>
       </c>
       <c r="AM65" s="60">
-        <v>4.4833809999999996</v>
+        <v>4.6049990000000003</v>
       </c>
       <c r="AN65" s="60">
-        <v>4.7786249999999999</v>
+        <v>4.7544240000000002</v>
       </c>
       <c r="AO65" s="60">
-        <v>4.7362089999999997</v>
+        <v>4.6901929999999998</v>
       </c>
       <c r="AP65" s="60">
-        <v>4.6230120000000001</v>
+        <v>4.6009869999999999</v>
       </c>
       <c r="AQ65" s="60">
-        <v>4.4645510000000002</v>
+        <v>4.4478730000000004</v>
       </c>
       <c r="AR65" s="61">
-        <v>4.6170780000000002</v>
+        <v>4.6196440000000001</v>
       </c>
     </row>
-    <row r="66" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
         <v>163</v>
       </c>
       <c r="C66" s="63">
-        <v>3.2066180000000002</v>
+        <v>3.208647</v>
       </c>
       <c r="D66" s="64">
-        <v>2.4198019999999998</v>
+        <v>2.4181360000000001</v>
       </c>
       <c r="E66" s="64">
-        <v>3.0465610000000001</v>
+        <v>3.043968</v>
       </c>
       <c r="F66" s="64">
-        <v>1.9131929999999999</v>
+        <v>1.9097850000000001</v>
       </c>
       <c r="G66" s="64">
-        <v>3.1222460000000001</v>
+        <v>3.117048</v>
       </c>
       <c r="H66" s="64">
-        <v>3.2783479999999998</v>
+        <v>3.2754560000000001</v>
       </c>
       <c r="I66" s="64">
-        <v>3.8547959999999999</v>
+        <v>3.8570980000000001</v>
       </c>
       <c r="J66" s="64">
-        <v>3.999206</v>
+        <v>3.9961259999999998</v>
       </c>
       <c r="K66" s="64">
-        <v>2.6642830000000002</v>
+        <v>2.6634600000000002</v>
       </c>
       <c r="L66" s="64">
-        <v>3.5603889999999998</v>
+        <v>3.5523850000000001</v>
       </c>
       <c r="M66" s="64">
-        <v>4.762092</v>
+        <v>4.7625979999999997</v>
       </c>
       <c r="N66" s="64">
-        <v>2.5180829999999998</v>
+        <v>2.5256850000000002</v>
       </c>
       <c r="O66" s="64">
-        <v>2.7883460000000002</v>
+        <v>2.8124929999999999</v>
       </c>
       <c r="P66" s="64">
-        <v>3.7988900000000001</v>
+        <v>3.8098999999999998</v>
       </c>
       <c r="Q66" s="64">
-        <v>5.2287549999999996</v>
+        <v>5.2401220000000004</v>
       </c>
       <c r="R66" s="64">
-        <v>4.6978169999999997</v>
+        <v>4.7024679999999996</v>
       </c>
       <c r="S66" s="64">
-        <v>5.2751080000000004</v>
+        <v>5.277425</v>
       </c>
       <c r="T66" s="64">
-        <v>5.3214230000000002</v>
+        <v>5.3257440000000003</v>
       </c>
       <c r="U66" s="64">
-        <v>2.945112</v>
+        <v>2.9515720000000001</v>
       </c>
       <c r="V66" s="64">
-        <v>-0.33799099999999999</v>
+        <v>-0.31296800000000002</v>
       </c>
       <c r="W66" s="64">
-        <v>5.1598660000000001</v>
+        <v>5.1943130000000002</v>
       </c>
       <c r="X66" s="64">
-        <v>4.0429570000000004</v>
+        <v>4.0975619999999999</v>
       </c>
       <c r="Y66" s="64">
-        <v>3.367197</v>
+        <v>3.3907579999999999</v>
       </c>
       <c r="Z66" s="64">
-        <v>3.3718720000000002</v>
+        <v>3.393472</v>
       </c>
       <c r="AA66" s="64">
-        <v>3.540972</v>
+        <v>3.5525699999999998</v>
       </c>
       <c r="AB66" s="64">
-        <v>3.4812289999999999</v>
+        <v>3.4748049999999999</v>
       </c>
       <c r="AC66" s="64">
-        <v>3.280465</v>
+        <v>3.240065</v>
       </c>
       <c r="AD66" s="64">
-        <v>3.844303</v>
+        <v>3.8403909999999999</v>
       </c>
       <c r="AE66" s="64">
-        <v>3.66784</v>
+        <v>3.6529829999999999</v>
       </c>
       <c r="AF66" s="64">
-        <v>2.965519</v>
+        <v>2.9867979999999998</v>
       </c>
       <c r="AG66" s="64">
-        <v>-2.69868</v>
+        <v>-2.7408839999999999</v>
       </c>
       <c r="AH66" s="64">
-        <v>6.6025090000000004</v>
+        <v>6.6156740000000003</v>
       </c>
       <c r="AI66" s="64">
-        <v>3.6830669999999999</v>
+        <v>3.7899069999999999</v>
       </c>
       <c r="AJ66" s="64">
-        <v>3.4896240000000001</v>
+        <v>3.510453</v>
       </c>
       <c r="AK66" s="64">
-        <v>3.2876569999999998</v>
+        <v>3.3247019999999998</v>
       </c>
       <c r="AL66" s="64">
-        <v>2.7894130000000001</v>
+        <v>3.1617679999999999</v>
       </c>
       <c r="AM66" s="64">
-        <v>2.9733619999999998</v>
+        <v>3.1038960000000002</v>
       </c>
       <c r="AN66" s="64">
-        <v>3.2311740000000002</v>
+        <v>3.2459349999999998</v>
       </c>
       <c r="AO66" s="64">
-        <v>3.2339009999999999</v>
+        <v>3.2268569999999999</v>
       </c>
       <c r="AP66" s="64">
-        <v>3.1969479999999999</v>
+        <v>3.1665160000000001</v>
       </c>
       <c r="AQ66" s="64">
-        <v>3.1392890000000002</v>
+        <v>3.0839400000000001</v>
       </c>
       <c r="AR66" s="65">
-        <v>3.1548889999999998</v>
+        <v>3.1654089999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="59">
-        <v>2.3364029999999998</v>
+        <v>2.3357039999999998</v>
       </c>
       <c r="D67" s="60">
-        <v>3.711738</v>
+        <v>3.711916</v>
       </c>
       <c r="E67" s="60">
-        <v>-0.35151700000000002</v>
+        <v>-0.35185699999999998</v>
       </c>
       <c r="F67" s="60">
-        <v>0.95864799999999994</v>
+        <v>0.95843999999999996</v>
       </c>
       <c r="G67" s="60">
-        <v>2.6292110000000002</v>
+        <v>2.6292330000000002</v>
       </c>
       <c r="H67" s="60">
-        <v>2.5806040000000001</v>
+        <v>2.5803799999999999</v>
       </c>
       <c r="I67" s="60">
-        <v>4.7758139999999996</v>
+        <v>4.775906</v>
       </c>
       <c r="J67" s="60">
-        <v>3.7443309999999999</v>
+        <v>3.7443949999999999</v>
       </c>
       <c r="K67" s="60">
-        <v>4.9213259999999996</v>
+        <v>4.9215489999999997</v>
       </c>
       <c r="L67" s="60">
-        <v>4.2703579999999999</v>
+        <v>4.1858550000000001</v>
       </c>
       <c r="M67" s="60">
-        <v>4.3436769999999996</v>
+        <v>4.2198260000000003</v>
       </c>
       <c r="N67" s="60">
-        <v>4.2932670000000002</v>
+        <v>4.2278820000000001</v>
       </c>
       <c r="O67" s="60">
-        <v>2.0329980000000001</v>
+        <v>1.9106320000000001</v>
       </c>
       <c r="P67" s="60">
-        <v>4.5133840000000003</v>
+        <v>4.3038150000000002</v>
       </c>
       <c r="Q67" s="60">
-        <v>4.874358</v>
+        <v>4.7736200000000002</v>
       </c>
       <c r="R67" s="60">
-        <v>5.7359010000000001</v>
+        <v>5.631475</v>
       </c>
       <c r="S67" s="60">
-        <v>5.9273569999999998</v>
+        <v>5.8587030000000002</v>
       </c>
       <c r="T67" s="60">
-        <v>6.9134159999999998</v>
+        <v>6.8460989999999997</v>
       </c>
       <c r="U67" s="60">
-        <v>5.3885430000000003</v>
+        <v>5.2757079999999998</v>
       </c>
       <c r="V67" s="60">
-        <v>3.2560750000000001</v>
+        <v>3.2786909999999998</v>
       </c>
       <c r="W67" s="60">
-        <v>5.8997089999999996</v>
+        <v>5.9863289999999996</v>
       </c>
       <c r="X67" s="60">
-        <v>0.74467000000000005</v>
+        <v>0.84040899999999996</v>
       </c>
       <c r="Y67" s="60">
-        <v>8.3168019999999991</v>
+        <v>8.3821410000000007</v>
       </c>
       <c r="Z67" s="60">
-        <v>2.726575</v>
+        <v>2.7213539999999998</v>
       </c>
       <c r="AA67" s="60">
-        <v>3.1631179999999999</v>
+        <v>3.1594890000000002</v>
       </c>
       <c r="AB67" s="60">
-        <v>4.581499</v>
+        <v>4.5601979999999998</v>
       </c>
       <c r="AC67" s="60">
-        <v>3.8043330000000002</v>
+        <v>3.796621</v>
       </c>
       <c r="AD67" s="60">
-        <v>5.7931419999999996</v>
+        <v>5.7863480000000003</v>
       </c>
       <c r="AE67" s="60">
-        <v>4.8962640000000004</v>
+        <v>4.8893529999999998</v>
       </c>
       <c r="AF67" s="60">
-        <v>4.1532739999999997</v>
+        <v>4.0720830000000001</v>
       </c>
       <c r="AG67" s="60">
-        <v>0.61313799999999996</v>
+        <v>0.539605</v>
       </c>
       <c r="AH67" s="60">
-        <v>4.8456409999999996</v>
+        <v>4.8468590000000003</v>
       </c>
       <c r="AI67" s="60">
-        <v>5.4398840000000002</v>
+        <v>5.4550130000000001</v>
       </c>
       <c r="AJ67" s="60">
-        <v>3.739716</v>
+        <v>3.7774369999999999</v>
       </c>
       <c r="AK67" s="60">
-        <v>2.8748559999999999</v>
+        <v>2.9558089999999999</v>
       </c>
       <c r="AL67" s="60">
-        <v>4.6013159999999997</v>
+        <v>5.050198</v>
       </c>
       <c r="AM67" s="60">
-        <v>4.927054</v>
+        <v>5.0500449999999999</v>
       </c>
       <c r="AN67" s="60">
-        <v>5.434526</v>
+        <v>5.3705889999999998</v>
       </c>
       <c r="AO67" s="60">
-        <v>5.326765</v>
+        <v>5.2688569999999997</v>
       </c>
       <c r="AP67" s="60">
-        <v>5.3203779999999998</v>
+        <v>5.2347809999999999</v>
       </c>
       <c r="AQ67" s="60">
-        <v>5.3495670000000004</v>
+        <v>5.276643</v>
       </c>
       <c r="AR67" s="61">
-        <v>5.271509</v>
+        <v>5.2401299999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
         <v>165</v>
       </c>
       <c r="C68" s="59">
-        <v>2.812252</v>
+        <v>2.812319</v>
       </c>
       <c r="D68" s="60">
-        <v>4.1974650000000002</v>
+        <v>3.8028140000000001</v>
       </c>
       <c r="E68" s="60">
-        <v>0.66676999999999997</v>
+        <v>0.79444400000000004</v>
       </c>
       <c r="F68" s="60">
-        <v>1.2188749999999999</v>
+        <v>1.2482439999999999</v>
       </c>
       <c r="G68" s="60">
-        <v>3.5582419999999999</v>
+        <v>3.289237</v>
       </c>
       <c r="H68" s="60">
-        <v>1.585699</v>
+        <v>1.6098619999999999</v>
       </c>
       <c r="I68" s="60">
-        <v>5.2436749999999996</v>
+        <v>5.1444489999999998</v>
       </c>
       <c r="J68" s="60">
-        <v>3.6029610000000001</v>
+        <v>3.5448740000000001</v>
       </c>
       <c r="K68" s="60">
-        <v>5.3075710000000003</v>
+        <v>5.0840589999999999</v>
       </c>
       <c r="L68" s="60">
-        <v>3.4134169999999999</v>
+        <v>3.189711</v>
       </c>
       <c r="M68" s="60">
-        <v>4.3614670000000002</v>
+        <v>4.4508840000000003</v>
       </c>
       <c r="N68" s="60">
-        <v>5.2513550000000002</v>
+        <v>5.3631209999999996</v>
       </c>
       <c r="O68" s="60">
-        <v>5.5342180000000001</v>
+        <v>6.3106739999999997</v>
       </c>
       <c r="P68" s="60">
-        <v>6.3007330000000001</v>
+        <v>6.5816889999999999</v>
       </c>
       <c r="Q68" s="60">
-        <v>6.1958000000000002</v>
+        <v>6.5832269999999999</v>
       </c>
       <c r="R68" s="60">
-        <v>5.4918240000000003</v>
+        <v>5.6238200000000003</v>
       </c>
       <c r="S68" s="60">
-        <v>5.9358649999999997</v>
+        <v>6.0098250000000002</v>
       </c>
       <c r="T68" s="60">
-        <v>6.0201719999999996</v>
+        <v>6.1425919999999996</v>
       </c>
       <c r="U68" s="60">
-        <v>5.8657719999999998</v>
+        <v>5.9929459999999999</v>
       </c>
       <c r="V68" s="60">
-        <v>4.2923410000000004</v>
+        <v>4.6944489999999996</v>
       </c>
       <c r="W68" s="60">
-        <v>6.7057399999999996</v>
+        <v>7.1732069999999997</v>
       </c>
       <c r="X68" s="60">
-        <v>1.601572</v>
+        <v>1.9545570000000001</v>
       </c>
       <c r="Y68" s="60">
-        <v>6.9050149999999997</v>
+        <v>6.6241950000000003</v>
       </c>
       <c r="Z68" s="60">
-        <v>3.4853679999999998</v>
+        <v>3.6907770000000002</v>
       </c>
       <c r="AA68" s="60">
-        <v>3.6741950000000001</v>
+        <v>3.9690699999999999</v>
       </c>
       <c r="AB68" s="60">
-        <v>3.5872060000000001</v>
+        <v>3.482758</v>
       </c>
       <c r="AC68" s="60">
-        <v>2.0767899999999999</v>
+        <v>1.6873020000000001</v>
       </c>
       <c r="AD68" s="60">
-        <v>4.4498220000000002</v>
+        <v>4.0685500000000001</v>
       </c>
       <c r="AE68" s="60">
-        <v>3.8736609999999998</v>
+        <v>3.6706889999999999</v>
       </c>
       <c r="AF68" s="60">
-        <v>3.5067659999999998</v>
+        <v>3.3834379999999999</v>
       </c>
       <c r="AG68" s="60">
-        <v>-0.382322</v>
+        <v>-2.0384419999999999</v>
       </c>
       <c r="AH68" s="60">
-        <v>4.5190109999999999</v>
+        <v>3.6099199999999998</v>
       </c>
       <c r="AI68" s="60">
-        <v>4.3541590000000001</v>
+        <v>4.6278040000000003</v>
       </c>
       <c r="AJ68" s="60">
-        <v>3.02</v>
+        <v>3.190312</v>
       </c>
       <c r="AK68" s="60">
-        <v>2.7696800000000001</v>
+        <v>3.179948</v>
       </c>
       <c r="AL68" s="60">
-        <v>4.0422960000000003</v>
+        <v>4.4858390000000004</v>
       </c>
       <c r="AM68" s="60">
-        <v>4.110614</v>
+        <v>4.6021789999999996</v>
       </c>
       <c r="AN68" s="60">
-        <v>4.5175660000000004</v>
+        <v>4.6644649999999999</v>
       </c>
       <c r="AO68" s="60">
-        <v>4.5536320000000003</v>
+        <v>4.6478429999999999</v>
       </c>
       <c r="AP68" s="60">
-        <v>4.6668219999999998</v>
+        <v>4.6886460000000003</v>
       </c>
       <c r="AQ68" s="60">
-        <v>4.674455</v>
+        <v>4.687449</v>
       </c>
       <c r="AR68" s="61">
-        <v>4.5044139999999997</v>
+        <v>4.658112</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
         <v>166</v>
@@ -10661,331 +10661,331 @@
         <v>6.6688689999999999</v>
       </c>
       <c r="Y69" s="60">
-        <v>4.6755310000000003</v>
+        <v>4.7165049999999997</v>
       </c>
       <c r="Z69" s="60">
-        <v>5.770753</v>
+        <v>5.7514580000000004</v>
       </c>
       <c r="AA69" s="60">
-        <v>5.9108770000000002</v>
+        <v>5.914625</v>
       </c>
       <c r="AB69" s="60">
-        <v>5.9428970000000003</v>
+        <v>5.9479009999999999</v>
       </c>
       <c r="AC69" s="60">
-        <v>3.4290379999999998</v>
+        <v>3.4404119999999998</v>
       </c>
       <c r="AD69" s="60">
-        <v>4.8643349999999996</v>
+        <v>4.8708470000000004</v>
       </c>
       <c r="AE69" s="60">
-        <v>5.8273809999999999</v>
+        <v>5.8244879999999997</v>
       </c>
       <c r="AF69" s="60">
         <v>5.9711350000000003</v>
       </c>
       <c r="AG69" s="60">
-        <v>0.95702699999999996</v>
+        <v>0.96213300000000002</v>
       </c>
       <c r="AH69" s="60">
-        <v>5.6682990000000002</v>
+        <v>5.640917</v>
       </c>
       <c r="AI69" s="60">
-        <v>5.6984709999999996</v>
+        <v>5.7236440000000002</v>
       </c>
       <c r="AJ69" s="60">
-        <v>5.8761349999999997</v>
+        <v>5.9781050000000002</v>
       </c>
       <c r="AK69" s="60">
-        <v>5.2235870000000002</v>
+        <v>5.3162649999999996</v>
       </c>
       <c r="AL69" s="60">
-        <v>5.2941380000000002</v>
+        <v>5.8020389999999997</v>
       </c>
       <c r="AM69" s="60">
-        <v>6.7369260000000004</v>
+        <v>6.1196700000000002</v>
       </c>
       <c r="AN69" s="60">
-        <v>6.0879149999999997</v>
+        <v>6.1056920000000003</v>
       </c>
       <c r="AO69" s="60">
-        <v>5.8678929999999996</v>
+        <v>5.855054</v>
       </c>
       <c r="AP69" s="60">
-        <v>5.7752990000000004</v>
+        <v>5.7416119999999999</v>
       </c>
       <c r="AQ69" s="60">
-        <v>5.5967929999999999</v>
+        <v>5.6498710000000001</v>
       </c>
       <c r="AR69" s="61">
-        <v>6.0122309999999999</v>
+        <v>5.8942100000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
         <v>167</v>
       </c>
       <c r="C70" s="59">
-        <v>-3.2736399999999999</v>
+        <v>-3.2682180000000001</v>
       </c>
       <c r="D70" s="60">
-        <v>0.56861499999999998</v>
+        <v>0.56702799999999998</v>
       </c>
       <c r="E70" s="60">
-        <v>-0.39819300000000002</v>
+        <v>-0.40323999999999999</v>
       </c>
       <c r="F70" s="60">
-        <v>-1.064578</v>
+        <v>-1.0647279999999999</v>
       </c>
       <c r="G70" s="60">
-        <v>1.254024</v>
+        <v>1.268305</v>
       </c>
       <c r="H70" s="60">
-        <v>5.6239249999999998</v>
+        <v>5.620889</v>
       </c>
       <c r="I70" s="60">
-        <v>5.079434</v>
+        <v>5.0669940000000002</v>
       </c>
       <c r="J70" s="60">
-        <v>4.8554349999999999</v>
+        <v>4.8545990000000003</v>
       </c>
       <c r="K70" s="60">
-        <v>3.866962</v>
+        <v>3.866377</v>
       </c>
       <c r="L70" s="60">
-        <v>0.43650099999999997</v>
+        <v>0.43929200000000002</v>
       </c>
       <c r="M70" s="60">
-        <v>5.052867</v>
+        <v>5.0436550000000002</v>
       </c>
       <c r="N70" s="60">
-        <v>5.7184100000000004</v>
+        <v>5.7151540000000001</v>
       </c>
       <c r="O70" s="60">
-        <v>8.4149139999999996</v>
+        <v>8.4086610000000004</v>
       </c>
       <c r="P70" s="60">
-        <v>5.091469</v>
+        <v>5.084708</v>
       </c>
       <c r="Q70" s="60">
-        <v>11.204566</v>
+        <v>11.195156000000001</v>
       </c>
       <c r="R70" s="60">
-        <v>9.2171760000000003</v>
+        <v>9.1580519999999996</v>
       </c>
       <c r="S70" s="60">
-        <v>7.0626410000000002</v>
+        <v>7.0644479999999996</v>
       </c>
       <c r="T70" s="60">
-        <v>9.0176870000000005</v>
+        <v>9.0161250000000006</v>
       </c>
       <c r="U70" s="60">
-        <v>8.2341350000000002</v>
+        <v>8.2324169999999999</v>
       </c>
       <c r="V70" s="60">
-        <v>2.145044</v>
+        <v>2.1469740000000002</v>
       </c>
       <c r="W70" s="60">
-        <v>5.1721690000000002</v>
+        <v>5.1678709999999999</v>
       </c>
       <c r="X70" s="60">
-        <v>4.6620879999999998</v>
+        <v>4.66181</v>
       </c>
       <c r="Y70" s="60">
-        <v>7.7910019999999998</v>
+        <v>7.779439</v>
       </c>
       <c r="Z70" s="60">
-        <v>4.3087850000000003</v>
+        <v>4.2995539999999997</v>
       </c>
       <c r="AA70" s="60">
-        <v>4.8733190000000004</v>
+        <v>4.8871149999999997</v>
       </c>
       <c r="AB70" s="60">
-        <v>2.1183179999999999</v>
+        <v>2.1091609999999998</v>
       </c>
       <c r="AC70" s="60">
-        <v>-0.51299600000000001</v>
+        <v>-0.482659</v>
       </c>
       <c r="AD70" s="60">
-        <v>0.70221900000000004</v>
+        <v>0.67887699999999995</v>
       </c>
       <c r="AE70" s="60">
-        <v>1.5240450000000001</v>
+        <v>1.489001</v>
       </c>
       <c r="AF70" s="60">
-        <v>1.999509</v>
+        <v>2.0360490000000002</v>
       </c>
       <c r="AG70" s="60">
-        <v>-1.9226049999999999</v>
+        <v>-1.868968</v>
       </c>
       <c r="AH70" s="60">
-        <v>2.3837489999999999</v>
+        <v>2.4624350000000002</v>
       </c>
       <c r="AI70" s="60">
-        <v>4.9337819999999999</v>
+        <v>4.9982680000000004</v>
       </c>
       <c r="AJ70" s="60">
-        <v>3.2292709999999998</v>
+        <v>3.4199510000000002</v>
       </c>
       <c r="AK70" s="60">
-        <v>4.5096809999999996</v>
+        <v>4.5447740000000003</v>
       </c>
       <c r="AL70" s="60">
-        <v>3.1014059999999999</v>
+        <v>3.2804380000000002</v>
       </c>
       <c r="AM70" s="60">
-        <v>3.4018760000000001</v>
+        <v>3.4920019999999998</v>
       </c>
       <c r="AN70" s="60">
-        <v>3.7048649999999999</v>
+        <v>3.771153</v>
       </c>
       <c r="AO70" s="60">
-        <v>3.9899689999999999</v>
+        <v>3.9906459999999999</v>
       </c>
       <c r="AP70" s="60">
-        <v>4.0029620000000001</v>
+        <v>4.0795839999999997</v>
       </c>
       <c r="AQ70" s="60">
-        <v>4.0228570000000001</v>
+        <v>4.1533769999999999</v>
       </c>
       <c r="AR70" s="61">
-        <v>3.8242240000000001</v>
+        <v>3.8970750000000001</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
         <v>168</v>
       </c>
       <c r="C71" s="59">
-        <v>2.0623629999999999</v>
+        <v>2.0647229999999999</v>
       </c>
       <c r="D71" s="60">
-        <v>0.57434200000000002</v>
+        <v>0.35733300000000001</v>
       </c>
       <c r="E71" s="60">
-        <v>1.597413</v>
+        <v>1.7132320000000001</v>
       </c>
       <c r="F71" s="60">
-        <v>1.662209</v>
+        <v>1.6446019999999999</v>
       </c>
       <c r="G71" s="60">
-        <v>1.1002240000000001</v>
+        <v>0.93772100000000003</v>
       </c>
       <c r="H71" s="60">
-        <v>3.1050800000000001</v>
+        <v>2.8699530000000002</v>
       </c>
       <c r="I71" s="60">
-        <v>4.191192</v>
+        <v>4.1646099999999997</v>
       </c>
       <c r="J71" s="60">
-        <v>3.5555020000000002</v>
+        <v>3.4283899999999998</v>
       </c>
       <c r="K71" s="60">
-        <v>3.3825069999999999</v>
+        <v>3.2149329999999998</v>
       </c>
       <c r="L71" s="60">
-        <v>1.8992260000000001</v>
+        <v>1.6419299999999999</v>
       </c>
       <c r="M71" s="60">
-        <v>3.7725930000000001</v>
+        <v>4.104088</v>
       </c>
       <c r="N71" s="60">
-        <v>5.7554600000000002</v>
+        <v>5.9284460000000001</v>
       </c>
       <c r="O71" s="60">
-        <v>10.000064</v>
+        <v>10.905627000000001</v>
       </c>
       <c r="P71" s="60">
-        <v>7.1519209999999998</v>
+        <v>7.623024</v>
       </c>
       <c r="Q71" s="60">
-        <v>7.8170729999999997</v>
+        <v>8.3539580000000004</v>
       </c>
       <c r="R71" s="60">
-        <v>6.0339239999999998</v>
+        <v>6.2344270000000002</v>
       </c>
       <c r="S71" s="60">
-        <v>5.7336010000000002</v>
+        <v>5.9396500000000003</v>
       </c>
       <c r="T71" s="60">
-        <v>6.0770590000000002</v>
+        <v>6.3374470000000001</v>
       </c>
       <c r="U71" s="60">
-        <v>6.5858860000000004</v>
+        <v>6.7150150000000002</v>
       </c>
       <c r="V71" s="60">
-        <v>6.7397749999999998</v>
+        <v>7.0836819999999996</v>
       </c>
       <c r="W71" s="60">
-        <v>9.3614359999999994</v>
+        <v>9.7714739999999995</v>
       </c>
       <c r="X71" s="60">
-        <v>4.9646049999999997</v>
+        <v>4.9476870000000002</v>
       </c>
       <c r="Y71" s="60">
-        <v>5.1971600000000002</v>
+        <v>4.9996169999999998</v>
       </c>
       <c r="Z71" s="60">
-        <v>5.7388719999999998</v>
+        <v>5.6650749999999999</v>
       </c>
       <c r="AA71" s="60">
-        <v>5.9181710000000001</v>
+        <v>6.0025219999999999</v>
       </c>
       <c r="AB71" s="60">
-        <v>3.265164</v>
+        <v>3.1337199999999998</v>
       </c>
       <c r="AC71" s="60">
-        <v>0.83172000000000001</v>
+        <v>0.31662099999999999</v>
       </c>
       <c r="AD71" s="60">
-        <v>3.0276619999999999</v>
+        <v>2.5671569999999999</v>
       </c>
       <c r="AE71" s="60">
-        <v>3.3029519999999999</v>
+        <v>3.0183620000000002</v>
       </c>
       <c r="AF71" s="60">
-        <v>3.6187209999999999</v>
+        <v>3.3377140000000001</v>
       </c>
       <c r="AG71" s="60">
-        <v>-0.69940100000000005</v>
+        <v>-4.0798810000000003</v>
       </c>
       <c r="AH71" s="60">
-        <v>4.4570480000000003</v>
+        <v>2.5783230000000001</v>
       </c>
       <c r="AI71" s="60">
-        <v>3.9672149999999999</v>
+        <v>4.5534179999999997</v>
       </c>
       <c r="AJ71" s="60">
-        <v>3.5899380000000001</v>
+        <v>3.766794</v>
       </c>
       <c r="AK71" s="60">
-        <v>4.4469539999999999</v>
+        <v>4.7054520000000002</v>
       </c>
       <c r="AL71" s="60">
-        <v>4.1231790000000004</v>
+        <v>4.4381269999999997</v>
       </c>
       <c r="AM71" s="60">
-        <v>3.997881</v>
+        <v>4.7343989999999998</v>
       </c>
       <c r="AN71" s="60">
-        <v>4.2250880000000004</v>
+        <v>4.6055200000000003</v>
       </c>
       <c r="AO71" s="60">
-        <v>4.3872770000000001</v>
+        <v>4.6113059999999999</v>
       </c>
       <c r="AP71" s="60">
-        <v>4.6055590000000004</v>
+        <v>4.6884059999999996</v>
       </c>
       <c r="AQ71" s="60">
-        <v>4.5232210000000004</v>
+        <v>4.6076930000000003</v>
       </c>
       <c r="AR71" s="61">
-        <v>4.3475789999999996</v>
+        <v>4.649451</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
         <v>169</v>
@@ -11057,463 +11057,463 @@
         <v>4.0369419999999998</v>
       </c>
       <c r="Y72" s="60">
-        <v>-1.236613</v>
+        <v>-1.2082379999999999</v>
       </c>
       <c r="Z72" s="60">
-        <v>5.1532650000000002</v>
+        <v>5.1377689999999996</v>
       </c>
       <c r="AA72" s="60">
-        <v>6.3292710000000003</v>
+        <v>6.3324660000000002</v>
       </c>
       <c r="AB72" s="60">
-        <v>6.8021450000000003</v>
+        <v>6.806546</v>
       </c>
       <c r="AC72" s="60">
-        <v>4.6568230000000002</v>
+        <v>4.666137</v>
       </c>
       <c r="AD72" s="60">
-        <v>5.4817920000000004</v>
+        <v>5.4870219999999996</v>
       </c>
       <c r="AE72" s="60">
-        <v>4.1219789999999996</v>
+        <v>4.1202220000000001</v>
       </c>
       <c r="AF72" s="60">
         <v>4.8890289999999998</v>
       </c>
       <c r="AG72" s="60">
-        <v>0.79183000000000003</v>
+        <v>0.79181699999999999</v>
       </c>
       <c r="AH72" s="60">
-        <v>5.4187820000000002</v>
+        <v>5.4186889999999996</v>
       </c>
       <c r="AI72" s="60">
-        <v>4.1147559999999999</v>
+        <v>4.1147970000000003</v>
       </c>
       <c r="AJ72" s="60">
-        <v>2.4924080000000002</v>
+        <v>2.553331</v>
       </c>
       <c r="AK72" s="60">
-        <v>3.0320209999999999</v>
+        <v>3.1133920000000002</v>
       </c>
       <c r="AL72" s="60">
-        <v>5.121804</v>
+        <v>6.0298850000000002</v>
       </c>
       <c r="AM72" s="60">
-        <v>7.3663470000000002</v>
+        <v>6.816738</v>
       </c>
       <c r="AN72" s="60">
-        <v>7.6382680000000001</v>
+        <v>7.5850730000000004</v>
       </c>
       <c r="AO72" s="60">
-        <v>6.7590389999999996</v>
+        <v>6.9101689999999998</v>
       </c>
       <c r="AP72" s="60">
-        <v>6.3846270000000001</v>
+        <v>6.4332510000000003</v>
       </c>
       <c r="AQ72" s="60">
-        <v>6.1114819999999996</v>
+        <v>6.1856939999999998</v>
       </c>
       <c r="AR72" s="61">
-        <v>6.8504009999999997</v>
+        <v>6.7851189999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
         <v>170</v>
       </c>
       <c r="C73" s="59">
-        <v>-0.14574899999999999</v>
+        <v>-0.147035</v>
       </c>
       <c r="D73" s="60">
-        <v>-0.25618999999999997</v>
+        <v>-0.25645200000000001</v>
       </c>
       <c r="E73" s="60">
-        <v>-1.1087020000000001</v>
+        <v>-1.109289</v>
       </c>
       <c r="F73" s="60">
-        <v>1.2727390000000001</v>
+        <v>1.272486</v>
       </c>
       <c r="G73" s="60">
-        <v>2.354101</v>
+        <v>2.3540939999999999</v>
       </c>
       <c r="H73" s="60">
-        <v>4.0562610000000001</v>
+        <v>4.0561530000000001</v>
       </c>
       <c r="I73" s="60">
-        <v>4.7072219999999998</v>
+        <v>4.7073419999999997</v>
       </c>
       <c r="J73" s="60">
-        <v>2.9997850000000001</v>
+        <v>2.9997699999999998</v>
       </c>
       <c r="K73" s="60">
-        <v>1.235277</v>
+        <v>1.2350840000000001</v>
       </c>
       <c r="L73" s="60">
-        <v>2.430825</v>
+        <v>2.3498929999999998</v>
       </c>
       <c r="M73" s="60">
-        <v>3.096533</v>
+        <v>2.9408850000000002</v>
       </c>
       <c r="N73" s="60">
-        <v>2.8942109999999999</v>
+        <v>2.825485</v>
       </c>
       <c r="O73" s="60">
-        <v>4.2131959999999999</v>
+        <v>3.9947319999999999</v>
       </c>
       <c r="P73" s="60">
-        <v>3.2109670000000001</v>
+        <v>2.9201549999999998</v>
       </c>
       <c r="Q73" s="60">
-        <v>5.426132</v>
+        <v>5.2703990000000003</v>
       </c>
       <c r="R73" s="60">
-        <v>6.3227209999999996</v>
+        <v>6.1627729999999996</v>
       </c>
       <c r="S73" s="60">
-        <v>6.1987480000000001</v>
+        <v>6.0954110000000004</v>
       </c>
       <c r="T73" s="60">
-        <v>6.7447429999999997</v>
+        <v>6.647564</v>
       </c>
       <c r="U73" s="60">
-        <v>4.6777369999999996</v>
+        <v>4.5163460000000004</v>
       </c>
       <c r="V73" s="60">
-        <v>0.198828</v>
+        <v>0.25816600000000001</v>
       </c>
       <c r="W73" s="60">
-        <v>4.7743440000000001</v>
+        <v>4.9181290000000004</v>
       </c>
       <c r="X73" s="60">
-        <v>4.3328790000000001</v>
+        <v>4.4352309999999999</v>
       </c>
       <c r="Y73" s="60">
-        <v>4.6286440000000004</v>
+        <v>4.7672720000000002</v>
       </c>
       <c r="Z73" s="60">
-        <v>4.0236150000000004</v>
+        <v>4.0014799999999999</v>
       </c>
       <c r="AA73" s="60">
-        <v>3.273571</v>
+        <v>3.2670870000000001</v>
       </c>
       <c r="AB73" s="60">
-        <v>2.1567180000000001</v>
+        <v>2.1521240000000001</v>
       </c>
       <c r="AC73" s="60">
-        <v>1.3300700000000001</v>
+        <v>1.3462620000000001</v>
       </c>
       <c r="AD73" s="60">
-        <v>2.0248409999999999</v>
+        <v>2.0578439999999998</v>
       </c>
       <c r="AE73" s="60">
-        <v>2.3299110000000001</v>
+        <v>2.3490920000000002</v>
       </c>
       <c r="AF73" s="60">
-        <v>1.306559</v>
+        <v>1.2115400000000001</v>
       </c>
       <c r="AG73" s="60">
-        <v>-4.0057539999999996</v>
+        <v>-4.0560210000000003</v>
       </c>
       <c r="AH73" s="60">
-        <v>4.4753220000000002</v>
+        <v>4.4414049999999996</v>
       </c>
       <c r="AI73" s="60">
-        <v>3.7647499999999998</v>
+        <v>3.8886240000000001</v>
       </c>
       <c r="AJ73" s="60">
-        <v>2.6551290000000001</v>
+        <v>2.8056160000000001</v>
       </c>
       <c r="AK73" s="60">
-        <v>2.674499</v>
+        <v>2.636612</v>
       </c>
       <c r="AL73" s="60">
-        <v>2.767658</v>
+        <v>2.8503129999999999</v>
       </c>
       <c r="AM73" s="60">
-        <v>3.031882</v>
+        <v>2.984693</v>
       </c>
       <c r="AN73" s="60">
-        <v>3.2930290000000002</v>
+        <v>3.2933690000000002</v>
       </c>
       <c r="AO73" s="60">
-        <v>3.411915</v>
+        <v>3.3914620000000002</v>
       </c>
       <c r="AP73" s="60">
-        <v>3.611583</v>
+        <v>3.6046230000000001</v>
       </c>
       <c r="AQ73" s="60">
-        <v>3.6527240000000001</v>
+        <v>3.6956959999999999</v>
       </c>
       <c r="AR73" s="61">
-        <v>3.3999790000000001</v>
+        <v>3.3936660000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
         <v>171</v>
       </c>
       <c r="C74" s="59">
-        <v>2.6523970000000001</v>
+        <v>2.6533280000000001</v>
       </c>
       <c r="D74" s="60">
-        <v>5.7788529999999998</v>
+        <v>5.7820859999999996</v>
       </c>
       <c r="E74" s="60">
-        <v>-9.4659999999999994E-2</v>
+        <v>-9.5459000000000002E-2</v>
       </c>
       <c r="F74" s="60">
-        <v>-2.037115</v>
+        <v>-2.0370840000000001</v>
       </c>
       <c r="G74" s="60">
-        <v>3.0862180000000001</v>
+        <v>3.0880290000000001</v>
       </c>
       <c r="H74" s="60">
-        <v>-2.0183089999999999</v>
+        <v>-2.021153</v>
       </c>
       <c r="I74" s="60">
-        <v>5.90984</v>
+        <v>5.910844</v>
       </c>
       <c r="J74" s="60">
-        <v>0.16749900000000001</v>
+        <v>0.16705100000000001</v>
       </c>
       <c r="K74" s="60">
-        <v>4.6775529999999996</v>
+        <v>4.6773490000000004</v>
       </c>
       <c r="L74" s="60">
-        <v>2.3801019999999999</v>
+        <v>2.379702</v>
       </c>
       <c r="M74" s="60">
-        <v>3.2889309999999998</v>
+        <v>3.288681</v>
       </c>
       <c r="N74" s="60">
-        <v>3.9799820000000001</v>
+        <v>3.9804569999999999</v>
       </c>
       <c r="O74" s="60">
-        <v>2.9489420000000002</v>
+        <v>2.950723</v>
       </c>
       <c r="P74" s="60">
-        <v>7.906256</v>
+        <v>7.9052530000000001</v>
       </c>
       <c r="Q74" s="60">
-        <v>5.0138930000000004</v>
+        <v>4.9996150000000004</v>
       </c>
       <c r="R74" s="60">
-        <v>5.6384970000000001</v>
+        <v>5.6572699999999996</v>
       </c>
       <c r="S74" s="60">
-        <v>4.0761849999999997</v>
+        <v>4.0909820000000003</v>
       </c>
       <c r="T74" s="60">
-        <v>3.9126470000000002</v>
+        <v>3.8964129999999999</v>
       </c>
       <c r="U74" s="60">
-        <v>2.9503870000000001</v>
+        <v>2.9727130000000002</v>
       </c>
       <c r="V74" s="60">
-        <v>1.1821969999999999</v>
+        <v>1.202736</v>
       </c>
       <c r="W74" s="60">
-        <v>4.4248099999999999</v>
+        <v>4.4176390000000003</v>
       </c>
       <c r="X74" s="60">
-        <v>-1.621167</v>
+        <v>-1.6177459999999999</v>
       </c>
       <c r="Y74" s="60">
-        <v>15.158116</v>
+        <v>15.145394</v>
       </c>
       <c r="Z74" s="60">
-        <v>0.62947399999999998</v>
+        <v>0.63058199999999998</v>
       </c>
       <c r="AA74" s="60">
-        <v>1.1072150000000001</v>
+        <v>1.113721</v>
       </c>
       <c r="AB74" s="60">
-        <v>2.896706</v>
+        <v>2.9161220000000001</v>
       </c>
       <c r="AC74" s="60">
-        <v>2.1710750000000001</v>
+        <v>2.1797870000000001</v>
       </c>
       <c r="AD74" s="60">
-        <v>5.9453810000000002</v>
+        <v>5.9335639999999996</v>
       </c>
       <c r="AE74" s="60">
-        <v>2.7707679999999999</v>
+        <v>2.7507299999999999</v>
       </c>
       <c r="AF74" s="60">
-        <v>0.392515</v>
+        <v>0.375919</v>
       </c>
       <c r="AG74" s="60">
-        <v>-7.7203619999999997</v>
+        <v>-7.7114260000000003</v>
       </c>
       <c r="AH74" s="60">
-        <v>6.7692589999999999</v>
+        <v>6.7666180000000002</v>
       </c>
       <c r="AI74" s="60">
-        <v>2.269209</v>
+        <v>2.3237909999999999</v>
       </c>
       <c r="AJ74" s="60">
-        <v>3.9245540000000001</v>
+        <v>4.0136799999999999</v>
       </c>
       <c r="AK74" s="60">
-        <v>2.9413619999999998</v>
+        <v>3.431063</v>
       </c>
       <c r="AL74" s="60">
-        <v>4.4332700000000003</v>
+        <v>4.4625389999999996</v>
       </c>
       <c r="AM74" s="60">
-        <v>3.137324</v>
+        <v>3.2655050000000001</v>
       </c>
       <c r="AN74" s="60">
-        <v>2.8439399999999999</v>
+        <v>2.9626739999999998</v>
       </c>
       <c r="AO74" s="60">
-        <v>2.8677280000000001</v>
+        <v>2.9295040000000001</v>
       </c>
       <c r="AP74" s="60">
-        <v>2.6223800000000002</v>
+        <v>2.771512</v>
       </c>
       <c r="AQ74" s="60">
-        <v>2.5425149999999999</v>
+        <v>2.7186400000000002</v>
       </c>
       <c r="AR74" s="61">
-        <v>2.802565</v>
+        <v>2.929389</v>
       </c>
     </row>
-    <row r="75" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
         <v>172</v>
       </c>
       <c r="C75" s="66">
-        <v>-2.4916670000000001</v>
+        <v>-2.4916659999999999</v>
       </c>
       <c r="D75" s="67">
-        <v>10.970363000000001</v>
+        <v>10.970361</v>
       </c>
       <c r="E75" s="67">
-        <v>8.9530750000000001</v>
+        <v>8.9530729999999998</v>
       </c>
       <c r="F75" s="67">
-        <v>10.573293</v>
+        <v>10.573292</v>
       </c>
       <c r="G75" s="67">
-        <v>9.7759160000000005</v>
+        <v>9.7759149999999995</v>
       </c>
       <c r="H75" s="67">
-        <v>9.3264410000000009</v>
+        <v>9.3264399999999998</v>
       </c>
       <c r="I75" s="67">
-        <v>10.847118</v>
+        <v>10.847117000000001</v>
       </c>
       <c r="J75" s="67">
         <v>7.6637149999999998</v>
       </c>
       <c r="K75" s="67">
-        <v>4.7969819999999999</v>
+        <v>4.796983</v>
       </c>
       <c r="L75" s="67">
-        <v>3.748815</v>
+        <v>3.7488169999999998</v>
       </c>
       <c r="M75" s="67">
-        <v>2.8368869999999999</v>
+        <v>2.8368880000000001</v>
       </c>
       <c r="N75" s="67">
         <v>5.253825</v>
       </c>
       <c r="O75" s="67">
-        <v>12.828497</v>
+        <v>12.828495</v>
       </c>
       <c r="P75" s="67">
-        <v>3.9375300000000002</v>
+        <v>3.9375309999999999</v>
       </c>
       <c r="Q75" s="67">
-        <v>10.737056000000001</v>
+        <v>10.737054000000001</v>
       </c>
       <c r="R75" s="67">
-        <v>13.026160000000001</v>
+        <v>13.026158000000001</v>
       </c>
       <c r="S75" s="67">
-        <v>11.445159</v>
+        <v>11.445157999999999</v>
       </c>
       <c r="T75" s="67">
-        <v>12.325758</v>
+        <v>12.325759</v>
       </c>
       <c r="U75" s="67">
         <v>10.2559</v>
       </c>
       <c r="V75" s="67">
-        <v>2.3536600000000001</v>
+        <v>2.3536589999999999</v>
       </c>
       <c r="W75" s="67">
-        <v>5.3755519999999999</v>
+        <v>5.3755509999999997</v>
       </c>
       <c r="X75" s="67">
         <v>4.0285589999999996</v>
       </c>
       <c r="Y75" s="67">
-        <v>8.2020949999999999</v>
+        <v>8.2020940000000007</v>
       </c>
       <c r="Z75" s="67">
         <v>4.9847789999999996</v>
       </c>
       <c r="AA75" s="67">
-        <v>4.9011509999999996</v>
+        <v>4.9011500000000003</v>
       </c>
       <c r="AB75" s="67">
         <v>1.604017</v>
       </c>
       <c r="AC75" s="67">
-        <v>-0.72320899999999999</v>
+        <v>-0.72320799999999996</v>
       </c>
       <c r="AD75" s="67">
-        <v>0.354099</v>
+        <v>0.35410000000000003</v>
       </c>
       <c r="AE75" s="67">
-        <v>4.8154000000000002E-2</v>
+        <v>4.8181000000000002E-2</v>
       </c>
       <c r="AF75" s="67">
-        <v>0.28021400000000002</v>
+        <v>0.28020400000000001</v>
       </c>
       <c r="AG75" s="67">
-        <v>-3.740936</v>
+        <v>-3.7407249999999999</v>
       </c>
       <c r="AH75" s="67">
-        <v>2.2418269999999998</v>
+        <v>2.2418239999999998</v>
       </c>
       <c r="AI75" s="67">
-        <v>4.3928570000000002</v>
+        <v>4.3711570000000002</v>
       </c>
       <c r="AJ75" s="67">
-        <v>1.680904</v>
+        <v>1.914431</v>
       </c>
       <c r="AK75" s="67">
-        <v>4.170458</v>
+        <v>4.1599199999999996</v>
       </c>
       <c r="AL75" s="67">
-        <v>2.4673500000000002</v>
+        <v>2.2260610000000001</v>
       </c>
       <c r="AM75" s="67">
-        <v>2.3542079999999999</v>
+        <v>2.3516949999999999</v>
       </c>
       <c r="AN75" s="67">
-        <v>2.8280050000000001</v>
+        <v>2.8150599999999999</v>
       </c>
       <c r="AO75" s="67">
-        <v>3.0779359999999998</v>
+        <v>3.0629919999999999</v>
       </c>
       <c r="AP75" s="67">
-        <v>3.9158529999999998</v>
+        <v>3.8997320000000002</v>
       </c>
       <c r="AQ75" s="67">
-        <v>4.3826109999999998</v>
+        <v>4.3654460000000004</v>
       </c>
       <c r="AR75" s="68">
-        <v>3.3090950000000001</v>
+        <v>3.2963879999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
         <v>173</v>
@@ -11522,7 +11522,7 @@
         <v>8.3941429999999997</v>
       </c>
       <c r="D76" s="71">
-        <v>7.2795740000000002</v>
+        <v>7.2795730000000001</v>
       </c>
       <c r="E76" s="71">
         <v>6.812843</v>
@@ -11543,1165 +11543,1165 @@
         <v>3.9933380000000001</v>
       </c>
       <c r="K76" s="71">
-        <v>-7.1483790000000003</v>
+        <v>-7.1483780000000001</v>
       </c>
       <c r="L76" s="71">
-        <v>3.414901</v>
+        <v>3.4148999999999998</v>
       </c>
       <c r="M76" s="71">
-        <v>5.8720679999999996</v>
+        <v>5.9357069999999998</v>
       </c>
       <c r="N76" s="71">
-        <v>3.3574280000000001</v>
+        <v>3.3470080000000002</v>
       </c>
       <c r="O76" s="71">
-        <v>5.1992229999999999</v>
+        <v>5.1992760000000002</v>
       </c>
       <c r="P76" s="71">
-        <v>5.8824059999999996</v>
+        <v>5.8860489999999999</v>
       </c>
       <c r="Q76" s="71">
-        <v>6.5269329999999997</v>
+        <v>6.5212490000000001</v>
       </c>
       <c r="R76" s="71">
-        <v>5.7621840000000004</v>
+        <v>5.7572850000000004</v>
       </c>
       <c r="S76" s="71">
-        <v>6.0544549999999999</v>
+        <v>6.0518049999999999</v>
       </c>
       <c r="T76" s="71">
-        <v>6.635599</v>
+        <v>6.6111680000000002</v>
       </c>
       <c r="U76" s="71">
-        <v>5.0899830000000001</v>
+        <v>5.0791469999999999</v>
       </c>
       <c r="V76" s="71">
-        <v>2.388334</v>
+        <v>2.3876469999999999</v>
       </c>
       <c r="W76" s="71">
-        <v>7.3731010000000001</v>
+        <v>7.3738279999999996</v>
       </c>
       <c r="X76" s="71">
-        <v>4.89452</v>
+        <v>4.8945210000000001</v>
       </c>
       <c r="Y76" s="71">
-        <v>6.1175569999999997</v>
+        <v>6.1175560000000004</v>
       </c>
       <c r="Z76" s="71">
-        <v>5.0922609999999997</v>
+        <v>5.0922619999999998</v>
       </c>
       <c r="AA76" s="71">
         <v>4.7593620000000003</v>
       </c>
       <c r="AB76" s="71">
-        <v>4.9009200000000002</v>
+        <v>4.9009729999999996</v>
       </c>
       <c r="AC76" s="71">
-        <v>5.0987070000000001</v>
+        <v>5.0986599999999997</v>
       </c>
       <c r="AD76" s="71">
-        <v>5.4497270000000002</v>
+        <v>5.449732</v>
       </c>
       <c r="AE76" s="71">
-        <v>5.3246900000000004</v>
+        <v>5.3246840000000004</v>
       </c>
       <c r="AF76" s="71">
-        <v>4.7211239999999997</v>
+        <v>4.72112</v>
       </c>
       <c r="AG76" s="71">
-        <v>-3.5738590000000001</v>
+        <v>-3.5594570000000001</v>
       </c>
       <c r="AH76" s="71">
-        <v>3.3819029999999999</v>
+        <v>3.4358399999999998</v>
       </c>
       <c r="AI76" s="71">
-        <v>5.7992109999999997</v>
+        <v>5.8254080000000004</v>
       </c>
       <c r="AJ76" s="71">
-        <v>4.1188409999999998</v>
+        <v>4.1267449999999997</v>
       </c>
       <c r="AK76" s="71">
-        <v>4.8297650000000001</v>
+        <v>4.849615</v>
       </c>
       <c r="AL76" s="71">
-        <v>4.0629010000000001</v>
+        <v>4.3333620000000002</v>
       </c>
       <c r="AM76" s="71">
-        <v>3.892407</v>
+        <v>4.2623980000000001</v>
       </c>
       <c r="AN76" s="71">
-        <v>4.2804279999999997</v>
+        <v>4.4737130000000001</v>
       </c>
       <c r="AO76" s="71">
-        <v>4.3996089999999999</v>
+        <v>4.4807449999999998</v>
       </c>
       <c r="AP76" s="71">
-        <v>4.5135550000000002</v>
+        <v>4.5269089999999998</v>
       </c>
       <c r="AQ76" s="71">
-        <v>4.5609039999999998</v>
+        <v>4.553744</v>
       </c>
       <c r="AR76" s="72">
-        <v>4.3291060000000003</v>
+        <v>4.4594509999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
         <v>174</v>
       </c>
       <c r="C77" s="59">
-        <v>-1.0502739999999999</v>
+        <v>-1.052494</v>
       </c>
       <c r="D77" s="60">
-        <v>4.1982749999999998</v>
+        <v>4.1971959999999999</v>
       </c>
       <c r="E77" s="60">
-        <v>3.407422</v>
+        <v>3.4053960000000001</v>
       </c>
       <c r="F77" s="60">
-        <v>4.5838150000000004</v>
+        <v>4.5841390000000004</v>
       </c>
       <c r="G77" s="60">
-        <v>4.8482649999999996</v>
+        <v>4.8523160000000001</v>
       </c>
       <c r="H77" s="60">
-        <v>3.521722</v>
+        <v>3.5239220000000002</v>
       </c>
       <c r="I77" s="60">
-        <v>2.7983039999999999</v>
+        <v>2.7982580000000001</v>
       </c>
       <c r="J77" s="60">
-        <v>4.9583640000000004</v>
+        <v>4.958869</v>
       </c>
       <c r="K77" s="60">
-        <v>1.401589</v>
+        <v>1.4009210000000001</v>
       </c>
       <c r="L77" s="60">
-        <v>-1.331745</v>
+        <v>-1.3298019999999999</v>
       </c>
       <c r="M77" s="60">
-        <v>3.021315</v>
+        <v>3.0207579999999998</v>
       </c>
       <c r="N77" s="60">
-        <v>0.75632999999999995</v>
+        <v>0.75632100000000002</v>
       </c>
       <c r="O77" s="60">
-        <v>-2.712E-3</v>
+        <v>4.66E-4</v>
       </c>
       <c r="P77" s="60">
-        <v>2.3513459999999999</v>
+        <v>2.3528509999999998</v>
       </c>
       <c r="Q77" s="60">
-        <v>7.324846</v>
+        <v>7.3230870000000001</v>
       </c>
       <c r="R77" s="60">
-        <v>5.3069839999999999</v>
+        <v>5.3076359999999996</v>
       </c>
       <c r="S77" s="60">
-        <v>5.8169380000000004</v>
+        <v>5.8177519999999996</v>
       </c>
       <c r="T77" s="60">
-        <v>6.8924240000000001</v>
+        <v>6.8941889999999999</v>
       </c>
       <c r="U77" s="60">
-        <v>5.0446809999999997</v>
+        <v>5.0477210000000001</v>
       </c>
       <c r="V77" s="60">
-        <v>-1.052656</v>
+        <v>-1.0504549999999999</v>
       </c>
       <c r="W77" s="60">
-        <v>6.701098</v>
+        <v>6.7019609999999998</v>
       </c>
       <c r="X77" s="60">
-        <v>5.1019940000000004</v>
+        <v>5.1025489999999998</v>
       </c>
       <c r="Y77" s="60">
-        <v>2.727398</v>
+        <v>2.6939150000000001</v>
       </c>
       <c r="Z77" s="60">
-        <v>3.4371209999999999</v>
+        <v>3.4745840000000001</v>
       </c>
       <c r="AA77" s="60">
-        <v>0.58816400000000002</v>
+        <v>0.58940899999999996</v>
       </c>
       <c r="AB77" s="60">
-        <v>-0.85980599999999996</v>
+        <v>-0.85646199999999995</v>
       </c>
       <c r="AC77" s="60">
-        <v>-2.1699570000000001</v>
+        <v>-2.1649820000000002</v>
       </c>
       <c r="AD77" s="60">
-        <v>0.99922100000000003</v>
+        <v>1.000875</v>
       </c>
       <c r="AE77" s="60">
-        <v>0.56223800000000002</v>
+        <v>0.56460100000000002</v>
       </c>
       <c r="AF77" s="60">
-        <v>6.4208000000000001E-2</v>
+        <v>6.2705999999999998E-2</v>
       </c>
       <c r="AG77" s="60">
-        <v>-6.4438659999999999</v>
+        <v>-6.4553789999999998</v>
       </c>
       <c r="AH77" s="60">
-        <v>7.64907</v>
+        <v>7.666029</v>
       </c>
       <c r="AI77" s="60">
-        <v>4.3571900000000001</v>
+        <v>4.4768670000000004</v>
       </c>
       <c r="AJ77" s="60">
-        <v>2.0090089999999998</v>
+        <v>1.959392</v>
       </c>
       <c r="AK77" s="60">
-        <v>2.5454910000000002</v>
+        <v>2.5673439999999998</v>
       </c>
       <c r="AL77" s="60">
-        <v>2.6053169999999999</v>
+        <v>2.829618</v>
       </c>
       <c r="AM77" s="60">
-        <v>2.5832739999999998</v>
+        <v>2.4946929999999998</v>
       </c>
       <c r="AN77" s="60">
-        <v>2.8278569999999998</v>
+        <v>2.8216019999999999</v>
       </c>
       <c r="AO77" s="60">
-        <v>2.8159420000000002</v>
+        <v>2.8503620000000001</v>
       </c>
       <c r="AP77" s="60">
-        <v>2.8145989999999999</v>
+        <v>2.9595910000000001</v>
       </c>
       <c r="AQ77" s="60">
-        <v>2.6082320000000001</v>
+        <v>2.6585800000000002</v>
       </c>
       <c r="AR77" s="61">
-        <v>2.7299220000000002</v>
+        <v>2.756837</v>
       </c>
     </row>
-    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
         <v>175</v>
       </c>
       <c r="C78" s="59">
-        <v>2.748081</v>
+        <v>2.740955</v>
       </c>
       <c r="D78" s="60">
-        <v>1.547069</v>
+        <v>1.5464039999999999</v>
       </c>
       <c r="E78" s="60">
-        <v>1.0349520000000001</v>
+        <v>1.032297</v>
       </c>
       <c r="F78" s="60">
-        <v>-0.58208599999999999</v>
+        <v>-0.59667099999999995</v>
       </c>
       <c r="G78" s="60">
-        <v>2.7190400000000001</v>
+        <v>2.7186880000000002</v>
       </c>
       <c r="H78" s="60">
-        <v>2.906577</v>
+        <v>2.9062790000000001</v>
       </c>
       <c r="I78" s="60">
-        <v>2.1086879999999999</v>
+        <v>2.1093709999999999</v>
       </c>
       <c r="J78" s="60">
-        <v>2.6627480000000001</v>
+        <v>2.6616979999999999</v>
       </c>
       <c r="K78" s="60">
-        <v>2.9392770000000001</v>
+        <v>2.9388040000000002</v>
       </c>
       <c r="L78" s="60">
-        <v>2.9223919999999999</v>
+        <v>2.9222549999999998</v>
       </c>
       <c r="M78" s="60">
-        <v>3.960928</v>
+        <v>3.9607869999999998</v>
       </c>
       <c r="N78" s="60">
-        <v>2.2521969999999998</v>
+        <v>2.252948</v>
       </c>
       <c r="O78" s="60">
-        <v>1.2652680000000001</v>
+        <v>1.2635670000000001</v>
       </c>
       <c r="P78" s="60">
-        <v>1.14866</v>
+        <v>1.149472</v>
       </c>
       <c r="Q78" s="60">
-        <v>2.7577750000000001</v>
+        <v>2.7574670000000001</v>
       </c>
       <c r="R78" s="60">
-        <v>2.1711529999999999</v>
+        <v>2.171602</v>
       </c>
       <c r="S78" s="60">
-        <v>3.7905820000000001</v>
+        <v>3.7893750000000002</v>
       </c>
       <c r="T78" s="60">
-        <v>3.3362440000000002</v>
+        <v>3.3372769999999998</v>
       </c>
       <c r="U78" s="60">
-        <v>0.88342399999999999</v>
+        <v>0.87834299999999998</v>
       </c>
       <c r="V78" s="60">
-        <v>-4.1810919999999996</v>
+        <v>-4.1815540000000002</v>
       </c>
       <c r="W78" s="60">
-        <v>2.0351059999999999</v>
+        <v>2.0339360000000002</v>
       </c>
       <c r="X78" s="60">
-        <v>2.0127389999999998</v>
+        <v>2.0106389999999998</v>
       </c>
       <c r="Y78" s="60">
-        <v>-0.71642099999999997</v>
+        <v>-0.71580600000000005</v>
       </c>
       <c r="Z78" s="60">
-        <v>-2.7798E-2</v>
+        <v>-2.4062E-2</v>
       </c>
       <c r="AA78" s="60">
-        <v>1.742615</v>
+        <v>1.7413909999999999</v>
       </c>
       <c r="AB78" s="60">
-        <v>2.5333920000000001</v>
+        <v>2.535806</v>
       </c>
       <c r="AC78" s="60">
-        <v>1.9922029999999999</v>
+        <v>1.970421</v>
       </c>
       <c r="AD78" s="60">
-        <v>3.019247</v>
+        <v>3.0409280000000001</v>
       </c>
       <c r="AE78" s="60">
-        <v>2.2827869999999999</v>
+        <v>2.2871440000000001</v>
       </c>
       <c r="AF78" s="60">
-        <v>2.0442269999999998</v>
+        <v>2.0420210000000001</v>
       </c>
       <c r="AG78" s="60">
-        <v>-5.5135750000000003</v>
+        <v>-5.5201729999999998</v>
       </c>
       <c r="AH78" s="60">
-        <v>6.4208480000000003</v>
+        <v>6.4360720000000002</v>
       </c>
       <c r="AI78" s="60">
-        <v>3.6681940000000002</v>
+        <v>3.747852</v>
       </c>
       <c r="AJ78" s="60">
-        <v>0.59606000000000003</v>
+        <v>0.55281000000000002</v>
       </c>
       <c r="AK78" s="60">
-        <v>1.1163590000000001</v>
+        <v>1.1470050000000001</v>
       </c>
       <c r="AL78" s="60">
-        <v>1.1562429999999999</v>
+        <v>1.3974949999999999</v>
       </c>
       <c r="AM78" s="60">
-        <v>1.478102</v>
+        <v>1.4100809999999999</v>
       </c>
       <c r="AN78" s="60">
-        <v>1.604589</v>
+        <v>1.584643</v>
       </c>
       <c r="AO78" s="60">
-        <v>1.5630550000000001</v>
+        <v>1.540483</v>
       </c>
       <c r="AP78" s="60">
-        <v>1.489657</v>
+        <v>1.4774590000000001</v>
       </c>
       <c r="AQ78" s="60">
-        <v>1.4336690000000001</v>
+        <v>1.400628</v>
       </c>
       <c r="AR78" s="61">
-        <v>1.5137959999999999</v>
+        <v>1.482634</v>
       </c>
     </row>
-    <row r="79" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
         <v>176</v>
       </c>
       <c r="C79" s="63">
-        <v>3.0547399999999998</v>
+        <v>3.0519379999999998</v>
       </c>
       <c r="D79" s="64">
-        <v>1.445098</v>
+        <v>1.444823</v>
       </c>
       <c r="E79" s="64">
-        <v>2.3030719999999998</v>
+        <v>2.301774</v>
       </c>
       <c r="F79" s="64">
-        <v>1.4942599999999999</v>
+        <v>1.4888570000000001</v>
       </c>
       <c r="G79" s="64">
-        <v>3.1671399999999998</v>
+        <v>3.1671719999999999</v>
       </c>
       <c r="H79" s="64">
-        <v>2.7078899999999999</v>
+        <v>2.707471</v>
       </c>
       <c r="I79" s="64">
-        <v>3.232917</v>
+        <v>3.232774</v>
       </c>
       <c r="J79" s="64">
-        <v>3.7762180000000001</v>
+        <v>3.7748849999999998</v>
       </c>
       <c r="K79" s="64">
-        <v>3.04867</v>
+        <v>3.048683</v>
       </c>
       <c r="L79" s="64">
-        <v>3.3191389999999998</v>
+        <v>3.3233229999999998</v>
       </c>
       <c r="M79" s="64">
-        <v>4.1832209999999996</v>
+        <v>4.1841689999999998</v>
       </c>
       <c r="N79" s="64">
-        <v>1.388285</v>
+        <v>1.3940459999999999</v>
       </c>
       <c r="O79" s="64">
-        <v>1.613226</v>
+        <v>1.6126720000000001</v>
       </c>
       <c r="P79" s="64">
-        <v>2.0736119999999998</v>
+        <v>2.0750190000000002</v>
       </c>
       <c r="Q79" s="64">
-        <v>3.3558520000000001</v>
+        <v>3.359639</v>
       </c>
       <c r="R79" s="64">
-        <v>2.9166129999999999</v>
+        <v>2.92178</v>
       </c>
       <c r="S79" s="64">
-        <v>3.2623540000000002</v>
+        <v>3.2656130000000001</v>
       </c>
       <c r="T79" s="64">
-        <v>2.7554020000000001</v>
+        <v>2.7594539999999999</v>
       </c>
       <c r="U79" s="64">
-        <v>0.45106800000000002</v>
+        <v>0.45226699999999997</v>
       </c>
       <c r="V79" s="64">
-        <v>-3.4308519999999998</v>
+        <v>-3.4334129999999998</v>
       </c>
       <c r="W79" s="64">
-        <v>3.1085609999999999</v>
+        <v>3.1131509999999998</v>
       </c>
       <c r="X79" s="64">
-        <v>2.173184</v>
+        <v>2.1677209999999998</v>
       </c>
       <c r="Y79" s="64">
-        <v>1.390315</v>
+        <v>1.391343</v>
       </c>
       <c r="Z79" s="64">
-        <v>1.6821440000000001</v>
+        <v>1.685163</v>
       </c>
       <c r="AA79" s="64">
-        <v>2.2430020000000002</v>
+        <v>2.2308699999999999</v>
       </c>
       <c r="AB79" s="64">
-        <v>2.6387350000000001</v>
+        <v>2.629508</v>
       </c>
       <c r="AC79" s="64">
-        <v>1.894293</v>
+        <v>1.8877619999999999</v>
       </c>
       <c r="AD79" s="64">
-        <v>2.7284419999999998</v>
+        <v>2.7487159999999999</v>
       </c>
       <c r="AE79" s="64">
-        <v>2.3849200000000002</v>
+        <v>2.4040689999999998</v>
       </c>
       <c r="AF79" s="64">
-        <v>1.8317209999999999</v>
+        <v>1.847167</v>
       </c>
       <c r="AG79" s="64">
-        <v>-4.0282799999999996</v>
+        <v>-3.9991479999999999</v>
       </c>
       <c r="AH79" s="64">
-        <v>6.2539480000000003</v>
+        <v>6.3104519999999997</v>
       </c>
       <c r="AI79" s="64">
-        <v>3.2246000000000001</v>
+        <v>3.2564410000000001</v>
       </c>
       <c r="AJ79" s="64">
-        <v>1.7951170000000001</v>
+        <v>1.787955</v>
       </c>
       <c r="AK79" s="64">
-        <v>1.7679020000000001</v>
+        <v>1.783852</v>
       </c>
       <c r="AL79" s="64">
-        <v>1.3897660000000001</v>
+        <v>1.657192</v>
       </c>
       <c r="AM79" s="64">
-        <v>1.6049709999999999</v>
+        <v>1.7516769999999999</v>
       </c>
       <c r="AN79" s="64">
-        <v>1.802694</v>
+        <v>1.83972</v>
       </c>
       <c r="AO79" s="64">
-        <v>1.849456</v>
+        <v>1.8423229999999999</v>
       </c>
       <c r="AP79" s="64">
-        <v>1.817984</v>
+        <v>1.734278</v>
       </c>
       <c r="AQ79" s="64">
-        <v>1.8087660000000001</v>
+        <v>1.6682410000000001</v>
       </c>
       <c r="AR79" s="65">
-        <v>1.7767360000000001</v>
+        <v>1.767226</v>
       </c>
     </row>
-    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
         <v>177</v>
       </c>
       <c r="C80" s="70">
-        <v>1.4168559999999999</v>
+        <v>1.4172180000000001</v>
       </c>
       <c r="D80" s="71">
-        <v>6.1112229999999998</v>
+        <v>6.1151520000000001</v>
       </c>
       <c r="E80" s="71">
-        <v>0.84153999999999995</v>
+        <v>0.84112799999999999</v>
       </c>
       <c r="F80" s="71">
-        <v>-1.02189</v>
+        <v>-1.021309</v>
       </c>
       <c r="G80" s="71">
-        <v>1.8013330000000001</v>
+        <v>1.8027489999999999</v>
       </c>
       <c r="H80" s="71">
-        <v>0.572577</v>
+        <v>0.57078899999999999</v>
       </c>
       <c r="I80" s="71">
-        <v>4.4810749999999997</v>
+        <v>4.4814449999999999</v>
       </c>
       <c r="J80" s="71">
-        <v>2.0541149999999999</v>
+        <v>2.0546310000000001</v>
       </c>
       <c r="K80" s="71">
-        <v>4.0522580000000001</v>
+        <v>4.0516860000000001</v>
       </c>
       <c r="L80" s="71">
-        <v>1.86069</v>
+        <v>1.8599479999999999</v>
       </c>
       <c r="M80" s="71">
-        <v>5.0037419999999999</v>
+        <v>5.0044060000000004</v>
       </c>
       <c r="N80" s="71">
-        <v>4.2130049999999999</v>
+        <v>4.2136699999999996</v>
       </c>
       <c r="O80" s="71">
-        <v>5.1508430000000001</v>
+        <v>5.1539619999999999</v>
       </c>
       <c r="P80" s="71">
-        <v>7.9943499999999998</v>
+        <v>7.9932860000000003</v>
       </c>
       <c r="Q80" s="71">
-        <v>7.3352950000000003</v>
+        <v>7.3213179999999998</v>
       </c>
       <c r="R80" s="71">
-        <v>8.1222259999999995</v>
+        <v>8.1194109999999995</v>
       </c>
       <c r="S80" s="71">
-        <v>4.3136429999999999</v>
+        <v>4.3304619999999998</v>
       </c>
       <c r="T80" s="71">
-        <v>5.9120970000000002</v>
+        <v>5.89642</v>
       </c>
       <c r="U80" s="71">
-        <v>4.2408229999999998</v>
+        <v>4.2644250000000001</v>
       </c>
       <c r="V80" s="71">
-        <v>0.48852499999999999</v>
+        <v>0.51023099999999999</v>
       </c>
       <c r="W80" s="71">
-        <v>4.8759030000000001</v>
+        <v>4.8665409999999998</v>
       </c>
       <c r="X80" s="71">
-        <v>-1.308327</v>
+        <v>-1.3062039999999999</v>
       </c>
       <c r="Y80" s="71">
-        <v>16.807255999999999</v>
+        <v>16.813928000000001</v>
       </c>
       <c r="Z80" s="71">
-        <v>0.52710999999999997</v>
+        <v>0.52045200000000003</v>
       </c>
       <c r="AA80" s="71">
-        <v>1.56891</v>
+        <v>1.5838019999999999</v>
       </c>
       <c r="AB80" s="71">
-        <v>1.69855</v>
+        <v>1.7134720000000001</v>
       </c>
       <c r="AC80" s="71">
-        <v>1.082684</v>
+        <v>1.112506</v>
       </c>
       <c r="AD80" s="71">
-        <v>4.257568</v>
+        <v>4.2355229999999997</v>
       </c>
       <c r="AE80" s="71">
-        <v>1.5888040000000001</v>
+        <v>1.550497</v>
       </c>
       <c r="AF80" s="71">
-        <v>-0.345634</v>
+        <v>-0.34737800000000002</v>
       </c>
       <c r="AG80" s="71">
-        <v>-6.2709000000000001</v>
+        <v>-6.2480779999999996</v>
       </c>
       <c r="AH80" s="71">
-        <v>4.7771400000000002</v>
+        <v>4.8326799999999999</v>
       </c>
       <c r="AI80" s="71">
-        <v>2.9766080000000001</v>
+        <v>2.9717479999999998</v>
       </c>
       <c r="AJ80" s="71">
-        <v>3.4837549999999999</v>
+        <v>3.5965910000000001</v>
       </c>
       <c r="AK80" s="71">
-        <v>3.1502319999999999</v>
+        <v>3.486097</v>
       </c>
       <c r="AL80" s="71">
-        <v>3.9903189999999999</v>
+        <v>4.0156679999999998</v>
       </c>
       <c r="AM80" s="71">
-        <v>3.5159560000000001</v>
+        <v>2.999949</v>
       </c>
       <c r="AN80" s="71">
-        <v>2.7273520000000002</v>
+        <v>2.7152859999999999</v>
       </c>
       <c r="AO80" s="71">
-        <v>2.8781479999999999</v>
+        <v>2.8261270000000001</v>
       </c>
       <c r="AP80" s="71">
-        <v>2.657232</v>
+        <v>2.733571</v>
       </c>
       <c r="AQ80" s="71">
-        <v>2.6296040000000001</v>
+        <v>2.7378450000000001</v>
       </c>
       <c r="AR80" s="72">
-        <v>2.881135</v>
+        <v>2.8025009999999999</v>
       </c>
     </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
         <v>178</v>
       </c>
       <c r="C81" s="59">
-        <v>9.3515599999999992</v>
+        <v>9.3697040000000005</v>
       </c>
       <c r="D81" s="60">
-        <v>7.7484080000000004</v>
+        <v>7.8019679999999996</v>
       </c>
       <c r="E81" s="60">
-        <v>6.2812150000000004</v>
+        <v>6.2508790000000003</v>
       </c>
       <c r="F81" s="60">
-        <v>-3.967851</v>
+        <v>-3.93737</v>
       </c>
       <c r="G81" s="60">
-        <v>-5.7436249999999998</v>
+        <v>-5.6967809999999997</v>
       </c>
       <c r="H81" s="60">
-        <v>-0.81048600000000004</v>
+        <v>-0.78826399999999996</v>
       </c>
       <c r="I81" s="60">
-        <v>0.52051999999999998</v>
+        <v>0.56228999999999996</v>
       </c>
       <c r="J81" s="60">
-        <v>2.918561</v>
+        <v>2.9253230000000001</v>
       </c>
       <c r="K81" s="60">
-        <v>-0.69048500000000002</v>
+        <v>-0.67929700000000004</v>
       </c>
       <c r="L81" s="60">
-        <v>2.8444189999999998</v>
+        <v>2.8078789999999998</v>
       </c>
       <c r="M81" s="60">
-        <v>7.6349400000000003</v>
+        <v>7.6335579999999998</v>
       </c>
       <c r="N81" s="60">
-        <v>3.72729</v>
+        <v>3.6754720000000001</v>
       </c>
       <c r="O81" s="60">
-        <v>3.1108660000000001</v>
+        <v>3.0964779999999998</v>
       </c>
       <c r="P81" s="60">
-        <v>6.055428</v>
+        <v>6.0467630000000003</v>
       </c>
       <c r="Q81" s="60">
-        <v>9.3871350000000007</v>
+        <v>9.3447639999999996</v>
       </c>
       <c r="R81" s="60">
-        <v>6.2760230000000004</v>
+        <v>6.2411969999999997</v>
       </c>
       <c r="S81" s="60">
-        <v>7.6654679999999997</v>
+        <v>7.6304730000000003</v>
       </c>
       <c r="T81" s="60">
-        <v>7.260402</v>
+        <v>7.230194</v>
       </c>
       <c r="U81" s="60">
-        <v>5.0208360000000001</v>
+        <v>4.9678180000000003</v>
       </c>
       <c r="V81" s="60">
-        <v>-2.8892159999999998</v>
+        <v>-2.899346</v>
       </c>
       <c r="W81" s="60">
-        <v>4.9229029999999998</v>
+        <v>5.0348860000000002</v>
       </c>
       <c r="X81" s="60">
-        <v>5.4829819999999998</v>
+        <v>6.0595340000000002</v>
       </c>
       <c r="Y81" s="60">
-        <v>3.892061</v>
+        <v>4.1067640000000001</v>
       </c>
       <c r="Z81" s="60">
-        <v>2.4852180000000001</v>
+        <v>2.6184850000000002</v>
       </c>
       <c r="AA81" s="60">
-        <v>2.2238310000000001</v>
+        <v>2.3266309999999999</v>
       </c>
       <c r="AB81" s="60">
-        <v>0.24728800000000001</v>
+        <v>0.306199</v>
       </c>
       <c r="AC81" s="60">
-        <v>2.0042200000000001</v>
+        <v>1.7724740000000001</v>
       </c>
       <c r="AD81" s="60">
-        <v>0.90792899999999999</v>
+        <v>0.89869600000000005</v>
       </c>
       <c r="AE81" s="60">
-        <v>1.549547</v>
+        <v>1.3652439999999999</v>
       </c>
       <c r="AF81" s="60">
-        <v>1.0280629999999999</v>
+        <v>1.2723199999999999</v>
       </c>
       <c r="AG81" s="60">
-        <v>-3.2213370000000001</v>
+        <v>-3.2795529999999999</v>
       </c>
       <c r="AH81" s="60">
-        <v>4.9238759999999999</v>
+        <v>5.1781249999999996</v>
       </c>
       <c r="AI81" s="60">
-        <v>2.692666</v>
+        <v>3.6028069999999999</v>
       </c>
       <c r="AJ81" s="60">
-        <v>3.0928680000000002</v>
+        <v>3.3410160000000002</v>
       </c>
       <c r="AK81" s="60">
-        <v>3.238461</v>
+        <v>3.4314939999999998</v>
       </c>
       <c r="AL81" s="60">
-        <v>1.9221410000000001</v>
+        <v>2.0881270000000001</v>
       </c>
       <c r="AM81" s="60">
-        <v>2.1101260000000002</v>
+        <v>2.4141059999999999</v>
       </c>
       <c r="AN81" s="60">
-        <v>2.573982</v>
+        <v>2.4914320000000001</v>
       </c>
       <c r="AO81" s="60">
-        <v>2.3881209999999999</v>
+        <v>2.4424739999999998</v>
       </c>
       <c r="AP81" s="60">
-        <v>2.3789280000000002</v>
+        <v>2.4474480000000001</v>
       </c>
       <c r="AQ81" s="60">
-        <v>2.3892540000000002</v>
+        <v>2.4085559999999999</v>
       </c>
       <c r="AR81" s="61">
-        <v>2.3679749999999999</v>
+        <v>2.4407990000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
         <v>179</v>
       </c>
       <c r="C82" s="59">
-        <v>1.555971</v>
+        <v>1.5558179999999999</v>
       </c>
       <c r="D82" s="60">
-        <v>0.90250699999999995</v>
+        <v>0.82004299999999997</v>
       </c>
       <c r="E82" s="60">
-        <v>-9.7176999999999999E-2</v>
+        <v>3.4893E-2</v>
       </c>
       <c r="F82" s="60">
-        <v>1.471714</v>
+        <v>1.477139</v>
       </c>
       <c r="G82" s="60">
-        <v>2.7795610000000002</v>
+        <v>2.6376240000000002</v>
       </c>
       <c r="H82" s="60">
-        <v>3.3767369999999999</v>
+        <v>3.2925019999999998</v>
       </c>
       <c r="I82" s="60">
-        <v>5.1900250000000003</v>
+        <v>5.1256899999999996</v>
       </c>
       <c r="J82" s="60">
-        <v>3.5203000000000002</v>
+        <v>3.4854340000000001</v>
       </c>
       <c r="K82" s="60">
-        <v>4.0174050000000001</v>
+        <v>3.9344320000000002</v>
       </c>
       <c r="L82" s="60">
-        <v>3.369847</v>
+        <v>3.189327</v>
       </c>
       <c r="M82" s="60">
-        <v>3.9935139999999998</v>
+        <v>4.0168299999999997</v>
       </c>
       <c r="N82" s="60">
-        <v>4.6222979999999998</v>
+        <v>4.6985960000000002</v>
       </c>
       <c r="O82" s="60">
-        <v>4.9325939999999999</v>
+        <v>5.4237209999999996</v>
       </c>
       <c r="P82" s="60">
-        <v>4.5439150000000001</v>
+        <v>4.7510050000000001</v>
       </c>
       <c r="Q82" s="60">
-        <v>5.6256060000000003</v>
+        <v>5.8837890000000002</v>
       </c>
       <c r="R82" s="60">
-        <v>5.280869</v>
+        <v>5.3472</v>
       </c>
       <c r="S82" s="60">
-        <v>6.110913</v>
+        <v>6.1195310000000003</v>
       </c>
       <c r="T82" s="60">
-        <v>6.1465490000000003</v>
+        <v>6.1954779999999996</v>
       </c>
       <c r="U82" s="60">
-        <v>5.5081530000000001</v>
+        <v>5.5702829999999999</v>
       </c>
       <c r="V82" s="60">
-        <v>3.6716340000000001</v>
+        <v>4.0074370000000004</v>
       </c>
       <c r="W82" s="60">
-        <v>6.3202119999999997</v>
+        <v>6.7169290000000004</v>
       </c>
       <c r="X82" s="60">
-        <v>3.864967</v>
+        <v>3.9711129999999999</v>
       </c>
       <c r="Y82" s="60">
-        <v>3.3083360000000002</v>
+        <v>3.425163</v>
       </c>
       <c r="Z82" s="60">
-        <v>4.41594</v>
+        <v>4.4796250000000004</v>
       </c>
       <c r="AA82" s="60">
-        <v>4.3799580000000002</v>
+        <v>4.5211880000000004</v>
       </c>
       <c r="AB82" s="60">
-        <v>3.7836430000000001</v>
+        <v>3.6920139999999999</v>
       </c>
       <c r="AC82" s="60">
-        <v>2.4648479999999999</v>
+        <v>2.1696300000000002</v>
       </c>
       <c r="AD82" s="60">
-        <v>3.5592130000000002</v>
+        <v>3.3682150000000002</v>
       </c>
       <c r="AE82" s="60">
-        <v>3.8082319999999998</v>
+        <v>3.6759189999999999</v>
       </c>
       <c r="AF82" s="60">
-        <v>3.7190270000000001</v>
+        <v>3.5815030000000001</v>
       </c>
       <c r="AG82" s="60">
-        <v>-0.547373</v>
+        <v>-1.714661</v>
       </c>
       <c r="AH82" s="60">
-        <v>4.5748810000000004</v>
+        <v>3.9335990000000001</v>
       </c>
       <c r="AI82" s="60">
-        <v>4.4937240000000003</v>
+        <v>4.6958339999999996</v>
       </c>
       <c r="AJ82" s="60">
-        <v>3.2822659999999999</v>
+        <v>3.4056519999999999</v>
       </c>
       <c r="AK82" s="60">
-        <v>3.1792229999999999</v>
+        <v>3.3795899999999999</v>
       </c>
       <c r="AL82" s="60">
-        <v>3.8308629999999999</v>
+        <v>4.2286729999999997</v>
       </c>
       <c r="AM82" s="60">
-        <v>4.2093280000000002</v>
+        <v>4.516648</v>
       </c>
       <c r="AN82" s="60">
-        <v>4.6260079999999997</v>
+        <v>4.7104359999999996</v>
       </c>
       <c r="AO82" s="60">
-        <v>4.6505539999999996</v>
+        <v>4.7030700000000003</v>
       </c>
       <c r="AP82" s="60">
-        <v>4.7632760000000003</v>
+        <v>4.7594289999999999</v>
       </c>
       <c r="AQ82" s="60">
-        <v>4.769774</v>
+        <v>4.7651620000000001</v>
       </c>
       <c r="AR82" s="61">
-        <v>4.603586</v>
+        <v>4.6909099999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
         <v>180</v>
       </c>
       <c r="C83" s="63">
-        <v>2.9980259999999999</v>
+        <v>2.995609</v>
       </c>
       <c r="D83" s="64">
-        <v>2.1738360000000001</v>
+        <v>2.1736499999999999</v>
       </c>
       <c r="E83" s="64">
-        <v>3.034233</v>
+        <v>3.0330879999999998</v>
       </c>
       <c r="F83" s="64">
-        <v>2.6050119999999999</v>
+        <v>2.6010499999999999</v>
       </c>
       <c r="G83" s="64">
-        <v>4.0215810000000003</v>
+        <v>4.021871</v>
       </c>
       <c r="H83" s="64">
-        <v>3.6858629999999999</v>
+        <v>3.6856779999999998</v>
       </c>
       <c r="I83" s="64">
-        <v>4.0934249999999999</v>
+        <v>4.0933619999999999</v>
       </c>
       <c r="J83" s="64">
-        <v>4.1344479999999999</v>
+        <v>4.1334840000000002</v>
       </c>
       <c r="K83" s="64">
-        <v>2.8818510000000002</v>
+        <v>2.8818860000000002</v>
       </c>
       <c r="L83" s="64">
-        <v>3.6460210000000002</v>
+        <v>3.6489669999999998</v>
       </c>
       <c r="M83" s="64">
-        <v>4.5408030000000004</v>
+        <v>4.5412590000000002</v>
       </c>
       <c r="N83" s="64">
-        <v>2.2984360000000001</v>
+        <v>2.302225</v>
       </c>
       <c r="O83" s="64">
-        <v>2.6398030000000001</v>
+        <v>2.6391710000000002</v>
       </c>
       <c r="P83" s="64">
-        <v>3.508419</v>
+        <v>3.5089320000000002</v>
       </c>
       <c r="Q83" s="64">
-        <v>4.7800909999999996</v>
+        <v>4.7823960000000003</v>
       </c>
       <c r="R83" s="64">
-        <v>4.4755960000000004</v>
+        <v>4.4788839999999999</v>
       </c>
       <c r="S83" s="64">
-        <v>5.0028810000000004</v>
+        <v>5.0050379999999999</v>
       </c>
       <c r="T83" s="64">
-        <v>5.0740059999999998</v>
+        <v>5.0766249999999999</v>
       </c>
       <c r="U83" s="64">
-        <v>2.5862310000000002</v>
+        <v>2.5865309999999999</v>
       </c>
       <c r="V83" s="64">
-        <v>-0.28022799999999998</v>
+        <v>-0.28297899999999998</v>
       </c>
       <c r="W83" s="64">
-        <v>5.1295979999999997</v>
+        <v>5.1321409999999998</v>
       </c>
       <c r="X83" s="64">
-        <v>3.9552130000000001</v>
+        <v>3.951295</v>
       </c>
       <c r="Y83" s="64">
-        <v>3.1616810000000002</v>
+        <v>3.1596030000000002</v>
       </c>
       <c r="Z83" s="64">
-        <v>3.4434999999999998</v>
+        <v>3.4477470000000001</v>
       </c>
       <c r="AA83" s="64">
-        <v>3.6560820000000001</v>
+        <v>3.648857</v>
       </c>
       <c r="AB83" s="64">
-        <v>3.8089900000000001</v>
+        <v>3.8034560000000002</v>
       </c>
       <c r="AC83" s="64">
-        <v>3.4702540000000002</v>
+        <v>3.4670529999999999</v>
       </c>
       <c r="AD83" s="64">
-        <v>4.1349549999999997</v>
+        <v>4.1462370000000002</v>
       </c>
       <c r="AE83" s="64">
-        <v>3.8867039999999999</v>
+        <v>3.896722</v>
       </c>
       <c r="AF83" s="64">
-        <v>3.1416490000000001</v>
+        <v>3.1500520000000001</v>
       </c>
       <c r="AG83" s="64">
-        <v>-2.7350460000000001</v>
+        <v>-2.719614</v>
       </c>
       <c r="AH83" s="64">
-        <v>6.8834299999999997</v>
+        <v>6.9196869999999997</v>
       </c>
       <c r="AI83" s="64">
-        <v>3.7407010000000001</v>
+        <v>3.765174</v>
       </c>
       <c r="AJ83" s="64">
-        <v>3.5375519999999998</v>
+        <v>3.5318520000000002</v>
       </c>
       <c r="AK83" s="64">
-        <v>3.2991290000000002</v>
+        <v>3.309825</v>
       </c>
       <c r="AL83" s="64">
-        <v>2.8045059999999999</v>
+        <v>3.1968670000000001</v>
       </c>
       <c r="AM83" s="64">
-        <v>2.9826079999999999</v>
+        <v>3.090096</v>
       </c>
       <c r="AN83" s="64">
-        <v>3.2206589999999999</v>
+        <v>3.236691</v>
       </c>
       <c r="AO83" s="64">
-        <v>3.236237</v>
+        <v>3.2167289999999999</v>
       </c>
       <c r="AP83" s="64">
-        <v>3.1884700000000001</v>
+        <v>3.1418309999999998</v>
       </c>
       <c r="AQ83" s="64">
-        <v>3.1190020000000001</v>
+        <v>3.0470929999999998</v>
       </c>
       <c r="AR83" s="65">
-        <v>3.1493530000000001</v>
+        <v>3.1464629999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
         <v>181</v>
       </c>
       <c r="C84" s="70">
-        <v>0.35887999999999998</v>
+        <v>0.359761</v>
       </c>
       <c r="D84" s="71">
-        <v>0.82982599999999995</v>
+        <v>0.82841399999999998</v>
       </c>
       <c r="E84" s="71">
-        <v>-0.73233099999999995</v>
+        <v>-0.73582700000000001</v>
       </c>
       <c r="F84" s="71">
-        <v>-0.66762200000000005</v>
+        <v>-0.66805999999999999</v>
       </c>
       <c r="G84" s="71">
-        <v>1.358425</v>
+        <v>1.3687940000000001</v>
       </c>
       <c r="H84" s="71">
-        <v>5.657438</v>
+        <v>5.6551819999999999</v>
       </c>
       <c r="I84" s="71">
-        <v>3.1669170000000002</v>
+        <v>3.159198</v>
       </c>
       <c r="J84" s="71">
-        <v>3.2469990000000002</v>
+        <v>3.2477170000000002</v>
       </c>
       <c r="K84" s="71">
-        <v>4.7653790000000003</v>
+        <v>4.7641980000000004</v>
       </c>
       <c r="L84" s="71">
-        <v>3.501239</v>
+        <v>3.5007320000000002</v>
       </c>
       <c r="M84" s="71">
-        <v>3.0503529999999999</v>
+        <v>3.04522</v>
       </c>
       <c r="N84" s="71">
-        <v>8.0348349999999993</v>
+        <v>8.0308949999999992</v>
       </c>
       <c r="O84" s="71">
-        <v>4.7711459999999999</v>
+        <v>4.7692430000000003</v>
       </c>
       <c r="P84" s="71">
-        <v>6.4136569999999997</v>
+        <v>6.4079949999999997</v>
       </c>
       <c r="Q84" s="71">
-        <v>6.4892050000000001</v>
+        <v>6.4851539999999996</v>
       </c>
       <c r="R84" s="71">
-        <v>6.5307979999999999</v>
+        <v>6.4866479999999997</v>
       </c>
       <c r="S84" s="71">
-        <v>5.746086</v>
+        <v>5.7477669999999996</v>
       </c>
       <c r="T84" s="71">
-        <v>5.9640120000000003</v>
+        <v>5.9634650000000002</v>
       </c>
       <c r="U84" s="71">
-        <v>5.6137670000000002</v>
+        <v>5.6129490000000004</v>
       </c>
       <c r="V84" s="71">
-        <v>1.2649649999999999</v>
+        <v>1.2667360000000001</v>
       </c>
       <c r="W84" s="71">
-        <v>6.0666010000000004</v>
+        <v>6.0629679999999997</v>
       </c>
       <c r="X84" s="71">
-        <v>3.0260549999999999</v>
+        <v>3.0261580000000001</v>
       </c>
       <c r="Y84" s="71">
-        <v>-0.87861299999999998</v>
+        <v>-0.86098200000000003</v>
       </c>
       <c r="Z84" s="71">
-        <v>4.3520729999999999</v>
+        <v>4.329078</v>
       </c>
       <c r="AA84" s="71">
-        <v>5.2485580000000001</v>
+        <v>5.2627160000000002</v>
       </c>
       <c r="AB84" s="71">
-        <v>4.8681749999999999</v>
+        <v>4.8635999999999999</v>
       </c>
       <c r="AC84" s="71">
-        <v>2.8972820000000001</v>
+        <v>2.9291339999999999</v>
       </c>
       <c r="AD84" s="71">
-        <v>3.3904320000000001</v>
+        <v>3.376166</v>
       </c>
       <c r="AE84" s="71">
-        <v>3.1348150000000001</v>
+        <v>3.10555</v>
       </c>
       <c r="AF84" s="71">
-        <v>3.504111</v>
+        <v>3.5335770000000002</v>
       </c>
       <c r="AG84" s="71">
-        <v>-1.2403439999999999</v>
+        <v>-1.2026699999999999</v>
       </c>
       <c r="AH84" s="71">
-        <v>3.409265</v>
+        <v>3.4687749999999999</v>
       </c>
       <c r="AI84" s="71">
-        <v>4.1182660000000002</v>
+        <v>4.1875499999999999</v>
       </c>
       <c r="AJ84" s="71">
-        <v>1.5636330000000001</v>
+        <v>1.6693659999999999</v>
       </c>
       <c r="AK84" s="71">
-        <v>1.880145</v>
+        <v>2.0903299999999998</v>
       </c>
       <c r="AL84" s="71">
-        <v>4.1528879999999999</v>
+        <v>5.0119429999999996</v>
       </c>
       <c r="AM84" s="71">
-        <v>6.6774170000000002</v>
+        <v>6.1154460000000004</v>
       </c>
       <c r="AN84" s="71">
-        <v>6.7552199999999996</v>
+        <v>6.7122019999999996</v>
       </c>
       <c r="AO84" s="71">
-        <v>5.7116160000000002</v>
+        <v>5.8212590000000004</v>
       </c>
       <c r="AP84" s="71">
-        <v>5.6406010000000002</v>
+        <v>5.6891239999999996</v>
       </c>
       <c r="AQ84" s="71">
-        <v>5.5178770000000004</v>
+        <v>5.6689129999999999</v>
       </c>
       <c r="AR84" s="72">
-        <v>6.0591749999999998</v>
+        <v>6.0006740000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
         <v>182</v>
@@ -12797,19 +12797,19 @@
         <v>3.190131</v>
       </c>
       <c r="AG85" s="60">
-        <v>-4.6443599999999998</v>
+        <v>-4.644584</v>
       </c>
       <c r="AH85" s="60">
-        <v>-8.8533240000000006</v>
+        <v>-8.8528959999999994</v>
       </c>
       <c r="AI85" s="60">
-        <v>-2.838387</v>
+        <v>-2.8381400000000001</v>
       </c>
       <c r="AJ85" s="60">
-        <v>0.43630600000000003</v>
+        <v>0.43617</v>
       </c>
       <c r="AK85" s="60">
-        <v>-1.5</v>
+        <v>0.38123499999999999</v>
       </c>
       <c r="AL85" s="60">
         <v>-1.5</v>
@@ -12833,139 +12833,139 @@
         <v>4.2767249999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
         <v>183</v>
       </c>
       <c r="C86" s="59">
-        <v>2.3634059999999999</v>
+        <v>2.3632010000000001</v>
       </c>
       <c r="D86" s="60">
-        <v>2.1827749999999999</v>
+        <v>1.9509369999999999</v>
       </c>
       <c r="E86" s="60">
-        <v>1.387032</v>
+        <v>1.4559580000000001</v>
       </c>
       <c r="F86" s="60">
-        <v>2.0084219999999999</v>
+        <v>1.9710920000000001</v>
       </c>
       <c r="G86" s="60">
-        <v>3.2308080000000001</v>
+        <v>2.9836550000000002</v>
       </c>
       <c r="H86" s="60">
-        <v>3.2030150000000002</v>
+        <v>3.0936819999999998</v>
       </c>
       <c r="I86" s="60">
-        <v>5.9231309999999997</v>
+        <v>5.771763</v>
       </c>
       <c r="J86" s="60">
-        <v>3.9252739999999999</v>
+        <v>3.8420399999999999</v>
       </c>
       <c r="K86" s="60">
-        <v>5.2956960000000004</v>
+        <v>5.0765520000000004</v>
       </c>
       <c r="L86" s="60">
-        <v>3.3479830000000002</v>
+        <v>3.0933709999999999</v>
       </c>
       <c r="M86" s="60">
-        <v>3.846902</v>
+        <v>3.893481</v>
       </c>
       <c r="N86" s="60">
-        <v>4.3511829999999998</v>
+        <v>4.4835729999999998</v>
       </c>
       <c r="O86" s="60">
-        <v>5.8443740000000002</v>
+        <v>6.4570160000000003</v>
       </c>
       <c r="P86" s="60">
-        <v>4.7798360000000004</v>
+        <v>5.0509969999999997</v>
       </c>
       <c r="Q86" s="60">
-        <v>6.1890710000000002</v>
+        <v>6.4984169999999999</v>
       </c>
       <c r="R86" s="60">
-        <v>5.4467619999999997</v>
+        <v>5.5240900000000002</v>
       </c>
       <c r="S86" s="60">
-        <v>6.5569389999999999</v>
+        <v>6.5265620000000002</v>
       </c>
       <c r="T86" s="60">
-        <v>6.50319</v>
+        <v>6.5373890000000001</v>
       </c>
       <c r="U86" s="60">
-        <v>6.2322569999999997</v>
+        <v>6.2491440000000003</v>
       </c>
       <c r="V86" s="60">
-        <v>5.2146970000000001</v>
+        <v>5.5203740000000003</v>
       </c>
       <c r="W86" s="60">
-        <v>6.9637929999999999</v>
+        <v>7.4348850000000004</v>
       </c>
       <c r="X86" s="60">
-        <v>3.8253200000000001</v>
+        <v>3.9729670000000001</v>
       </c>
       <c r="Y86" s="60">
-        <v>4.5116990000000001</v>
+        <v>4.5433320000000004</v>
       </c>
       <c r="Z86" s="60">
-        <v>4.5660930000000004</v>
+        <v>4.6381540000000001</v>
       </c>
       <c r="AA86" s="60">
-        <v>4.5836790000000001</v>
+        <v>4.7510469999999998</v>
       </c>
       <c r="AB86" s="60">
-        <v>3.582039</v>
+        <v>3.4805450000000002</v>
       </c>
       <c r="AC86" s="60">
-        <v>1.9980329999999999</v>
+        <v>1.6483049999999999</v>
       </c>
       <c r="AD86" s="60">
-        <v>3.3679109999999999</v>
+        <v>3.1294140000000001</v>
       </c>
       <c r="AE86" s="60">
-        <v>3.8256700000000001</v>
+        <v>3.6486000000000001</v>
       </c>
       <c r="AF86" s="60">
-        <v>3.8199420000000002</v>
+        <v>3.6280450000000002</v>
       </c>
       <c r="AG86" s="60">
-        <v>-1.506E-3</v>
+        <v>-1.579313</v>
       </c>
       <c r="AH86" s="60">
-        <v>4.3359059999999996</v>
+        <v>3.5388190000000002</v>
       </c>
       <c r="AI86" s="60">
-        <v>4.768192</v>
+        <v>4.9789060000000003</v>
       </c>
       <c r="AJ86" s="60">
-        <v>3.5964429999999998</v>
+        <v>3.7225540000000001</v>
       </c>
       <c r="AK86" s="60">
-        <v>3.5096340000000001</v>
+        <v>3.7315770000000001</v>
       </c>
       <c r="AL86" s="60">
-        <v>3.9262869999999999</v>
+        <v>4.281765</v>
       </c>
       <c r="AM86" s="60">
-        <v>4.0421829999999996</v>
+        <v>4.4559069999999998</v>
       </c>
       <c r="AN86" s="60">
-        <v>4.3334489999999999</v>
+        <v>4.4689259999999997</v>
       </c>
       <c r="AO86" s="60">
-        <v>4.5142680000000004</v>
+        <v>4.5671660000000003</v>
       </c>
       <c r="AP86" s="60">
-        <v>4.6573010000000004</v>
+        <v>4.6485010000000004</v>
       </c>
       <c r="AQ86" s="60">
-        <v>4.6783029999999997</v>
+        <v>4.6603940000000001</v>
       </c>
       <c r="AR86" s="61">
-        <v>4.444833</v>
+        <v>4.5601430000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
         <v>184</v>
@@ -12989,7 +12989,7 @@
         <v>6.5540260000000004</v>
       </c>
       <c r="I87" s="60">
-        <v>6.9772800000000004</v>
+        <v>6.9772809999999996</v>
       </c>
       <c r="J87" s="60">
         <v>4.4226720000000004</v>
@@ -13055,577 +13055,577 @@
         <v>6.4420070000000003</v>
       </c>
       <c r="AE87" s="60">
-        <v>6.2672549999999996</v>
+        <v>6.2672540000000003</v>
       </c>
       <c r="AF87" s="60">
         <v>4.3857900000000001</v>
       </c>
       <c r="AG87" s="60">
-        <v>-4.2702179999999998</v>
+        <v>-4.2633390000000002</v>
       </c>
       <c r="AH87" s="60">
-        <v>7.8328519999999999</v>
+        <v>7.8694179999999996</v>
       </c>
       <c r="AI87" s="60">
-        <v>7.0600529999999999</v>
+        <v>7.0668040000000003</v>
       </c>
       <c r="AJ87" s="60">
-        <v>7.2734719999999999</v>
+        <v>7.2835179999999999</v>
       </c>
       <c r="AK87" s="60">
-        <v>5.7907739999999999</v>
+        <v>5.8262169999999998</v>
       </c>
       <c r="AL87" s="60">
-        <v>5.5224580000000003</v>
+        <v>5.9016630000000001</v>
       </c>
       <c r="AM87" s="60">
-        <v>5.7642910000000001</v>
+        <v>5.7323240000000002</v>
       </c>
       <c r="AN87" s="60">
-        <v>6.0189430000000002</v>
+        <v>6.0196610000000002</v>
       </c>
       <c r="AO87" s="60">
-        <v>6.0906989999999999</v>
+        <v>6.0945099999999996</v>
       </c>
       <c r="AP87" s="60">
-        <v>6.2094129999999996</v>
+        <v>6.1476749999999996</v>
       </c>
       <c r="AQ87" s="60">
-        <v>6.1595370000000003</v>
+        <v>6.1480100000000002</v>
       </c>
       <c r="AR87" s="61">
-        <v>6.0484619999999998</v>
+        <v>6.0283220000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
         <v>185</v>
       </c>
       <c r="C88" s="59">
-        <v>0.94706400000000002</v>
+        <v>0.94711100000000004</v>
       </c>
       <c r="D88" s="60">
-        <v>2.4200020000000002</v>
+        <v>2.4211260000000001</v>
       </c>
       <c r="E88" s="60">
-        <v>-1.211716</v>
+        <v>-1.2126140000000001</v>
       </c>
       <c r="F88" s="60">
-        <v>-0.62384300000000004</v>
+        <v>-0.62337699999999996</v>
       </c>
       <c r="G88" s="60">
-        <v>1.942941</v>
+        <v>1.9438120000000001</v>
       </c>
       <c r="H88" s="60">
-        <v>1.1548909999999999</v>
+        <v>1.15404</v>
       </c>
       <c r="I88" s="60">
-        <v>3.8517410000000001</v>
+        <v>3.8517579999999998</v>
       </c>
       <c r="J88" s="60">
-        <v>2.1219869999999998</v>
+        <v>2.1223070000000002</v>
       </c>
       <c r="K88" s="60">
-        <v>2.025042</v>
+        <v>2.0240480000000001</v>
       </c>
       <c r="L88" s="60">
-        <v>2.3358219999999998</v>
+        <v>2.3355410000000001</v>
       </c>
       <c r="M88" s="60">
-        <v>4.859572</v>
+        <v>4.8599160000000001</v>
       </c>
       <c r="N88" s="60">
-        <v>3.5058859999999998</v>
+        <v>3.5060500000000001</v>
       </c>
       <c r="O88" s="60">
-        <v>3.6699920000000001</v>
+        <v>3.671395</v>
       </c>
       <c r="P88" s="60">
-        <v>5.8886979999999998</v>
+        <v>5.8873680000000004</v>
       </c>
       <c r="Q88" s="60">
-        <v>5.0643710000000004</v>
+        <v>5.0547500000000003</v>
       </c>
       <c r="R88" s="60">
-        <v>5.9246249999999998</v>
+        <v>5.9373500000000003</v>
       </c>
       <c r="S88" s="60">
-        <v>3.9748429999999999</v>
+        <v>3.9847920000000001</v>
       </c>
       <c r="T88" s="60">
-        <v>5.049493</v>
+        <v>5.0390170000000003</v>
       </c>
       <c r="U88" s="60">
-        <v>2.8954740000000001</v>
+        <v>2.9103569999999999</v>
       </c>
       <c r="V88" s="60">
-        <v>-1.0645340000000001</v>
+        <v>-1.0505709999999999</v>
       </c>
       <c r="W88" s="60">
-        <v>3.779347</v>
+        <v>3.7743790000000002</v>
       </c>
       <c r="X88" s="60">
-        <v>0.29425200000000001</v>
+        <v>0.29661700000000002</v>
       </c>
       <c r="Y88" s="60">
-        <v>10.989660000000001</v>
+        <v>10.980371999999999</v>
       </c>
       <c r="Z88" s="60">
-        <v>0.94568600000000003</v>
+        <v>0.94648200000000005</v>
       </c>
       <c r="AA88" s="60">
-        <v>0.97771600000000003</v>
+        <v>0.98211000000000004</v>
       </c>
       <c r="AB88" s="60">
-        <v>1.566589</v>
+        <v>1.5799540000000001</v>
       </c>
       <c r="AC88" s="60">
-        <v>1.7358100000000001</v>
+        <v>1.741854</v>
       </c>
       <c r="AD88" s="60">
-        <v>3.6454870000000001</v>
+        <v>3.6371669999999998</v>
       </c>
       <c r="AE88" s="60">
-        <v>1.971438</v>
+        <v>1.957182</v>
       </c>
       <c r="AF88" s="60">
-        <v>-0.16542799999999999</v>
+        <v>-0.177369</v>
       </c>
       <c r="AG88" s="60">
-        <v>-7.0511530000000002</v>
+        <v>-7.0447480000000002</v>
       </c>
       <c r="AH88" s="60">
-        <v>5.7354799999999999</v>
+        <v>5.6875150000000003</v>
       </c>
       <c r="AI88" s="60">
-        <v>2.3950879999999999</v>
+        <v>2.4479289999999998</v>
       </c>
       <c r="AJ88" s="60">
-        <v>2.587609</v>
+        <v>2.64059</v>
       </c>
       <c r="AK88" s="60">
-        <v>1.768232</v>
+        <v>1.9374199999999999</v>
       </c>
       <c r="AL88" s="60">
-        <v>2.8729830000000001</v>
+        <v>2.8121749999999999</v>
       </c>
       <c r="AM88" s="60">
-        <v>2.2245729999999999</v>
+        <v>2.114814</v>
       </c>
       <c r="AN88" s="60">
-        <v>2.2003680000000001</v>
+        <v>2.1995130000000001</v>
       </c>
       <c r="AO88" s="60">
-        <v>2.2862149999999999</v>
+        <v>2.2702599999999999</v>
       </c>
       <c r="AP88" s="60">
-        <v>2.1859929999999999</v>
+        <v>2.2537289999999999</v>
       </c>
       <c r="AQ88" s="60">
-        <v>2.2156739999999999</v>
+        <v>2.269838</v>
       </c>
       <c r="AR88" s="61">
-        <v>2.222559</v>
+        <v>2.2216140000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
         <v>186</v>
       </c>
       <c r="C89" s="59">
-        <v>4.1340219999999999</v>
+        <v>4.1514930000000003</v>
       </c>
       <c r="D89" s="60">
-        <v>6.1312790000000001</v>
+        <v>6.1454800000000001</v>
       </c>
       <c r="E89" s="60">
-        <v>5.408048</v>
+        <v>5.4028640000000001</v>
       </c>
       <c r="F89" s="60">
-        <v>5.6185049999999999</v>
+        <v>5.6196619999999999</v>
       </c>
       <c r="G89" s="60">
-        <v>4.9006259999999999</v>
+        <v>4.9072490000000002</v>
       </c>
       <c r="H89" s="60">
-        <v>4.4728649999999996</v>
+        <v>4.4771320000000001</v>
       </c>
       <c r="I89" s="60">
-        <v>6.1215390000000003</v>
+        <v>6.1286820000000004</v>
       </c>
       <c r="J89" s="60">
-        <v>5.7960079999999996</v>
+        <v>5.7967029999999999</v>
       </c>
       <c r="K89" s="60">
-        <v>2.2599399999999998</v>
+        <v>2.2575249999999998</v>
       </c>
       <c r="L89" s="60">
-        <v>2.9267300000000001</v>
+        <v>2.9306640000000002</v>
       </c>
       <c r="M89" s="60">
-        <v>5.9256789999999997</v>
+        <v>5.9201249999999996</v>
       </c>
       <c r="N89" s="60">
-        <v>3.4738859999999998</v>
+        <v>3.4743140000000001</v>
       </c>
       <c r="O89" s="60">
-        <v>5.087218</v>
+        <v>5.0829589999999998</v>
       </c>
       <c r="P89" s="60">
-        <v>6.163481</v>
+        <v>6.1595659999999999</v>
       </c>
       <c r="Q89" s="60">
-        <v>8.0829439999999995</v>
+        <v>8.0786239999999996</v>
       </c>
       <c r="R89" s="60">
-        <v>7.2929519999999997</v>
+        <v>7.2885559999999998</v>
       </c>
       <c r="S89" s="60">
-        <v>8.4741730000000004</v>
+        <v>8.4728530000000006</v>
       </c>
       <c r="T89" s="60">
-        <v>9.2736560000000008</v>
+        <v>9.2716180000000001</v>
       </c>
       <c r="U89" s="60">
-        <v>6.1778729999999999</v>
+        <v>6.1632340000000001</v>
       </c>
       <c r="V89" s="60">
-        <v>3.320592</v>
+        <v>3.3065889999999998</v>
       </c>
       <c r="W89" s="60">
-        <v>8.4743410000000008</v>
+        <v>8.4694140000000004</v>
       </c>
       <c r="X89" s="60">
-        <v>7.1484610000000002</v>
+        <v>7.2630879999999998</v>
       </c>
       <c r="Y89" s="60">
-        <v>5.4806480000000004</v>
+        <v>5.4801140000000004</v>
       </c>
       <c r="Z89" s="60">
-        <v>5.6144730000000003</v>
+        <v>5.632746</v>
       </c>
       <c r="AA89" s="60">
-        <v>4.993735</v>
+        <v>4.9792360000000002</v>
       </c>
       <c r="AB89" s="60">
-        <v>4.4264380000000001</v>
+        <v>4.397939</v>
       </c>
       <c r="AC89" s="60">
-        <v>4.6866070000000004</v>
+        <v>4.6272970000000004</v>
       </c>
       <c r="AD89" s="60">
-        <v>5.2640669999999998</v>
+        <v>5.2945820000000001</v>
       </c>
       <c r="AE89" s="60">
-        <v>4.8277549999999998</v>
+        <v>4.7942830000000001</v>
       </c>
       <c r="AF89" s="60">
-        <v>4.1253859999999998</v>
+        <v>4.1837419999999996</v>
       </c>
       <c r="AG89" s="60">
-        <v>-0.44076300000000002</v>
+        <v>-0.40260800000000002</v>
       </c>
       <c r="AH89" s="60">
-        <v>7.4552940000000003</v>
+        <v>7.4873659999999997</v>
       </c>
       <c r="AI89" s="60">
-        <v>3.4226559999999999</v>
+        <v>3.4531830000000001</v>
       </c>
       <c r="AJ89" s="60">
-        <v>4.5308080000000004</v>
+        <v>4.5417160000000001</v>
       </c>
       <c r="AK89" s="60">
-        <v>4.1833640000000001</v>
+        <v>4.1881370000000002</v>
       </c>
       <c r="AL89" s="60">
-        <v>3.3735270000000002</v>
+        <v>4.0206660000000003</v>
       </c>
       <c r="AM89" s="60">
-        <v>3.5190649999999999</v>
+        <v>3.6933910000000001</v>
       </c>
       <c r="AN89" s="60">
-        <v>3.7981579999999999</v>
+        <v>3.7929490000000001</v>
       </c>
       <c r="AO89" s="60">
-        <v>3.7182930000000001</v>
+        <v>3.6853340000000001</v>
       </c>
       <c r="AP89" s="60">
-        <v>3.547282</v>
+        <v>3.5681620000000001</v>
       </c>
       <c r="AQ89" s="60">
-        <v>3.3725999999999998</v>
+        <v>3.3599039999999998</v>
       </c>
       <c r="AR89" s="61">
-        <v>3.59097</v>
+        <v>3.6198419999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
         <v>187</v>
       </c>
       <c r="C90" s="63">
-        <v>2.8866849999999999</v>
+        <v>2.8845689999999999</v>
       </c>
       <c r="D90" s="64">
-        <v>1.301587</v>
+        <v>1.3038149999999999</v>
       </c>
       <c r="E90" s="64">
-        <v>2.2956470000000002</v>
+        <v>2.295207</v>
       </c>
       <c r="F90" s="64">
-        <v>0.63537900000000003</v>
+        <v>0.63036700000000001</v>
       </c>
       <c r="G90" s="64">
-        <v>2.4064800000000002</v>
+        <v>2.4054340000000001</v>
       </c>
       <c r="H90" s="64">
-        <v>2.5928770000000001</v>
+        <v>2.5914670000000002</v>
       </c>
       <c r="I90" s="64">
-        <v>2.7593990000000002</v>
+        <v>2.7593969999999999</v>
       </c>
       <c r="J90" s="64">
-        <v>3.3962490000000001</v>
+        <v>3.3943050000000001</v>
       </c>
       <c r="K90" s="64">
-        <v>2.4843839999999999</v>
+        <v>2.4847039999999998</v>
       </c>
       <c r="L90" s="64">
-        <v>3.5528189999999999</v>
+        <v>3.5511569999999999</v>
       </c>
       <c r="M90" s="64">
-        <v>4.466971</v>
+        <v>4.4705490000000001</v>
       </c>
       <c r="N90" s="64">
-        <v>1.799464</v>
+        <v>1.7983880000000001</v>
       </c>
       <c r="O90" s="64">
-        <v>1.765163</v>
+        <v>1.763493</v>
       </c>
       <c r="P90" s="64">
-        <v>2.5496810000000001</v>
+        <v>2.5512619999999999</v>
       </c>
       <c r="Q90" s="64">
-        <v>3.6890580000000002</v>
+        <v>3.6894559999999998</v>
       </c>
       <c r="R90" s="64">
-        <v>3.1585139999999998</v>
+        <v>3.1601159999999999</v>
       </c>
       <c r="S90" s="64">
-        <v>3.5917650000000001</v>
+        <v>3.59043</v>
       </c>
       <c r="T90" s="64">
-        <v>3.2066789999999998</v>
+        <v>3.2063920000000001</v>
       </c>
       <c r="U90" s="64">
-        <v>1.053752</v>
+        <v>1.052468</v>
       </c>
       <c r="V90" s="64">
-        <v>-3.4869970000000001</v>
+        <v>-3.4871189999999999</v>
       </c>
       <c r="W90" s="64">
-        <v>3.0880679999999998</v>
+        <v>3.1121889999999999</v>
       </c>
       <c r="X90" s="64">
-        <v>2.2948919999999999</v>
+        <v>2.3226070000000001</v>
       </c>
       <c r="Y90" s="64">
-        <v>1.5401149999999999</v>
+        <v>1.5743819999999999</v>
       </c>
       <c r="Z90" s="64">
-        <v>1.558103</v>
+        <v>1.575034</v>
       </c>
       <c r="AA90" s="64">
-        <v>2.1100840000000001</v>
+        <v>2.1221869999999998</v>
       </c>
       <c r="AB90" s="64">
-        <v>2.3313199999999998</v>
+        <v>2.343159</v>
       </c>
       <c r="AC90" s="64">
-        <v>1.82908</v>
+        <v>1.820845</v>
       </c>
       <c r="AD90" s="64">
-        <v>2.5056099999999999</v>
+        <v>2.4988030000000001</v>
       </c>
       <c r="AE90" s="64">
-        <v>2.4520390000000001</v>
+        <v>2.4574630000000002</v>
       </c>
       <c r="AF90" s="64">
-        <v>1.95225</v>
+        <v>1.964609</v>
       </c>
       <c r="AG90" s="64">
-        <v>-3.9712200000000002</v>
+        <v>-3.9852910000000001</v>
       </c>
       <c r="AH90" s="64">
-        <v>5.9723220000000001</v>
+        <v>6.0444509999999996</v>
       </c>
       <c r="AI90" s="64">
-        <v>2.969964</v>
+        <v>3.147767</v>
       </c>
       <c r="AJ90" s="64">
-        <v>1.7791669999999999</v>
+        <v>1.808602</v>
       </c>
       <c r="AK90" s="64">
-        <v>1.9641470000000001</v>
+        <v>2.0131209999999999</v>
       </c>
       <c r="AL90" s="64">
-        <v>1.4946699999999999</v>
+        <v>1.6490069999999999</v>
       </c>
       <c r="AM90" s="64">
-        <v>1.6436059999999999</v>
+        <v>1.7746960000000001</v>
       </c>
       <c r="AN90" s="64">
-        <v>1.8252189999999999</v>
+        <v>1.846819</v>
       </c>
       <c r="AO90" s="64">
-        <v>1.820505</v>
+        <v>1.819064</v>
       </c>
       <c r="AP90" s="64">
-        <v>1.779234</v>
+        <v>1.7053609999999999</v>
       </c>
       <c r="AQ90" s="64">
-        <v>1.7554209999999999</v>
+        <v>1.632282</v>
       </c>
       <c r="AR90" s="65">
-        <v>1.7647759999999999</v>
+        <v>1.7556149999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
         <v>188</v>
       </c>
       <c r="C91" s="70">
-        <v>1.0133650000000001</v>
+        <v>1.0147330000000001</v>
       </c>
       <c r="D91" s="71">
-        <v>1.4816670000000001</v>
+        <v>1.4809099999999999</v>
       </c>
       <c r="E91" s="71">
-        <v>0.59674000000000005</v>
+        <v>0.59442399999999995</v>
       </c>
       <c r="F91" s="71">
-        <v>2.4018109999999999</v>
+        <v>2.4006690000000002</v>
       </c>
       <c r="G91" s="71">
-        <v>2.0536270000000001</v>
+        <v>2.0590820000000001</v>
       </c>
       <c r="H91" s="71">
-        <v>6.0864060000000002</v>
+        <v>6.0849219999999997</v>
       </c>
       <c r="I91" s="71">
-        <v>5.3536219999999997</v>
+        <v>5.3482510000000003</v>
       </c>
       <c r="J91" s="71">
-        <v>3.7501250000000002</v>
+        <v>3.7506080000000002</v>
       </c>
       <c r="K91" s="71">
-        <v>3.7325910000000002</v>
+        <v>3.73245</v>
       </c>
       <c r="L91" s="71">
-        <v>3.795785</v>
+        <v>3.7954669999999999</v>
       </c>
       <c r="M91" s="71">
-        <v>3.735204</v>
+        <v>3.732488</v>
       </c>
       <c r="N91" s="71">
-        <v>6.6775510000000002</v>
+        <v>6.6756979999999997</v>
       </c>
       <c r="O91" s="71">
-        <v>5.7277310000000003</v>
+        <v>5.7261410000000001</v>
       </c>
       <c r="P91" s="71">
-        <v>5.1563169999999996</v>
+        <v>5.1533629999999997</v>
       </c>
       <c r="Q91" s="71">
-        <v>7.4513569999999998</v>
+        <v>7.44834</v>
       </c>
       <c r="R91" s="71">
-        <v>8.0295260000000006</v>
+        <v>8.0045500000000001</v>
       </c>
       <c r="S91" s="71">
-        <v>7.1963229999999996</v>
+        <v>7.1965789999999998</v>
       </c>
       <c r="T91" s="71">
-        <v>7.7065020000000004</v>
+        <v>7.705768</v>
       </c>
       <c r="U91" s="71">
-        <v>6.9024960000000002</v>
+        <v>6.9016500000000001</v>
       </c>
       <c r="V91" s="71">
-        <v>2.8524020000000001</v>
+        <v>2.8530449999999998</v>
       </c>
       <c r="W91" s="71">
-        <v>6.2964029999999998</v>
+        <v>6.2939720000000001</v>
       </c>
       <c r="X91" s="71">
-        <v>4.5514780000000004</v>
+        <v>4.5511670000000004</v>
       </c>
       <c r="Y91" s="71">
-        <v>3.2484310000000001</v>
+        <v>3.2581289999999998</v>
       </c>
       <c r="Z91" s="71">
-        <v>5.3082149999999997</v>
+        <v>5.2976210000000004</v>
       </c>
       <c r="AA91" s="71">
-        <v>5.8580829999999997</v>
+        <v>5.865151</v>
       </c>
       <c r="AB91" s="71">
-        <v>4.8658799999999998</v>
+        <v>4.8632669999999996</v>
       </c>
       <c r="AC91" s="71">
-        <v>3.4719600000000002</v>
+        <v>3.487317</v>
       </c>
       <c r="AD91" s="71">
-        <v>4.4599409999999997</v>
+        <v>4.4524650000000001</v>
       </c>
       <c r="AE91" s="71">
-        <v>3.8496190000000001</v>
+        <v>3.8334769999999998</v>
       </c>
       <c r="AF91" s="71">
-        <v>4.1186730000000003</v>
+        <v>4.1388889999999998</v>
       </c>
       <c r="AG91" s="71">
-        <v>0.39146500000000001</v>
+        <v>0.40323500000000001</v>
       </c>
       <c r="AH91" s="71">
-        <v>4.113899</v>
+        <v>4.1386320000000003</v>
       </c>
       <c r="AI91" s="71">
-        <v>4.6607130000000003</v>
+        <v>4.6900019999999998</v>
       </c>
       <c r="AJ91" s="71">
-        <v>3.3451780000000002</v>
+        <v>3.436979</v>
       </c>
       <c r="AK91" s="71">
-        <v>4.2637549999999997</v>
+        <v>4.3724489999999996</v>
       </c>
       <c r="AL91" s="71">
-        <v>4.9072199999999997</v>
+        <v>5.2343710000000003</v>
       </c>
       <c r="AM91" s="71">
-        <v>6.0065189999999999</v>
+        <v>5.744059</v>
       </c>
       <c r="AN91" s="71">
-        <v>6.2976789999999996</v>
+        <v>6.2435359999999998</v>
       </c>
       <c r="AO91" s="71">
-        <v>5.920032</v>
+        <v>5.9718099999999996</v>
       </c>
       <c r="AP91" s="71">
-        <v>5.8773479999999996</v>
+        <v>5.8908639999999997</v>
       </c>
       <c r="AQ91" s="71">
-        <v>5.6490270000000002</v>
+        <v>5.7209250000000003</v>
       </c>
       <c r="AR91" s="72">
-        <v>5.9499129999999996</v>
+        <v>5.9140699999999997</v>
       </c>
     </row>
-    <row r="92" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
         <v>189</v>
@@ -13667,10 +13667,10 @@
         <v>5.6566229999999997</v>
       </c>
       <c r="O92" s="60">
-        <v>4.2364439999999997</v>
+        <v>4.2364430000000004</v>
       </c>
       <c r="P92" s="60">
-        <v>5.9465139999999996</v>
+        <v>5.9465149999999998</v>
       </c>
       <c r="Q92" s="60">
         <v>6.1015699999999997</v>
@@ -13688,7 +13688,7 @@
         <v>5.9302869999999999</v>
       </c>
       <c r="V92" s="60">
-        <v>5.7324580000000003</v>
+        <v>5.7324590000000004</v>
       </c>
       <c r="W92" s="60">
         <v>5.5939209999999999</v>
@@ -13697,7 +13697,7 @@
         <v>4.4424359999999998</v>
       </c>
       <c r="Y92" s="60">
-        <v>6.4411230000000002</v>
+        <v>6.4411240000000003</v>
       </c>
       <c r="Z92" s="60">
         <v>6.1166260000000001</v>
@@ -13709,136 +13709,136 @@
         <v>3.9914670000000001</v>
       </c>
       <c r="AC92" s="60">
-        <v>5.4357189999999997</v>
+        <v>5.4357160000000002</v>
       </c>
       <c r="AD92" s="60">
-        <v>5.927454</v>
+        <v>5.9274550000000001</v>
       </c>
       <c r="AE92" s="60">
-        <v>6.4685860000000002</v>
+        <v>6.4685870000000003</v>
       </c>
       <c r="AF92" s="60">
-        <v>6.833062</v>
+        <v>6.8330630000000001</v>
       </c>
       <c r="AG92" s="60">
-        <v>-0.356238</v>
+        <v>-0.251226</v>
       </c>
       <c r="AH92" s="60">
-        <v>2.611834</v>
+        <v>2.8552559999999998</v>
       </c>
       <c r="AI92" s="60">
-        <v>5.5187419999999996</v>
+        <v>5.5446540000000004</v>
       </c>
       <c r="AJ92" s="60">
-        <v>4.3383789999999998</v>
+        <v>4.3940109999999999</v>
       </c>
       <c r="AK92" s="60">
-        <v>3.2910780000000002</v>
+        <v>3.3390659999999999</v>
       </c>
       <c r="AL92" s="60">
-        <v>3.3162889999999998</v>
+        <v>2.927673</v>
       </c>
       <c r="AM92" s="60">
-        <v>5.3600199999999996</v>
+        <v>4.3695729999999999</v>
       </c>
       <c r="AN92" s="60">
-        <v>5.0338380000000003</v>
+        <v>5.1368770000000001</v>
       </c>
       <c r="AO92" s="60">
-        <v>5.3027069999999998</v>
+        <v>5.2060760000000004</v>
       </c>
       <c r="AP92" s="60">
-        <v>6.3056570000000001</v>
+        <v>5.807601</v>
       </c>
       <c r="AQ92" s="60">
-        <v>5.7000840000000004</v>
+        <v>5.7009809999999996</v>
       </c>
       <c r="AR92" s="61">
-        <v>5.5395560000000001</v>
+        <v>5.2429800000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
         <v>190</v>
       </c>
       <c r="C93" s="59">
-        <v>6.2492400000000004</v>
+        <v>6.2492340000000004</v>
       </c>
       <c r="D93" s="60">
-        <v>3.5057450000000001</v>
+        <v>3.5057429999999998</v>
       </c>
       <c r="E93" s="60">
-        <v>5.8603399999999999</v>
+        <v>5.8603370000000004</v>
       </c>
       <c r="F93" s="60">
-        <v>4.7543699999999998</v>
+        <v>4.7543730000000002</v>
       </c>
       <c r="G93" s="60">
-        <v>3.076495</v>
+        <v>3.0764990000000001</v>
       </c>
       <c r="H93" s="60">
-        <v>4.3155760000000001</v>
+        <v>4.3155799999999997</v>
       </c>
       <c r="I93" s="60">
-        <v>5.2030459999999996</v>
+        <v>5.2030479999999999</v>
       </c>
       <c r="J93" s="60">
-        <v>6.1513549999999997</v>
+        <v>6.1513559999999998</v>
       </c>
       <c r="K93" s="60">
-        <v>2.9036379999999999</v>
+        <v>2.9036439999999999</v>
       </c>
       <c r="L93" s="60">
-        <v>4.799207</v>
+        <v>4.7992160000000004</v>
       </c>
       <c r="M93" s="60">
-        <v>6.4232089999999999</v>
+        <v>6.4232100000000001</v>
       </c>
       <c r="N93" s="60">
-        <v>3.4181010000000001</v>
+        <v>3.418104</v>
       </c>
       <c r="O93" s="60">
-        <v>2.3562989999999999</v>
+        <v>2.356303</v>
       </c>
       <c r="P93" s="60">
-        <v>4.5942559999999997</v>
+        <v>4.5942600000000002</v>
       </c>
       <c r="Q93" s="60">
-        <v>3.6019320000000001</v>
+        <v>3.601934</v>
       </c>
       <c r="R93" s="60">
-        <v>3.174121</v>
+        <v>3.1741250000000001</v>
       </c>
       <c r="S93" s="60">
-        <v>4.7613820000000002</v>
+        <v>4.7613890000000003</v>
       </c>
       <c r="T93" s="60">
-        <v>6.4198459999999997</v>
+        <v>6.4198599999999999</v>
       </c>
       <c r="U93" s="60">
-        <v>5.0307959999999996</v>
+        <v>5.030799</v>
       </c>
       <c r="V93" s="60">
-        <v>2.4717720000000001</v>
+        <v>2.4717660000000001</v>
       </c>
       <c r="W93" s="60">
-        <v>4.2442830000000002</v>
+        <v>4.2442789999999997</v>
       </c>
       <c r="X93" s="60">
         <v>4.5006969999999997</v>
       </c>
       <c r="Y93" s="60">
-        <v>2.7662749999999998</v>
+        <v>2.766273</v>
       </c>
       <c r="Z93" s="60">
-        <v>3.354304</v>
+        <v>3.3542999999999998</v>
       </c>
       <c r="AA93" s="60">
-        <v>3.232952</v>
+        <v>3.2329490000000001</v>
       </c>
       <c r="AB93" s="60">
-        <v>3.7867259999999998</v>
+        <v>3.7867220000000001</v>
       </c>
       <c r="AC93" s="60">
         <v>4.5768120000000003</v>
@@ -13847,313 +13847,313 @@
         <v>4.2774770000000002</v>
       </c>
       <c r="AE93" s="60">
-        <v>4.0085410000000001</v>
+        <v>4.0087330000000003</v>
       </c>
       <c r="AF93" s="60">
-        <v>3.5362879999999999</v>
+        <v>3.5363020000000001</v>
       </c>
       <c r="AG93" s="60">
-        <v>-11.888</v>
+        <v>-11.886846</v>
       </c>
       <c r="AH93" s="60">
-        <v>3.7015880000000001</v>
+        <v>3.701568</v>
       </c>
       <c r="AI93" s="60">
-        <v>8.8237880000000004</v>
+        <v>8.6552059999999997</v>
       </c>
       <c r="AJ93" s="60">
-        <v>4.5054059999999998</v>
+        <v>4.5864200000000004</v>
       </c>
       <c r="AK93" s="60">
-        <v>4.5412840000000001</v>
+        <v>4.8231599999999997</v>
       </c>
       <c r="AL93" s="60">
-        <v>3.495736</v>
+        <v>3.6664099999999999</v>
       </c>
       <c r="AM93" s="60">
-        <v>3.5570719999999998</v>
+        <v>3.7657090000000002</v>
       </c>
       <c r="AN93" s="60">
-        <v>3.5486270000000002</v>
+        <v>3.776297</v>
       </c>
       <c r="AO93" s="60">
-        <v>3.466107</v>
+        <v>3.7082269999999999</v>
       </c>
       <c r="AP93" s="60">
-        <v>3.4435060000000002</v>
+        <v>3.6833230000000001</v>
       </c>
       <c r="AQ93" s="60">
-        <v>3.416814</v>
+        <v>3.6290330000000002</v>
       </c>
       <c r="AR93" s="61">
-        <v>3.4864099999999998</v>
+        <v>3.712504</v>
       </c>
     </row>
-    <row r="94" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
         <v>191</v>
       </c>
       <c r="C94" s="59">
-        <v>3.7914970000000001</v>
+        <v>3.7944360000000001</v>
       </c>
       <c r="D94" s="60">
-        <v>3.5217109999999998</v>
+        <v>3.515358</v>
       </c>
       <c r="E94" s="60">
-        <v>6.3159130000000001</v>
+        <v>6.3077500000000004</v>
       </c>
       <c r="F94" s="60">
-        <v>7.1554180000000001</v>
+        <v>7.1443479999999999</v>
       </c>
       <c r="G94" s="60">
-        <v>6.2128040000000002</v>
+        <v>6.2032769999999999</v>
       </c>
       <c r="H94" s="60">
-        <v>5.8832750000000003</v>
+        <v>5.876093</v>
       </c>
       <c r="I94" s="60">
-        <v>6.2443679999999997</v>
+        <v>6.232202</v>
       </c>
       <c r="J94" s="60">
-        <v>6.3813339999999998</v>
+        <v>6.3662749999999999</v>
       </c>
       <c r="K94" s="60">
-        <v>1.1781520000000001</v>
+        <v>1.1735770000000001</v>
       </c>
       <c r="L94" s="60">
-        <v>5.1337169999999999</v>
+        <v>5.1262939999999997</v>
       </c>
       <c r="M94" s="60">
-        <v>6.0332189999999999</v>
+        <v>6.024457</v>
       </c>
       <c r="N94" s="60">
-        <v>0.45651399999999998</v>
+        <v>0.45779199999999998</v>
       </c>
       <c r="O94" s="60">
-        <v>3.537363</v>
+        <v>3.532664</v>
       </c>
       <c r="P94" s="60">
-        <v>3.9067949999999998</v>
+        <v>3.906425</v>
       </c>
       <c r="Q94" s="60">
-        <v>6.4657080000000002</v>
+        <v>6.4578249999999997</v>
       </c>
       <c r="R94" s="60">
-        <v>6.3686970000000001</v>
+        <v>6.360646</v>
       </c>
       <c r="S94" s="60">
-        <v>8.1462529999999997</v>
+        <v>8.1388770000000008</v>
       </c>
       <c r="T94" s="60">
-        <v>7.3022770000000001</v>
+        <v>7.2945900000000004</v>
       </c>
       <c r="U94" s="60">
-        <v>2.1193330000000001</v>
+        <v>2.1158130000000002</v>
       </c>
       <c r="V94" s="60">
-        <v>0.17733399999999999</v>
+        <v>0.17277500000000001</v>
       </c>
       <c r="W94" s="60">
-        <v>10.094881000000001</v>
+        <v>10.083364</v>
       </c>
       <c r="X94" s="60">
-        <v>4.7056079999999998</v>
+        <v>4.7025620000000004</v>
       </c>
       <c r="Y94" s="60">
-        <v>3.6339160000000001</v>
+        <v>3.65612</v>
       </c>
       <c r="Z94" s="60">
-        <v>4.3082060000000002</v>
+        <v>4.3023049999999996</v>
       </c>
       <c r="AA94" s="60">
-        <v>4.5216289999999999</v>
+        <v>4.5154249999999996</v>
       </c>
       <c r="AB94" s="60">
-        <v>3.4409830000000001</v>
+        <v>3.462507</v>
       </c>
       <c r="AC94" s="60">
-        <v>3.5557500000000002</v>
+        <v>3.5832989999999998</v>
       </c>
       <c r="AD94" s="60">
-        <v>3.617896</v>
+        <v>3.6693030000000002</v>
       </c>
       <c r="AE94" s="60">
-        <v>3.776767</v>
+        <v>3.7895029999999998</v>
       </c>
       <c r="AF94" s="60">
-        <v>2.0819200000000002</v>
+        <v>2.2018249999999999</v>
       </c>
       <c r="AG94" s="60">
-        <v>-5.2268879999999998</v>
+        <v>-5.1741659999999996</v>
       </c>
       <c r="AH94" s="60">
-        <v>9.5706340000000001</v>
+        <v>9.6312499999999996</v>
       </c>
       <c r="AI94" s="60">
-        <v>5.9926269999999997</v>
+        <v>5.9981439999999999</v>
       </c>
       <c r="AJ94" s="60">
-        <v>2.9931719999999999</v>
+        <v>3.027012</v>
       </c>
       <c r="AK94" s="60">
-        <v>5.7159170000000001</v>
+        <v>5.7151810000000003</v>
       </c>
       <c r="AL94" s="60">
-        <v>2.8924300000000001</v>
+        <v>2.7086929999999998</v>
       </c>
       <c r="AM94" s="60">
-        <v>3.694258</v>
+        <v>3.564924</v>
       </c>
       <c r="AN94" s="60">
-        <v>4.0842280000000004</v>
+        <v>4.1462349999999999</v>
       </c>
       <c r="AO94" s="60">
-        <v>4.3874909999999998</v>
+        <v>4.0841130000000003</v>
       </c>
       <c r="AP94" s="60">
-        <v>4.088317</v>
+        <v>4.3621639999999999</v>
       </c>
       <c r="AQ94" s="60">
-        <v>2.9262229999999998</v>
+        <v>2.9031950000000002</v>
       </c>
       <c r="AR94" s="61">
-        <v>3.83487</v>
+        <v>3.8107980000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
         <v>192</v>
       </c>
       <c r="C95" s="59">
-        <v>3.6574089999999999</v>
+        <v>3.6507830000000001</v>
       </c>
       <c r="D95" s="60">
-        <v>1.6983490000000001</v>
+        <v>1.69468</v>
       </c>
       <c r="E95" s="60">
-        <v>-0.658358</v>
+        <v>-0.66642699999999999</v>
       </c>
       <c r="F95" s="60">
-        <v>4.4509569999999998</v>
+        <v>4.4441829999999998</v>
       </c>
       <c r="G95" s="60">
-        <v>7.5205999999999995E-2</v>
+        <v>9.2774999999999996E-2</v>
       </c>
       <c r="H95" s="60">
-        <v>5.832427</v>
+        <v>5.8290509999999998</v>
       </c>
       <c r="I95" s="60">
-        <v>7.140752</v>
+        <v>7.1252979999999999</v>
       </c>
       <c r="J95" s="60">
-        <v>4.6229339999999999</v>
+        <v>4.6230700000000002</v>
       </c>
       <c r="K95" s="60">
-        <v>2.1164839999999998</v>
+        <v>2.1178240000000002</v>
       </c>
       <c r="L95" s="60">
-        <v>4.0757919999999999</v>
+        <v>3.7150609999999999</v>
       </c>
       <c r="M95" s="60">
-        <v>2.6225890000000001</v>
+        <v>2.1703039999999998</v>
       </c>
       <c r="N95" s="60">
-        <v>5.6991360000000002</v>
+        <v>5.31806</v>
       </c>
       <c r="O95" s="60">
-        <v>2.8492320000000002</v>
+        <v>2.2577919999999998</v>
       </c>
       <c r="P95" s="60">
-        <v>2.1744270000000001</v>
+        <v>1.3119970000000001</v>
       </c>
       <c r="Q95" s="60">
-        <v>6.5987460000000002</v>
+        <v>6.0604279999999999</v>
       </c>
       <c r="R95" s="60">
-        <v>7.0439619999999996</v>
+        <v>6.4610839999999996</v>
       </c>
       <c r="S95" s="60">
-        <v>6.1886190000000001</v>
+        <v>5.8688260000000003</v>
       </c>
       <c r="T95" s="60">
-        <v>6.6437359999999996</v>
+        <v>6.3416059999999996</v>
       </c>
       <c r="U95" s="60">
-        <v>6.3524370000000001</v>
+        <v>5.810867</v>
       </c>
       <c r="V95" s="60">
-        <v>5.4940680000000004</v>
+        <v>5.5429659999999998</v>
       </c>
       <c r="W95" s="60">
-        <v>9.6981280000000005</v>
+        <v>9.9683189999999993</v>
       </c>
       <c r="X95" s="60">
-        <v>7.7779550000000004</v>
+        <v>7.9599900000000003</v>
       </c>
       <c r="Y95" s="60">
-        <v>6.2571859999999999</v>
+        <v>6.599564</v>
       </c>
       <c r="Z95" s="60">
-        <v>5.980442</v>
+        <v>5.8405310000000004</v>
       </c>
       <c r="AA95" s="60">
-        <v>6.3462509999999996</v>
+        <v>6.2589860000000002</v>
       </c>
       <c r="AB95" s="60">
-        <v>5.8488069999999999</v>
+        <v>5.7321</v>
       </c>
       <c r="AC95" s="60">
-        <v>4.3223279999999997</v>
+        <v>4.3154700000000004</v>
       </c>
       <c r="AD95" s="60">
-        <v>6.2360449999999998</v>
+        <v>6.1857839999999999</v>
       </c>
       <c r="AE95" s="60">
-        <v>5.954796</v>
+        <v>5.8701100000000004</v>
       </c>
       <c r="AF95" s="60">
-        <v>5.7205389999999996</v>
+        <v>5.4054580000000003</v>
       </c>
       <c r="AG95" s="60">
-        <v>0.82383799999999996</v>
+        <v>0.55696100000000004</v>
       </c>
       <c r="AH95" s="60">
-        <v>6.0153239999999997</v>
+        <v>6.0667859999999996</v>
       </c>
       <c r="AI95" s="60">
-        <v>5.4343680000000001</v>
+        <v>5.4976070000000004</v>
       </c>
       <c r="AJ95" s="60">
-        <v>5.3521390000000002</v>
+        <v>5.3786759999999996</v>
       </c>
       <c r="AK95" s="60">
-        <v>5.3764099999999999</v>
+        <v>5.3561399999999999</v>
       </c>
       <c r="AL95" s="60">
-        <v>5.4821400000000002</v>
+        <v>6.033442</v>
       </c>
       <c r="AM95" s="60">
-        <v>6.940582</v>
+        <v>6.2947189999999997</v>
       </c>
       <c r="AN95" s="60">
-        <v>6.4125389999999998</v>
+        <v>6.3912509999999996</v>
       </c>
       <c r="AO95" s="60">
-        <v>6.288144</v>
+        <v>6.192285</v>
       </c>
       <c r="AP95" s="60">
-        <v>6.1246660000000004</v>
+        <v>6.0312169999999998</v>
       </c>
       <c r="AQ95" s="60">
-        <v>5.9708600000000001</v>
+        <v>5.9324820000000003</v>
       </c>
       <c r="AR95" s="61">
-        <v>6.3468410000000004</v>
+        <v>6.1682579999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
         <v>193</v>
@@ -14168,388 +14168,388 @@
         <v>-5.7441800000000001</v>
       </c>
       <c r="F96" s="64">
-        <v>-5.5665760000000004</v>
+        <v>-5.4764629999999999</v>
       </c>
       <c r="G96" s="64">
-        <v>-6.7946220000000004</v>
+        <v>-6.6099300000000003</v>
       </c>
       <c r="H96" s="64">
-        <v>-2.0734270000000001</v>
+        <v>-1.9852069999999999</v>
       </c>
       <c r="I96" s="64">
-        <v>1.6669179999999999</v>
+        <v>1.8128899999999999</v>
       </c>
       <c r="J96" s="64">
-        <v>3.5677940000000001</v>
+        <v>3.762832</v>
       </c>
       <c r="K96" s="64">
-        <v>1.9044639999999999</v>
+        <v>1.861477</v>
       </c>
       <c r="L96" s="64">
-        <v>3.6087090000000002</v>
+        <v>3.4104610000000002</v>
       </c>
       <c r="M96" s="64">
-        <v>6.0388609999999998</v>
+        <v>5.8100560000000003</v>
       </c>
       <c r="N96" s="64">
-        <v>7.5181870000000002</v>
+        <v>7.2651899999999996</v>
       </c>
       <c r="O96" s="64">
-        <v>6.4028289999999997</v>
+        <v>6.1985749999999999</v>
       </c>
       <c r="P96" s="64">
-        <v>7.4620430000000004</v>
+        <v>7.2444059999999997</v>
       </c>
       <c r="Q96" s="64">
-        <v>7.7132209999999999</v>
+        <v>7.5416650000000001</v>
       </c>
       <c r="R96" s="64">
-        <v>9.0934279999999994</v>
+        <v>8.9855429999999998</v>
       </c>
       <c r="S96" s="64">
-        <v>10.448195</v>
+        <v>10.435027</v>
       </c>
       <c r="T96" s="64">
-        <v>10.067563</v>
+        <v>10.042168999999999</v>
       </c>
       <c r="U96" s="64">
-        <v>6.8306469999999999</v>
+        <v>6.6118350000000001</v>
       </c>
       <c r="V96" s="64">
-        <v>4.3017209999999997</v>
+        <v>4.2500249999999999</v>
       </c>
       <c r="W96" s="64">
-        <v>7.2139040000000003</v>
+        <v>6.9958489999999998</v>
       </c>
       <c r="X96" s="64">
-        <v>6.4474410000000004</v>
+        <v>6.7055530000000001</v>
       </c>
       <c r="Y96" s="64">
-        <v>5.3670080000000002</v>
+        <v>5.8469230000000003</v>
       </c>
       <c r="Z96" s="64">
-        <v>5.8095090000000003</v>
+        <v>6.6017830000000002</v>
       </c>
       <c r="AA96" s="64">
-        <v>4.8052419999999998</v>
+        <v>4.9150479999999996</v>
       </c>
       <c r="AB96" s="64">
-        <v>3.027501</v>
+        <v>2.9684029999999999</v>
       </c>
       <c r="AC96" s="64">
-        <v>2.1797559999999998</v>
+        <v>2.4460150000000001</v>
       </c>
       <c r="AD96" s="64">
-        <v>4.1028120000000001</v>
+        <v>4.2495849999999997</v>
       </c>
       <c r="AE96" s="64">
-        <v>4.1649029999999998</v>
+        <v>4.3741139999999996</v>
       </c>
       <c r="AF96" s="64">
-        <v>3.9807389999999998</v>
+        <v>4.5639859999999999</v>
       </c>
       <c r="AG96" s="64">
-        <v>-2.4562409999999999</v>
+        <v>-2.4307850000000002</v>
       </c>
       <c r="AH96" s="64">
-        <v>4.1414660000000003</v>
+        <v>4.771827</v>
       </c>
       <c r="AI96" s="64">
-        <v>3.9351210000000001</v>
+        <v>3.8028840000000002</v>
       </c>
       <c r="AJ96" s="64">
-        <v>4.4211689999999999</v>
+        <v>4.581156</v>
       </c>
       <c r="AK96" s="64">
-        <v>4.5680680000000002</v>
+        <v>4.564775</v>
       </c>
       <c r="AL96" s="64">
-        <v>4.3850519999999999</v>
+        <v>4.9586139999999999</v>
       </c>
       <c r="AM96" s="64">
-        <v>4.0939620000000003</v>
+        <v>4.5255539999999996</v>
       </c>
       <c r="AN96" s="64">
-        <v>4.1016579999999996</v>
+        <v>4.2669509999999997</v>
       </c>
       <c r="AO96" s="64">
-        <v>3.666401</v>
+        <v>3.8291780000000002</v>
       </c>
       <c r="AP96" s="64">
-        <v>3.840938</v>
+        <v>3.9634290000000001</v>
       </c>
       <c r="AQ96" s="64">
-        <v>3.858508</v>
+        <v>3.9859270000000002</v>
       </c>
       <c r="AR96" s="65">
-        <v>3.9121610000000002</v>
+        <v>4.1139080000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
         <v>194</v>
       </c>
       <c r="C97" s="70">
-        <v>1.299275</v>
+        <v>1.2983469999999999</v>
       </c>
       <c r="D97" s="71">
-        <v>2.9130069999999999</v>
+        <v>2.5778300000000001</v>
       </c>
       <c r="E97" s="71">
-        <v>2.2630000000000001E-2</v>
+        <v>0.23560800000000001</v>
       </c>
       <c r="F97" s="71">
-        <v>0.71858699999999998</v>
+        <v>0.80260799999999999</v>
       </c>
       <c r="G97" s="71">
-        <v>1.5300940000000001</v>
+        <v>1.406776</v>
       </c>
       <c r="H97" s="71">
-        <v>2.513029</v>
+        <v>2.4498829999999998</v>
       </c>
       <c r="I97" s="71">
-        <v>4.7863819999999997</v>
+        <v>4.7123900000000001</v>
       </c>
       <c r="J97" s="71">
-        <v>3.1029110000000002</v>
+        <v>3.0818050000000001</v>
       </c>
       <c r="K97" s="71">
-        <v>3.1354289999999998</v>
+        <v>3.0729980000000001</v>
       </c>
       <c r="L97" s="71">
-        <v>1.944442</v>
+        <v>1.7732380000000001</v>
       </c>
       <c r="M97" s="71">
-        <v>3.9889640000000002</v>
+        <v>4.0309629999999999</v>
       </c>
       <c r="N97" s="71">
-        <v>5.8126300000000004</v>
+        <v>5.8212380000000001</v>
       </c>
       <c r="O97" s="71">
-        <v>6.5261319999999996</v>
+        <v>7.2043480000000004</v>
       </c>
       <c r="P97" s="71">
-        <v>6.4225539999999999</v>
+        <v>6.5664949999999997</v>
       </c>
       <c r="Q97" s="71">
-        <v>7.7132800000000001</v>
+        <v>7.9101619999999997</v>
       </c>
       <c r="R97" s="71">
-        <v>7.1748620000000001</v>
+        <v>7.0611420000000003</v>
       </c>
       <c r="S97" s="71">
-        <v>5.9367530000000004</v>
+        <v>5.9715550000000004</v>
       </c>
       <c r="T97" s="71">
-        <v>7.0177839999999998</v>
+        <v>6.9997939999999996</v>
       </c>
       <c r="U97" s="71">
-        <v>5.6723379999999999</v>
+        <v>5.7563740000000001</v>
       </c>
       <c r="V97" s="71">
-        <v>4.2250399999999999</v>
+        <v>4.7108439999999998</v>
       </c>
       <c r="W97" s="71">
-        <v>7.8094489999999999</v>
+        <v>8.2688159999999993</v>
       </c>
       <c r="X97" s="71">
-        <v>2.8280970000000001</v>
+        <v>3.1355080000000002</v>
       </c>
       <c r="Y97" s="71">
-        <v>8.9795809999999996</v>
+        <v>8.4685360000000003</v>
       </c>
       <c r="Z97" s="71">
-        <v>4.1267209999999999</v>
+        <v>4.263522</v>
       </c>
       <c r="AA97" s="71">
-        <v>4.9702580000000003</v>
+        <v>5.124657</v>
       </c>
       <c r="AB97" s="71">
-        <v>3.8315229999999998</v>
+        <v>3.677565</v>
       </c>
       <c r="AC97" s="71">
-        <v>1.5762970000000001</v>
+        <v>1.213449</v>
       </c>
       <c r="AD97" s="71">
-        <v>4.1752700000000003</v>
+        <v>3.790025</v>
       </c>
       <c r="AE97" s="71">
-        <v>3.343826</v>
+        <v>3.1805850000000002</v>
       </c>
       <c r="AF97" s="71">
-        <v>2.9096839999999999</v>
+        <v>2.7855159999999999</v>
       </c>
       <c r="AG97" s="71">
-        <v>-1.2446330000000001</v>
+        <v>-3.1138240000000001</v>
       </c>
       <c r="AH97" s="71">
-        <v>4.810187</v>
+        <v>3.7599580000000001</v>
       </c>
       <c r="AI97" s="71">
-        <v>3.9985300000000001</v>
+        <v>4.3482919999999998</v>
       </c>
       <c r="AJ97" s="71">
-        <v>3.5625149999999999</v>
+        <v>3.7223489999999999</v>
       </c>
       <c r="AK97" s="71">
-        <v>3.8371599999999999</v>
+        <v>4.1040869999999998</v>
       </c>
       <c r="AL97" s="71">
-        <v>4.504156</v>
+        <v>4.8470659999999999</v>
       </c>
       <c r="AM97" s="71">
-        <v>4.8066529999999998</v>
+        <v>5.0174469999999998</v>
       </c>
       <c r="AN97" s="71">
-        <v>4.995438</v>
+        <v>5.131672</v>
       </c>
       <c r="AO97" s="71">
-        <v>4.9072389999999997</v>
+        <v>4.9978660000000001</v>
       </c>
       <c r="AP97" s="71">
-        <v>4.9921579999999999</v>
+        <v>5.0030939999999999</v>
       </c>
       <c r="AQ97" s="71">
-        <v>4.8688890000000002</v>
+        <v>4.926393</v>
       </c>
       <c r="AR97" s="72">
-        <v>4.9140509999999997</v>
+        <v>5.0152739999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
         <v>195</v>
       </c>
       <c r="C98" s="63">
-        <v>7.7217140000000004</v>
+        <v>7.7835799999999997</v>
       </c>
       <c r="D98" s="64">
-        <v>9.2419750000000001</v>
+        <v>9.2788880000000002</v>
       </c>
       <c r="E98" s="64">
-        <v>5.529865</v>
+        <v>5.506634</v>
       </c>
       <c r="F98" s="64">
-        <v>1.1437759999999999</v>
+        <v>1.174253</v>
       </c>
       <c r="G98" s="64">
-        <v>1.0465089999999999</v>
+        <v>1.0961810000000001</v>
       </c>
       <c r="H98" s="64">
-        <v>3.946777</v>
+        <v>3.9733930000000002</v>
       </c>
       <c r="I98" s="64">
-        <v>4.499943</v>
+        <v>4.5552339999999996</v>
       </c>
       <c r="J98" s="64">
-        <v>3.0195910000000001</v>
+        <v>3.0445000000000002</v>
       </c>
       <c r="K98" s="64">
-        <v>2.9574660000000002</v>
+        <v>2.937989</v>
       </c>
       <c r="L98" s="64">
-        <v>1.749147</v>
+        <v>1.702329</v>
       </c>
       <c r="M98" s="64">
-        <v>4.8313569999999997</v>
+        <v>4.7890379999999997</v>
       </c>
       <c r="N98" s="64">
-        <v>3.6436709999999999</v>
+        <v>3.5654409999999999</v>
       </c>
       <c r="O98" s="64">
-        <v>2.592244</v>
+        <v>2.582106</v>
       </c>
       <c r="P98" s="64">
-        <v>2.7446679999999999</v>
+        <v>2.7267619999999999</v>
       </c>
       <c r="Q98" s="64">
-        <v>10.535288</v>
+        <v>10.455439999999999</v>
       </c>
       <c r="R98" s="64">
-        <v>6.2583289999999998</v>
+        <v>6.1913130000000001</v>
       </c>
       <c r="S98" s="64">
-        <v>6.3196250000000003</v>
+        <v>6.2796560000000001</v>
       </c>
       <c r="T98" s="64">
-        <v>7.1406770000000002</v>
+        <v>7.1250340000000003</v>
       </c>
       <c r="U98" s="64">
-        <v>4.2132160000000001</v>
+        <v>4.1056980000000003</v>
       </c>
       <c r="V98" s="64">
-        <v>2.1663749999999999</v>
+        <v>2.127745</v>
       </c>
       <c r="W98" s="64">
-        <v>4.3044200000000004</v>
+        <v>4.2367540000000004</v>
       </c>
       <c r="X98" s="64">
-        <v>3.9702090000000001</v>
+        <v>4.8718070000000004</v>
       </c>
       <c r="Y98" s="64">
-        <v>3.4453390000000002</v>
+        <v>3.454129</v>
       </c>
       <c r="Z98" s="64">
-        <v>2.9951829999999999</v>
+        <v>3.146258</v>
       </c>
       <c r="AA98" s="64">
-        <v>3.4178980000000001</v>
+        <v>3.4686349999999999</v>
       </c>
       <c r="AB98" s="64">
-        <v>1.2614540000000001</v>
+        <v>1.1942470000000001</v>
       </c>
       <c r="AC98" s="64">
-        <v>4.6652420000000001</v>
+        <v>4.1961849999999998</v>
       </c>
       <c r="AD98" s="64">
-        <v>2.21671</v>
+        <v>2.3326609999999999</v>
       </c>
       <c r="AE98" s="64">
-        <v>1.9361219999999999</v>
+        <v>1.484647</v>
       </c>
       <c r="AF98" s="64">
-        <v>1.49485</v>
+        <v>1.804216</v>
       </c>
       <c r="AG98" s="64">
-        <v>-1.934949</v>
+        <v>-1.533047</v>
       </c>
       <c r="AH98" s="64">
-        <v>3.801952</v>
+        <v>3.984772</v>
       </c>
       <c r="AI98" s="64">
-        <v>5.465592</v>
+        <v>5.5481920000000002</v>
       </c>
       <c r="AJ98" s="64">
-        <v>3.1117509999999999</v>
+        <v>3.2775449999999999</v>
       </c>
       <c r="AK98" s="64">
-        <v>2.8864139999999998</v>
+        <v>2.9230139999999998</v>
       </c>
       <c r="AL98" s="64">
-        <v>1.812365</v>
+        <v>2.0316960000000002</v>
       </c>
       <c r="AM98" s="64">
-        <v>3.1397010000000001</v>
+        <v>3.0061559999999998</v>
       </c>
       <c r="AN98" s="64">
-        <v>3.920118</v>
+        <v>3.7207119999999998</v>
       </c>
       <c r="AO98" s="64">
-        <v>4.0643719999999997</v>
+        <v>3.9862519999999999</v>
       </c>
       <c r="AP98" s="64">
-        <v>4.495425</v>
+        <v>4.2586890000000004</v>
       </c>
       <c r="AQ98" s="64">
-        <v>4.2767689999999998</v>
+        <v>4.2371429999999997</v>
       </c>
       <c r="AR98" s="65">
-        <v>3.9782449999999998</v>
+        <v>3.8407629999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A99" s="74"/>
       <c r="B99" s="75"/>
       <c r="C99" s="76"/>
@@ -14595,7 +14595,7 @@
       <c r="AQ99" s="76"/>
       <c r="AR99" s="76"/>
     </row>
-    <row r="100" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>196</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="AQ100" s="77"/>
       <c r="AR100" s="77"/>
     </row>
-    <row r="101" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>197</v>
       </c>
@@ -14689,7 +14689,7 @@
       <c r="AQ101" s="77"/>
       <c r="AR101" s="77"/>
     </row>
-    <row r="102" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>198</v>
       </c>
@@ -14736,7 +14736,7 @@
       <c r="AQ102" s="77"/>
       <c r="AR102" s="77"/>
     </row>
-    <row r="103" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>199</v>
       </c>
@@ -14783,7 +14783,7 @@
       <c r="AQ103" s="77"/>
       <c r="AR103" s="77"/>
     </row>
-    <row r="104" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>200</v>
       </c>
@@ -14830,7 +14830,7 @@
       <c r="AQ104" s="77"/>
       <c r="AR104" s="77"/>
     </row>
-    <row r="105" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>201</v>
       </c>
@@ -14877,7 +14877,7 @@
       <c r="AQ105" s="77"/>
       <c r="AR105" s="77"/>
     </row>
-    <row r="106" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B106" s="78"/>
       <c r="C106" s="77"/>
       <c r="D106" s="77"/>
@@ -14922,7 +14922,7 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B107" s="79" t="s">
         <v>202</v>
       </c>
@@ -14969,7 +14969,7 @@
       <c r="AQ107" s="77"/>
       <c r="AR107" s="77"/>
     </row>
-    <row r="108" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B108" s="2"/>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
@@ -15014,7 +15014,7 @@
       <c r="AQ108" s="77"/>
       <c r="AR108" s="77"/>
     </row>
-    <row r="109" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B109" s="82" t="s">
         <v>204</v>
       </c>
@@ -15061,7 +15061,7 @@
       <c r="AQ109" s="77"/>
       <c r="AR109" s="77"/>
     </row>
-    <row r="110" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B110" s="82" t="s">
         <v>205</v>
       </c>
@@ -15108,7 +15108,7 @@
       <c r="AQ110" s="77"/>
       <c r="AR110" s="77"/>
     </row>
-    <row r="111" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B111" s="82" t="s">
         <v>206</v>
       </c>
@@ -15155,7 +15155,7 @@
       <c r="AQ111" s="77"/>
       <c r="AR111" s="77"/>
     </row>
-    <row r="112" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:44" x14ac:dyDescent="0.35">
       <c r="B112" s="2" t="s">
         <v>203</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="AQ112" s="77"/>
       <c r="AR112" s="77"/>
     </row>
-    <row r="113" spans="2:44" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:44" x14ac:dyDescent="0.35">
       <c r="B113" s="80"/>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
@@ -15249,11 +15249,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{F0D1F80F-2FE0-4781-99D1-D3C730C1B367}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{408D05B5-B1BC-4988-B601-399B6AE1F419}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{5837B11B-AB08-4796-A93D-2BFE550782B6}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{6B45C03C-1110-4A07-AD5B-2D5488FB2A50}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{A4BBF2BB-D946-4B04-8510-9887E95D06B9}"/>
+    <hyperlink ref="B109" r:id="rId1" xr:uid="{569AAB85-BA46-49EA-A996-AB4FE7CDCF20}"/>
+    <hyperlink ref="B110" r:id="rId2" xr:uid="{E26C8F43-5B52-46D4-8B83-2C2A3155E889}"/>
+    <hyperlink ref="B107" r:id="rId3" xr:uid="{9131292A-9201-4268-9E02-7105B3522BB5}"/>
+    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{BA9503BC-AAAB-4F75-80E7-7A31433F44D1}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{B7B93C08-401A-4F01-B6DC-D436DF34DFD8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2025_Tableau_annexe_Tab02.xlsx
+++ b/DDAf_2025_Tableau_annexe_Tab02.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2CD2A15-D832-473B-B150-5A485A267189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{23A8DAAF-5142-430C-81DC-75729B853600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{D2C61B6E-DEC8-461B-BD52-8B1D36F0E865}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{4DD36941-F69A-4382-B356-42B98CA9B979}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab02" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab02'!$A$2:$AO$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab02'!$A$1:$AM$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Tab02'!$B$1:$B$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Tab02'!$A$1:$AL$104</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,15 +37,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="207">
-  <si>
-    <t>Table 2: Annual real GDP growth rate, 1990-2030</t>
-  </si>
-  <si>
-    <t>CntryCode</t>
-  </si>
-  <si>
-    <t>Country (Resource-rich countries are shaded)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
+  <si>
+    <t>Tableau 2 : Taux de croissance annuel du PIB réel, 1990-2030</t>
+  </si>
+  <si>
+    <t>ISO3 Code</t>
+  </si>
+  <si>
+    <t>Pays (pays riches en ressources ombrés)</t>
   </si>
   <si>
     <t>1990</t>
@@ -132,21 +132,9 @@
     <t>2017</t>
   </si>
   <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>2023</t>
   </si>
   <si>
@@ -156,28 +144,13 @@
     <t>2025</t>
   </si>
   <si>
-    <t>2026</t>
-  </si>
-  <si>
-    <t>2027</t>
-  </si>
-  <si>
-    <t>2028</t>
-  </si>
-  <si>
-    <t>2029</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>Average annual projected growth, 2025-30</t>
+    <t>Croissance annuelle moyenne projetée, 2025-30</t>
   </si>
   <si>
     <t>AGO</t>
   </si>
   <si>
-    <t>Angola*</t>
+    <t>Angola</t>
   </si>
   <si>
     <t>BWA</t>
@@ -213,7 +186,7 @@
     <t>NAM</t>
   </si>
   <si>
-    <t>Namibia</t>
+    <t>Namibie</t>
   </si>
   <si>
     <t>..</t>
@@ -222,13 +195,13 @@
     <t>ZAF</t>
   </si>
   <si>
-    <t>South Africa</t>
+    <t>Afrique du Sud</t>
   </si>
   <si>
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambia</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -237,7 +210,10 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Southern Africa</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Afrique Australe</t>
   </si>
   <si>
     <t>BDI</t>
@@ -249,58 +225,58 @@
     <t>CMR</t>
   </si>
   <si>
-    <t>Cameroon</t>
+    <t>Cameroun</t>
   </si>
   <si>
     <t>CAF</t>
   </si>
   <si>
-    <t>Central African Republic</t>
+    <t>République centrafricaine</t>
   </si>
   <si>
     <t>TCD</t>
   </si>
   <si>
-    <t>Chad*</t>
+    <t>Tchad</t>
   </si>
   <si>
     <t>COG</t>
   </si>
   <si>
-    <t>Congo Republic*</t>
+    <t>République du Congo</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
   </si>
   <si>
-    <t>Equatorial Guinea*</t>
+    <t>Guinée équatoriale</t>
   </si>
   <si>
     <t>GAB</t>
   </si>
   <si>
-    <t>Gabon*</t>
+    <t>Gabon</t>
   </si>
   <si>
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
-  </si>
-  <si>
-    <t>Central Africa</t>
+    <t>Sao Tomé-et-Principe</t>
+  </si>
+  <si>
+    <t>Afrique Centrale</t>
   </si>
   <si>
     <t>COM</t>
   </si>
   <si>
-    <t>Comoros</t>
+    <t>Comores</t>
   </si>
   <si>
     <t>DJI</t>
@@ -312,13 +288,13 @@
     <t>ERI</t>
   </si>
   <si>
-    <t>Eritrea</t>
+    <t>Érythrée</t>
   </si>
   <si>
     <t>ETH</t>
   </si>
   <si>
-    <t>Ethiopia</t>
+    <t>Éthiopie</t>
   </si>
   <si>
     <t>KEN</t>
@@ -336,7 +312,7 @@
     <t>MUS</t>
   </si>
   <si>
-    <t>Mauritius</t>
+    <t>Maurice</t>
   </si>
   <si>
     <t>RWA</t>
@@ -354,79 +330,79 @@
     <t>SOM</t>
   </si>
   <si>
-    <t>Somalia</t>
+    <t>Somalie</t>
   </si>
   <si>
     <t>SSD</t>
   </si>
   <si>
-    <t>South Sudan*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
   </si>
   <si>
-    <t>Sudan</t>
+    <t>Soudan</t>
   </si>
   <si>
     <t>TZA</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
   </si>
   <si>
-    <t>Uganda</t>
-  </si>
-  <si>
-    <t>East Africa</t>
+    <t>Ouganda</t>
+  </si>
+  <si>
+    <t>Afrique de l'Est</t>
   </si>
   <si>
     <t>DZA</t>
   </si>
   <si>
-    <t>Algeria*</t>
+    <t>Algérie</t>
   </si>
   <si>
     <t>EGY</t>
   </si>
   <si>
-    <t>Egypt</t>
+    <t>Égypte</t>
   </si>
   <si>
     <t>LBY</t>
   </si>
   <si>
-    <t>Libya*</t>
+    <t>Libye</t>
   </si>
   <si>
     <t>MRT</t>
   </si>
   <si>
-    <t>Mauritania*</t>
+    <t>Mauritanie</t>
   </si>
   <si>
     <t>MAR</t>
   </si>
   <si>
-    <t>Morocco</t>
+    <t>Maroc</t>
   </si>
   <si>
     <t>TUN</t>
   </si>
   <si>
-    <t>Tunisia</t>
-  </si>
-  <si>
-    <t>North Africa</t>
+    <t>Tunisie</t>
+  </si>
+  <si>
+    <t>Afrique du Nord</t>
   </si>
   <si>
     <t>BEN</t>
   </si>
   <si>
-    <t>Benin</t>
+    <t>Bénin</t>
   </si>
   <si>
     <t>BFA</t>
@@ -438,7 +414,7 @@
     <t>CPV</t>
   </si>
   <si>
-    <t>Cabo Verde*</t>
+    <t>Cabo Verde</t>
   </si>
   <si>
     <t>CIV</t>
@@ -450,7 +426,7 @@
     <t>GMB</t>
   </si>
   <si>
-    <t>Gambia</t>
+    <t>Gambie</t>
   </si>
   <si>
     <t>GHA</t>
@@ -462,13 +438,13 @@
     <t>GIN</t>
   </si>
   <si>
-    <t>Guinea</t>
+    <t>Guinée</t>
   </si>
   <si>
     <t>GNB</t>
   </si>
   <si>
-    <t>Guinea-Bissau</t>
+    <t>Guinée-Bissau</t>
   </si>
   <si>
     <t>LBR</t>
@@ -498,7 +474,7 @@
     <t>SEN</t>
   </si>
   <si>
-    <t>Senegal</t>
+    <t>Sénégal</t>
   </si>
   <si>
     <t>SLE</t>
@@ -513,22 +489,22 @@
     <t>Togo</t>
   </si>
   <si>
-    <t>West Africa</t>
-  </si>
-  <si>
-    <t>Africa</t>
-  </si>
-  <si>
-    <t>World outside Africa</t>
-  </si>
-  <si>
-    <t>Latin America and Caribbean</t>
-  </si>
-  <si>
-    <t>Asia (no high inc.)</t>
-  </si>
-  <si>
-    <t>World</t>
+    <t>Afrique de l'Ouest</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Reste du monde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amérique latine et Caraîbes </t>
+  </si>
+  <si>
+    <t>Asie (pays à revenu élevé exclus)</t>
+  </si>
+  <si>
+    <t>Monde</t>
   </si>
   <si>
     <t>COMESA</t>
@@ -537,19 +513,19 @@
     <t>CEN-SAD</t>
   </si>
   <si>
-    <t>EAC</t>
-  </si>
-  <si>
-    <t>ECCAS</t>
-  </si>
-  <si>
-    <t>ECOWAS</t>
+    <t>CAE</t>
+  </si>
+  <si>
+    <t>CEEAC</t>
+  </si>
+  <si>
+    <t>CEDEAO</t>
   </si>
   <si>
     <t>IGAD</t>
   </si>
   <si>
-    <t>SADC</t>
+    <t>CDAA</t>
   </si>
   <si>
     <t>UMA</t>
@@ -567,97 +543,101 @@
     <t>EU27</t>
   </si>
   <si>
-    <t>OECD</t>
-  </si>
-  <si>
-    <t>Africa, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>ROW, Non-resource-rich countries</t>
-  </si>
-  <si>
-    <t>Africa, Low income countries</t>
-  </si>
-  <si>
-    <t>ROW, Low income countries</t>
-  </si>
-  <si>
-    <t>Africa, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Lower middle income countries</t>
-  </si>
-  <si>
-    <t>Africa, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>ROW, Upper middle income countries</t>
-  </si>
-  <si>
-    <t>High income countries</t>
-  </si>
-  <si>
-    <t>Africa, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>ROW, Least Developed Countries</t>
-  </si>
-  <si>
-    <t>Africa, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>ROW, Small Island Developing States</t>
-  </si>
-  <si>
-    <t>Africa, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>ROW, Landlocked Developing Countries</t>
-  </si>
-  <si>
-    <t>Africa, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>ROW, High and extreme fragility</t>
-  </si>
-  <si>
-    <t>Disclaimer: This table and any data included herein is without prejudice to the status of or sovereignty over any territory, to the delimitation of international frontiers and boundaries and to the name of any territory, city or area.</t>
-  </si>
-  <si>
-    <t>Note: *Resource-rich countries; ".." indicates data not available or not applicable.</t>
-  </si>
-  <si>
-    <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
-  </si>
-  <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
-  </si>
-  <si>
-    <t>Figures up to 2024 are estimates. For 2025 onwards, they are projections.</t>
-  </si>
-  <si>
-    <t>CHECK.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
-  </si>
-  <si>
-    <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
-  </si>
-  <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>OCDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afrique, pays riches en ressources </t>
+  </si>
+  <si>
+    <t>RDM, pays riches en ressources</t>
+  </si>
+  <si>
+    <t>Afrique (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>RDM (pays riches en ressources exclus)</t>
+  </si>
+  <si>
+    <t>Afrique, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>RDM, pays à faible revenu</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche inférieure</t>
+  </si>
+  <si>
+    <t>Afrique, pays à revenu intermediaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
+  </si>
+  <si>
+    <t>Pays à revenu élevé</t>
+  </si>
+  <si>
+    <t>Afrique, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>RDM, pays les moins avancés</t>
+  </si>
+  <si>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>Afrique, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
+  </si>
+  <si>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+  </si>
+  <si>
+    <t>Note : *Pays riches en ressources ; ".."signifie que les données ne sont pas disponibles ou qu'elles ne sont pas valables.</t>
+  </si>
+  <si>
+    <t>RDM = "Reste du monde" ; ALC = "Pays d'Amérique latine et des Caraïbes"</t>
+  </si>
+  <si>
+    <t>CEN-SAD = « Communauté des États sahélo-sahariens » ; COMESA = « Marché commun de l’Afrique orientale et australe » ; EAC = « Communauté d’Afrique de l’Est » ; ECCAS = « Communauté économique des États de l’Afrique centrale » ; ECOWAS = « Communauté économique des États de l’Afrique de l’Ouest » ; IGAD = « Autorité intergouvernementale pour le développement » ; SADC = « Communauté de développement de l’Afrique australe » ; UMA = « Union du Maghreb arabe » ; PALOP = « Pays africains de langue officielle portugaise » ; ASEAN = « Association des nations de l’Asie du Sud-Est » ; MERCOSUR = « Marché commun du Sud ».
+EU27 = « Union européenne (27 membres) ». OECD = « Organisation de coopération et de développement économiques ».</t>
+  </si>
+  <si>
+    <t>Les chiffres jusqu’en 2024 sont des estimations. À partir de 2025, il s’agit de projections.</t>
+  </si>
+  <si>
+    <t>Source : Base de données des Perspectives économiques mondiales du FMI (octobre 2025).</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des indicateurs, leurs descriptions et détails pour plus d’informations sur les indicateurs présentés dans ce tableau.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste des pays et des regroupements de pays utilisés pour agréger les indicateurs et voir quels pays appartiennent à chaque regroupement.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour télécharger toutes les données de l’Annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques depuis 2000 (dans un format de fichier compressé).</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour visiter le site web où vous trouverez le rapport sur la dynamique du développement en Afrique, ainsi que des liens pour explorer ces données plus en détail et consulter les valeurs historiques de ces indicateurs.</t>
+  </si>
+  <si>
+    <t>CLIQUEZ ICI pour accéder à la liste complète des sources utilisées dans l'annexe statistique.</t>
   </si>
 </sst>
 </file>
@@ -669,7 +649,7 @@
     <numFmt numFmtId="164" formatCode="0_);\(0\)"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -801,16 +781,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1037,7 +1007,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1268,8 +1238,7 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1552,40 +1521,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57360A70-7231-418E-923A-C4A34429B7B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66DE559-187B-4C9D-B2C1-3C04AEC20B0C}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AR113"/>
+  <dimension ref="A1:AR115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.81640625" style="81" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6" style="81" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="6.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="34" max="43" width="5.453125" style="81" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.1796875" style="81" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="80" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6" bestFit="1" customWidth="1"/>
+    <col min="30" max="32" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="34" max="43" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1635,7 +1605,7 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
     </row>
-    <row r="2" spans="1:44" ht="32" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:44" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1726,55 +1696,55 @@
       <c r="AD2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="7" t="s">
+      <c r="AE2" s="7">
+        <v>2018</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="7" t="s">
+      <c r="AG2" s="7">
+        <v>2020</v>
+      </c>
+      <c r="AH2" s="7">
+        <v>2021</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>2022</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="7" t="s">
+      <c r="AK2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="7" t="s">
+      <c r="AL2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="7" t="s">
+      <c r="AM2" s="7">
+        <v>2026</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>2027</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>2028</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>2029</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>2030</v>
+      </c>
+      <c r="AR2" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="AJ2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR2" s="8" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="11">
         <v>-3.4500989999999998</v>
@@ -1905,10 +1875,10 @@
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C4" s="15">
         <v>8.7872310000000002</v>
@@ -2039,10 +2009,10 @@
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="15">
         <v>9.8585589999999996</v>
@@ -2173,10 +2143,10 @@
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C6" s="15">
         <v>6.4289849999999999</v>
@@ -2307,10 +2277,10 @@
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C7" s="15">
         <v>5.6922920000000001</v>
@@ -2441,10 +2411,10 @@
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C8" s="15">
         <v>1</v>
@@ -2575,13 +2545,13 @@
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D9" s="19">
         <v>5.3425830000000003</v>
@@ -2709,10 +2679,10 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C10" s="21">
         <v>-0.31775999999999999</v>
@@ -2843,10 +2813,10 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C11" s="15">
         <v>-0.57853600000000005</v>
@@ -2977,37 +2947,37 @@
     </row>
     <row r="12" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L12" s="24">
         <v>-1.1106499999999999</v>
@@ -3110,9 +3080,11 @@
       </c>
     </row>
     <row r="13" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26"/>
+      <c r="A13" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B13" s="27" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C13" s="28">
         <v>-8.2791000000000003E-2</v>
@@ -3243,10 +3215,10 @@
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C14" s="21">
         <v>3.4582160000000002</v>
@@ -3377,10 +3349,10 @@
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C15" s="21">
         <v>-6.1611130000000003</v>
@@ -3511,10 +3483,10 @@
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C16" s="21">
         <v>1.3642479999999999</v>
@@ -3645,10 +3617,10 @@
     </row>
     <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C17" s="32">
         <v>3.2020110000000002</v>
@@ -3779,10 +3751,10 @@
     </row>
     <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C18" s="32">
         <v>1.003414</v>
@@ -3913,10 +3885,10 @@
     </row>
     <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C19" s="15">
         <v>-6.5683179999999997</v>
@@ -4047,10 +4019,10 @@
     </row>
     <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" s="9" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C20" s="32">
         <v>2.5365250000000001</v>
@@ -4181,10 +4153,10 @@
     </row>
     <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C21" s="32">
         <v>5.146585</v>
@@ -4315,10 +4287,10 @@
     </row>
     <row r="22" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C22" s="36">
         <v>-2.1526459999999998</v>
@@ -4448,9 +4420,11 @@
       </c>
     </row>
     <row r="23" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
+      <c r="A23" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B23" s="27" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C23" s="28">
         <v>-3.383105</v>
@@ -4581,10 +4555,10 @@
     </row>
     <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" s="9" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B24" s="39" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C24" s="40">
         <v>7.338768</v>
@@ -4715,13 +4689,13 @@
     </row>
     <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D25" s="19">
         <v>-4.456499</v>
@@ -4849,19 +4823,19 @@
     </row>
     <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F26" s="19">
         <v>12.882088</v>
@@ -4945,48 +4919,48 @@
         <v>3.8359079999999999</v>
       </c>
       <c r="AG26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AH26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AI26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AJ26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AK26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AL26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AM26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AN26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AO26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AP26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AQ26" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="AR26" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C27" s="21">
         <v>2.6016430000000001</v>
@@ -5117,10 +5091,10 @@
     </row>
     <row r="28" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C28" s="21">
         <v>4.1336870000000001</v>
@@ -5251,10 +5225,10 @@
     </row>
     <row r="29" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C29" s="21">
         <v>3.128905</v>
@@ -5385,10 +5359,10 @@
     </row>
     <row r="30" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A30" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C30" s="21">
         <v>7.1867369999999999</v>
@@ -5519,10 +5493,10 @@
     </row>
     <row r="31" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C31" s="21">
         <v>0.41896</v>
@@ -5653,10 +5627,10 @@
     </row>
     <row r="32" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C32" s="21">
         <v>7.4547660000000002</v>
@@ -5787,76 +5761,76 @@
     </row>
     <row r="33" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Y33" s="19">
         <v>1.2</v>
@@ -5921,76 +5895,76 @@
     </row>
     <row r="34" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A34" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="O34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="P34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="S34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="T34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="U34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="V34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="W34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="X34" s="33" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="Y34" s="33">
         <v>-50.319060999999998</v>
@@ -6055,10 +6029,10 @@
     </row>
     <row r="35" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C35" s="21">
         <v>0.837924</v>
@@ -6189,10 +6163,10 @@
     </row>
     <row r="36" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C36" s="21">
         <v>7.0451459999999999</v>
@@ -6323,10 +6297,10 @@
     </row>
     <row r="37" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="9" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B37" s="22" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C37" s="23">
         <v>6.4974179999999997</v>
@@ -6456,9 +6430,11 @@
       </c>
     </row>
     <row r="38" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26"/>
+      <c r="A38" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B38" s="27" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C38" s="28">
         <v>3.5972309999999998</v>
@@ -6589,10 +6565,10 @@
     </row>
     <row r="39" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C39" s="44">
         <v>0.8</v>
@@ -6723,10 +6699,10 @@
     </row>
     <row r="40" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A40" s="9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C40" s="21">
         <v>2.3496809999999999</v>
@@ -6857,10 +6833,10 @@
     </row>
     <row r="41" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A41" s="9" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B41" s="47" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C41" s="32">
         <v>3.7201230000000001</v>
@@ -6991,13 +6967,13 @@
     </row>
     <row r="42" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B42" s="47" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D42" s="33">
         <v>0</v>
@@ -7125,10 +7101,10 @@
     </row>
     <row r="43" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C43" s="21">
         <v>4.034732</v>
@@ -7259,10 +7235,10 @@
     </row>
     <row r="44" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C44" s="36">
         <v>7.0745420000000001</v>
@@ -7392,9 +7368,11 @@
       </c>
     </row>
     <row r="45" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="26"/>
+      <c r="A45" s="26" t="s">
+        <v>57</v>
+      </c>
       <c r="B45" s="27" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C45" s="28">
         <v>2.5287660000000001</v>
@@ -7525,10 +7503,10 @@
     </row>
     <row r="46" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C46" s="40">
         <v>8.9761369999999996</v>
@@ -7659,10 +7637,10 @@
     </row>
     <row r="47" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C47" s="21">
         <v>-0.60292800000000002</v>
@@ -7793,10 +7771,10 @@
     </row>
     <row r="48" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A48" s="9" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B48" s="47" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C48" s="32">
         <v>0.69217200000000001</v>
@@ -7927,10 +7905,10 @@
     </row>
     <row r="49" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C49" s="21">
         <v>-1.0900000000000001</v>
@@ -8061,10 +8039,10 @@
     </row>
     <row r="50" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C50" s="21">
         <v>5.6959489999999997</v>
@@ -8195,10 +8173,10 @@
     </row>
     <row r="51" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C51" s="15">
         <v>3.5948479999999998</v>
@@ -8329,10 +8307,10 @@
     </row>
     <row r="52" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C52" s="21">
         <v>4.3240619999999996</v>
@@ -8463,10 +8441,10 @@
     </row>
     <row r="53" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A53" s="9" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C53" s="21">
         <v>4.5797160000000003</v>
@@ -8597,43 +8575,43 @@
     </row>
     <row r="54" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="N54" s="19">
         <v>2.758419</v>
@@ -8731,10 +8709,10 @@
     </row>
     <row r="55" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C55" s="21">
         <v>9.3103529999999992</v>
@@ -8865,10 +8843,10 @@
     </row>
     <row r="56" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C56" s="21">
         <v>-1.308459</v>
@@ -8999,13 +8977,13 @@
     </row>
     <row r="57" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D57" s="19">
         <v>-0.55203000000000002</v>
@@ -9133,10 +9111,10 @@
     </row>
     <row r="58" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C58" s="21">
         <v>-0.67563799999999996</v>
@@ -9267,10 +9245,10 @@
     </row>
     <row r="59" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C59" s="21">
         <v>1.610803</v>
@@ -9401,10 +9379,10 @@
     </row>
     <row r="60" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="9" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B60" s="22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C60" s="23">
         <v>5.8972439999999997</v>
@@ -9536,7 +9514,7 @@
     <row r="61" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C61" s="28">
         <v>2.0647229999999999</v>
@@ -9668,7 +9646,7 @@
     <row r="62" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="48"/>
       <c r="B62" s="49" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C62" s="50">
         <v>1.524762</v>
@@ -9800,7 +9778,7 @@
     <row r="63" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="48"/>
       <c r="B63" s="49" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C63" s="50">
         <v>3.2881960000000001</v>
@@ -9932,7 +9910,7 @@
     <row r="64" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A64" s="53"/>
       <c r="B64" s="54" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C64" s="55">
         <v>0.895563</v>
@@ -10064,7 +10042,7 @@
     <row r="65" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="58" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C65" s="59">
         <v>6.4591529999999997</v>
@@ -10196,7 +10174,7 @@
     <row r="66" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="53"/>
       <c r="B66" s="62" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C66" s="63">
         <v>3.208647</v>
@@ -10328,7 +10306,7 @@
     <row r="67" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A67" s="53"/>
       <c r="B67" s="58" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C67" s="59">
         <v>2.3357039999999998</v>
@@ -10460,7 +10438,7 @@
     <row r="68" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A68" s="53"/>
       <c r="B68" s="58" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C68" s="59">
         <v>2.812319</v>
@@ -10592,7 +10570,7 @@
     <row r="69" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A69" s="53"/>
       <c r="B69" s="58" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C69" s="59">
         <v>1.303744</v>
@@ -10724,7 +10702,7 @@
     <row r="70" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A70" s="53"/>
       <c r="B70" s="58" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C70" s="59">
         <v>-3.2682180000000001</v>
@@ -10856,7 +10834,7 @@
     <row r="71" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A71" s="53"/>
       <c r="B71" s="58" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C71" s="59">
         <v>2.0647229999999999</v>
@@ -10988,7 +10966,7 @@
     <row r="72" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A72" s="53"/>
       <c r="B72" s="58" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C72" s="59">
         <v>2.9822609999999998</v>
@@ -11120,7 +11098,7 @@
     <row r="73" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A73" s="53"/>
       <c r="B73" s="58" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C73" s="59">
         <v>-0.147035</v>
@@ -11252,7 +11230,7 @@
     <row r="74" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A74" s="53"/>
       <c r="B74" s="58" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C74" s="59">
         <v>2.6533280000000001</v>
@@ -11384,7 +11362,7 @@
     <row r="75" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="53"/>
       <c r="B75" s="58" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C75" s="66">
         <v>-2.4916659999999999</v>
@@ -11516,7 +11494,7 @@
     <row r="76" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A76" s="53"/>
       <c r="B76" s="69" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C76" s="70">
         <v>8.3941429999999997</v>
@@ -11648,7 +11626,7 @@
     <row r="77" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A77" s="53"/>
       <c r="B77" s="58" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C77" s="59">
         <v>-1.052494</v>
@@ -11780,7 +11758,7 @@
     <row r="78" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A78" s="53"/>
       <c r="B78" s="58" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C78" s="59">
         <v>2.740955</v>
@@ -11912,7 +11890,7 @@
     <row r="79" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="53"/>
       <c r="B79" s="62" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C79" s="63">
         <v>3.0519379999999998</v>
@@ -12044,7 +12022,7 @@
     <row r="80" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A80" s="53"/>
       <c r="B80" s="69" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C80" s="70">
         <v>1.4172180000000001</v>
@@ -12176,7 +12154,7 @@
     <row r="81" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A81" s="53"/>
       <c r="B81" s="58" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C81" s="59">
         <v>9.3697040000000005</v>
@@ -12308,7 +12286,7 @@
     <row r="82" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A82" s="53"/>
       <c r="B82" s="58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C82" s="59">
         <v>1.5558179999999999</v>
@@ -12440,7 +12418,7 @@
     <row r="83" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="53"/>
       <c r="B83" s="62" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C83" s="63">
         <v>2.995609</v>
@@ -12572,7 +12550,7 @@
     <row r="84" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A84" s="53"/>
       <c r="B84" s="69" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C84" s="70">
         <v>0.359761</v>
@@ -12704,7 +12682,7 @@
     <row r="85" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A85" s="53"/>
       <c r="B85" s="73" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C85" s="59">
         <v>10.357773999999999</v>
@@ -12836,7 +12814,7 @@
     <row r="86" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A86" s="53"/>
       <c r="B86" s="58" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C86" s="59">
         <v>2.3632010000000001</v>
@@ -12968,7 +12946,7 @@
     <row r="87" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A87" s="53"/>
       <c r="B87" s="58" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C87" s="59">
         <v>4.7632070000000004</v>
@@ -13100,7 +13078,7 @@
     <row r="88" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A88" s="53"/>
       <c r="B88" s="58" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C88" s="59">
         <v>0.94711100000000004</v>
@@ -13232,7 +13210,7 @@
     <row r="89" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A89" s="53"/>
       <c r="B89" s="58" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C89" s="59">
         <v>4.1514930000000003</v>
@@ -13364,7 +13342,7 @@
     <row r="90" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="53"/>
       <c r="B90" s="62" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C90" s="63">
         <v>2.8845689999999999</v>
@@ -13496,7 +13474,7 @@
     <row r="91" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A91" s="53"/>
       <c r="B91" s="69" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C91" s="70">
         <v>1.0147330000000001</v>
@@ -13628,7 +13606,7 @@
     <row r="92" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A92" s="53"/>
       <c r="B92" s="58" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C92" s="59">
         <v>4.9964469999999999</v>
@@ -13760,7 +13738,7 @@
     <row r="93" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A93" s="53"/>
       <c r="B93" s="58" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C93" s="59">
         <v>6.2492340000000004</v>
@@ -13892,7 +13870,7 @@
     <row r="94" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A94" s="53"/>
       <c r="B94" s="58" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C94" s="59">
         <v>3.7944360000000001</v>
@@ -14024,7 +14002,7 @@
     <row r="95" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A95" s="53"/>
       <c r="B95" s="58" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C95" s="59">
         <v>3.6507830000000001</v>
@@ -14156,7 +14134,7 @@
     <row r="96" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="53"/>
       <c r="B96" s="62" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C96" s="63">
         <v>4.0312510000000001</v>
@@ -14288,7 +14266,7 @@
     <row r="97" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A97" s="53"/>
       <c r="B97" s="69" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C97" s="70">
         <v>1.2983469999999999</v>
@@ -14420,7 +14398,7 @@
     <row r="98" spans="1:44" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="53"/>
       <c r="B98" s="62" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C98" s="63">
         <v>7.7835799999999997</v>
@@ -14597,7 +14575,7 @@
     </row>
     <row r="100" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C100" s="77"/>
       <c r="D100" s="77"/>
@@ -14644,7 +14622,7 @@
     </row>
     <row r="101" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C101" s="77"/>
       <c r="D101" s="77"/>
@@ -14691,7 +14669,7 @@
     </row>
     <row r="102" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C102" s="77"/>
       <c r="D102" s="77"/>
@@ -14738,7 +14716,7 @@
     </row>
     <row r="103" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C103" s="77"/>
       <c r="D103" s="77"/>
@@ -14785,7 +14763,7 @@
     </row>
     <row r="104" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C104" s="77"/>
       <c r="D104" s="77"/>
@@ -14832,7 +14810,7 @@
     </row>
     <row r="105" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C105" s="77"/>
       <c r="D105" s="77"/>
@@ -14878,6 +14856,9 @@
       <c r="AR105" s="77"/>
     </row>
     <row r="106" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A106" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="B106" s="78"/>
       <c r="C106" s="77"/>
       <c r="D106" s="77"/>
@@ -14922,10 +14903,8 @@
       <c r="AQ106" s="77"/>
       <c r="AR106" s="77"/>
     </row>
-    <row r="107" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B107" s="79" t="s">
-        <v>202</v>
-      </c>
+    <row r="107" spans="1:44" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="78"/>
       <c r="C107" s="77"/>
       <c r="D107" s="77"/>
       <c r="E107" s="77"/>
@@ -14970,7 +14949,9 @@
       <c r="AR107" s="77"/>
     </row>
     <row r="108" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="81" t="s">
+        <v>198</v>
+      </c>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
       <c r="E108" s="77"/>
@@ -15015,9 +14996,7 @@
       <c r="AR108" s="77"/>
     </row>
     <row r="109" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B109" s="82" t="s">
-        <v>204</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="77"/>
       <c r="D109" s="77"/>
       <c r="E109" s="77"/>
@@ -15062,8 +15041,8 @@
       <c r="AR109" s="77"/>
     </row>
     <row r="110" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B110" s="82" t="s">
-        <v>205</v>
+      <c r="B110" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C110" s="77"/>
       <c r="D110" s="77"/>
@@ -15109,8 +15088,8 @@
       <c r="AR110" s="77"/>
     </row>
     <row r="111" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B111" s="82" t="s">
-        <v>206</v>
+      <c r="B111" s="2" t="s">
+        <v>196</v>
       </c>
       <c r="C111" s="77"/>
       <c r="D111" s="77"/>
@@ -15156,8 +15135,8 @@
       <c r="AR111" s="77"/>
     </row>
     <row r="112" spans="1:44" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>203</v>
+      <c r="B112" s="81" t="s">
+        <v>199</v>
       </c>
       <c r="C112" s="77"/>
       <c r="D112" s="77"/>
@@ -15203,7 +15182,9 @@
       <c r="AR112" s="77"/>
     </row>
     <row r="113" spans="2:44" x14ac:dyDescent="0.35">
-      <c r="B113" s="80"/>
+      <c r="B113" s="81" t="s">
+        <v>197</v>
+      </c>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
       <c r="E113" s="77"/>
@@ -15247,16 +15228,104 @@
       <c r="AQ113" s="77"/>
       <c r="AR113" s="77"/>
     </row>
+    <row r="114" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B114" s="79"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+      <c r="R114" s="77"/>
+      <c r="S114" s="77"/>
+      <c r="T114" s="77"/>
+      <c r="U114" s="77"/>
+      <c r="V114" s="77"/>
+      <c r="W114" s="77"/>
+      <c r="X114" s="77"/>
+      <c r="Y114" s="77"/>
+      <c r="Z114" s="77"/>
+      <c r="AA114" s="77"/>
+      <c r="AB114" s="77"/>
+      <c r="AC114" s="77"/>
+      <c r="AD114" s="77"/>
+      <c r="AE114" s="77"/>
+      <c r="AF114" s="77"/>
+      <c r="AG114" s="77"/>
+      <c r="AH114" s="77"/>
+      <c r="AI114" s="77"/>
+      <c r="AJ114" s="77"/>
+      <c r="AK114" s="77"/>
+      <c r="AL114" s="77"/>
+      <c r="AM114" s="77"/>
+      <c r="AN114" s="77"/>
+      <c r="AO114" s="77"/>
+      <c r="AP114" s="77"/>
+      <c r="AQ114" s="77"/>
+      <c r="AR114" s="77"/>
+    </row>
+    <row r="115" spans="2:44" x14ac:dyDescent="0.35">
+      <c r="B115" s="79"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="77"/>
+      <c r="G115" s="77"/>
+      <c r="H115" s="77"/>
+      <c r="I115" s="77"/>
+      <c r="J115" s="77"/>
+      <c r="K115" s="77"/>
+      <c r="L115" s="77"/>
+      <c r="M115" s="77"/>
+      <c r="N115" s="77"/>
+      <c r="O115" s="77"/>
+      <c r="P115" s="77"/>
+      <c r="Q115" s="77"/>
+      <c r="R115" s="77"/>
+      <c r="S115" s="77"/>
+      <c r="T115" s="77"/>
+      <c r="U115" s="77"/>
+      <c r="V115" s="77"/>
+      <c r="W115" s="77"/>
+      <c r="X115" s="77"/>
+      <c r="Y115" s="77"/>
+      <c r="Z115" s="77"/>
+      <c r="AA115" s="77"/>
+      <c r="AB115" s="77"/>
+      <c r="AC115" s="77"/>
+      <c r="AD115" s="77"/>
+      <c r="AE115" s="77"/>
+      <c r="AF115" s="77"/>
+      <c r="AG115" s="77"/>
+      <c r="AH115" s="77"/>
+      <c r="AI115" s="77"/>
+      <c r="AJ115" s="77"/>
+      <c r="AK115" s="77"/>
+      <c r="AL115" s="77"/>
+      <c r="AM115" s="77"/>
+      <c r="AN115" s="77"/>
+      <c r="AO115" s="77"/>
+      <c r="AP115" s="77"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" xr:uid="{569AAB85-BA46-49EA-A996-AB4FE7CDCF20}"/>
-    <hyperlink ref="B110" r:id="rId2" xr:uid="{E26C8F43-5B52-46D4-8B83-2C2A3155E889}"/>
-    <hyperlink ref="B107" r:id="rId3" xr:uid="{9131292A-9201-4268-9E02-7105B3522BB5}"/>
-    <hyperlink ref="B112" r:id="rId4" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{BA9503BC-AAAB-4F75-80E7-7A31433F44D1}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{B7B93C08-401A-4F01-B6DC-D436DF34DFD8}"/>
+    <hyperlink ref="B110" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{21D2F89A-CC92-415D-B0C5-E23EA2894FBF}"/>
+    <hyperlink ref="B111" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{D4E28E88-61C2-4F5C-9A5B-8F8E2CF94683}"/>
+    <hyperlink ref="B113" r:id="rId3" xr:uid="{27A684FF-242D-4A7B-8D99-2D45A4A5C2CB}"/>
+    <hyperlink ref="B108" r:id="rId4" xr:uid="{4D2B9C68-FDA0-494A-8914-7FF678126699}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{E021C068-56DE-4F57-A1D6-73F818AD4F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="35" fitToHeight="0" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" scale="36" fitToHeight="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
